--- a/la.xlsx
+++ b/la.xlsx
@@ -418,6 +418,25 @@
   </cellStyles>
   <dxfs count="17">
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="3" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="6" tint="0.79998168889431442"/>
@@ -524,23 +543,6 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="3" tint="0.59996337778862885"/>
@@ -620,7 +622,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1069,7 +1070,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1414,7 +1414,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="0"/>
@@ -1493,7 +1492,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="\+0;\-0;0" sourceLinked="1"/>
@@ -1540,7 +1538,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1585,7 +1582,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2034,7 +2030,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2379,7 +2374,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="0"/>
@@ -2458,7 +2452,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="\+0;\-0;0" sourceLinked="1"/>
@@ -2505,7 +2498,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2550,7 +2542,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2999,7 +2990,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3344,7 +3334,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="0"/>
@@ -3423,7 +3412,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="\+0;\-0;0" sourceLinked="1"/>
@@ -3470,7 +3458,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3515,7 +3502,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3952,7 +3938,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4288,7 +4273,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="0"/>
@@ -4367,7 +4351,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="\+0;\-0;0" sourceLinked="1"/>
@@ -4414,7 +4397,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4459,7 +4441,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4896,7 +4877,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -5232,7 +5212,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="0"/>
@@ -5311,7 +5290,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="\+0;\-0;0" sourceLinked="1"/>
@@ -5358,7 +5336,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5403,7 +5380,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5840,7 +5816,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -6176,7 +6151,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="0"/>
@@ -6255,7 +6229,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="\+0;\-0;0" sourceLinked="1"/>
@@ -6302,7 +6275,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8836,7 +8808,7 @@
   <dimension ref="A1:AB213"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K202" sqref="K202"/>
     </sheetView>
   </sheetViews>
@@ -8963,11 +8935,11 @@
         <v>17</v>
       </c>
       <c r="M2" s="6" t="str">
-        <f>IF(N2="","",K2-L2)</f>
+        <f t="shared" ref="M2:M65" si="0">IF(N2="","",K2-L2)</f>
         <v/>
       </c>
       <c r="N2" s="7" t="str">
-        <f>IF(OR(K2="",L2=""),"",IF(K2=L2,"T",IF(K2&lt;L2,"L","W")))</f>
+        <f t="shared" ref="N2:N65" si="1">IF(OR(K2="",L2=""),"",IF(K2=L2,"T",IF(K2&lt;L2,"L","W")))</f>
         <v/>
       </c>
       <c r="O2" s="16" t="str">
@@ -9029,7 +9001,7 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <f t="shared" ref="A3:A66" si="0">IF(B3&amp;C3&lt;&gt;B2&amp;C2,1,A2+1)</f>
+        <f t="shared" ref="A3:A66" si="2">IF(B3&amp;C3&lt;&gt;B2&amp;C2,1,A2+1)</f>
         <v>2</v>
       </c>
       <c r="B3" s="9">
@@ -9054,15 +9026,15 @@
         <v>24</v>
       </c>
       <c r="M3" s="6">
-        <f>IF(N3="","",K3-L3)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="N3" s="7" t="str">
-        <f>IF(OR(K3="",L3=""),"",IF(K3=L3,"T",IF(K3&lt;L3,"L","W")))</f>
+        <f t="shared" si="1"/>
         <v>W</v>
       </c>
       <c r="O3" s="15" t="str">
-        <f t="shared" ref="O3:O66" ca="1" si="1">IF(OR(K3="",L3=""),"","("&amp;COUNTIF(OFFSET(N3,,,-$A3),"W")&amp;"-"&amp;COUNTIF(OFFSET(N3,,,-$A3),"L")&amp;IF(COUNTIF(OFFSET(N3,,,-$A3),"T")&gt;0,"-"&amp;COUNTIF(OFFSET(N3,,,-$A3),"T"),"")&amp;")")</f>
+        <f t="shared" ref="O3:O66" ca="1" si="3">IF(OR(K3="",L3=""),"","("&amp;COUNTIF(OFFSET(N3,,,-$A3),"W")&amp;"-"&amp;COUNTIF(OFFSET(N3,,,-$A3),"L")&amp;IF(COUNTIF(OFFSET(N3,,,-$A3),"T")&gt;0,"-"&amp;COUNTIF(OFFSET(N3,,,-$A3),"T"),"")&amp;")")</f>
         <v>(1-0)</v>
       </c>
       <c r="P3" s="5">
@@ -9106,7 +9078,7 @@
         <v>1</v>
       </c>
       <c r="Z3" s="12">
-        <f t="shared" ref="Z3:Z66" ca="1" si="2">IF(Y3="",#N/A,SUM(OFFSET(Y3,,,-$A3))/COUNT(OFFSET(Y3,,,-$A3)))</f>
+        <f t="shared" ref="Z3:Z66" ca="1" si="4">IF(Y3="",#N/A,SUM(OFFSET(Y3,,,-$A3))/COUNT(OFFSET(Y3,,,-$A3)))</f>
         <v>1</v>
       </c>
       <c r="AA3" s="11" t="str">
@@ -9114,13 +9086,13 @@
         <v/>
       </c>
       <c r="AB3" s="12" t="e">
-        <f t="shared" ref="AB3:AB66" ca="1" si="3">IF(AA3="",#N/A,SUM(OFFSET(AA3,,,-$A3))/COUNT(OFFSET(AA3,,,-$A3)))</f>
+        <f t="shared" ref="AB3:AB66" ca="1" si="5">IF(AA3="",#N/A,SUM(OFFSET(AA3,,,-$A3))/COUNT(OFFSET(AA3,,,-$A3)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="B4" s="9">
@@ -9145,15 +9117,15 @@
         <v>20</v>
       </c>
       <c r="M4" s="6">
-        <f>IF(N4="","",K4-L4)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="N4" s="7" t="str">
-        <f>IF(OR(K4="",L4=""),"",IF(K4=L4,"T",IF(K4&lt;L4,"L","W")))</f>
+        <f t="shared" si="1"/>
         <v>W</v>
       </c>
       <c r="O4" s="15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>(2-0)</v>
       </c>
       <c r="P4" s="5">
@@ -9197,7 +9169,7 @@
         <v>1</v>
       </c>
       <c r="Z4" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="AA4" s="11" t="str">
@@ -9205,13 +9177,13 @@
         <v/>
       </c>
       <c r="AB4" s="12" t="e">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B5" s="9">
@@ -9236,15 +9208,15 @@
         <v>17</v>
       </c>
       <c r="M5" s="6">
-        <f>IF(N5="","",K5-L5)</f>
+        <f t="shared" si="0"/>
         <v>-8</v>
       </c>
       <c r="N5" s="7" t="str">
-        <f>IF(OR(K5="",L5=""),"",IF(K5=L5,"T",IF(K5&lt;L5,"L","W")))</f>
+        <f t="shared" si="1"/>
         <v>L</v>
       </c>
       <c r="O5" s="15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>(2-1)</v>
       </c>
       <c r="P5" s="5">
@@ -9288,7 +9260,7 @@
         <v/>
       </c>
       <c r="Z5" s="12" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="AA5" s="11">
@@ -9296,13 +9268,13 @@
         <v>0</v>
       </c>
       <c r="AB5" s="12">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="B6" s="9">
@@ -9327,15 +9299,15 @@
         <v>27</v>
       </c>
       <c r="M6" s="6">
-        <f>IF(N6="","",K6-L6)</f>
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
       <c r="N6" s="7" t="str">
-        <f>IF(OR(K6="",L6=""),"",IF(K6=L6,"T",IF(K6&lt;L6,"L","W")))</f>
+        <f t="shared" si="1"/>
         <v>L</v>
       </c>
       <c r="O6" s="15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>(2-2)</v>
       </c>
       <c r="P6" s="5">
@@ -9379,7 +9351,7 @@
         <v/>
       </c>
       <c r="Z6" s="12" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="AA6" s="11">
@@ -9387,13 +9359,13 @@
         <v>0</v>
       </c>
       <c r="AB6" s="12">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="B7" s="9">
@@ -9430,15 +9402,15 @@
         <v>28</v>
       </c>
       <c r="M7" s="6">
-        <f>IF(N7="","",K7-L7)</f>
+        <f t="shared" si="0"/>
         <v>-28</v>
       </c>
       <c r="N7" s="7" t="str">
-        <f>IF(OR(K7="",L7=""),"",IF(K7=L7,"T",IF(K7&lt;L7,"L","W")))</f>
+        <f t="shared" si="1"/>
         <v>L</v>
       </c>
       <c r="O7" s="15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>(0-1)</v>
       </c>
       <c r="P7" s="5">
@@ -9482,7 +9454,7 @@
         <v/>
       </c>
       <c r="Z7" s="12" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="AA7" s="11">
@@ -9490,13 +9462,13 @@
         <v>0</v>
       </c>
       <c r="AB7" s="12">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="B8" s="9">
@@ -9533,15 +9505,15 @@
         <v>3</v>
       </c>
       <c r="M8" s="6">
-        <f>IF(N8="","",K8-L8)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="N8" s="7" t="str">
-        <f>IF(OR(K8="",L8=""),"",IF(K8=L8,"T",IF(K8&lt;L8,"L","W")))</f>
+        <f t="shared" si="1"/>
         <v>W</v>
       </c>
       <c r="O8" s="15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>(1-1)</v>
       </c>
       <c r="P8" s="5">
@@ -9585,7 +9557,7 @@
         <v>1</v>
       </c>
       <c r="Z8" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="AA8" s="11" t="str">
@@ -9593,13 +9565,13 @@
         <v/>
       </c>
       <c r="AB8" s="12" t="e">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="B9" s="9">
@@ -9636,15 +9608,15 @@
         <v>32</v>
       </c>
       <c r="M9" s="6">
-        <f>IF(N9="","",K9-L9)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="N9" s="7" t="str">
-        <f>IF(OR(K9="",L9=""),"",IF(K9=L9,"T",IF(K9&lt;L9,"L","W")))</f>
+        <f t="shared" si="1"/>
         <v>W</v>
       </c>
       <c r="O9" s="15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>(2-1)</v>
       </c>
       <c r="P9" s="5">
@@ -9688,7 +9660,7 @@
         <v/>
       </c>
       <c r="Z9" s="12" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="AA9" s="11">
@@ -9696,58 +9668,58 @@
         <v>1</v>
       </c>
       <c r="AB9" s="12">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B10" s="9">
+        <v>2016</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="9">
+        <v>4</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="9">
+        <v>17</v>
+      </c>
+      <c r="L10" s="9">
+        <v>13</v>
+      </c>
+      <c r="M10" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B10" s="9">
-        <v>2016</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="9">
-        <v>4</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="10">
-        <v>1</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="K10" s="9">
-        <v>17</v>
-      </c>
-      <c r="L10" s="9">
-        <v>13</v>
-      </c>
-      <c r="M10" s="6">
-        <f>IF(N10="","",K10-L10)</f>
-        <v>4</v>
-      </c>
       <c r="N10" s="7" t="str">
-        <f>IF(OR(K10="",L10=""),"",IF(K10=L10,"T",IF(K10&lt;L10,"L","W")))</f>
+        <f t="shared" si="1"/>
         <v>W</v>
       </c>
       <c r="O10" s="15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>(3-1)</v>
       </c>
       <c r="P10" s="5">
@@ -9791,7 +9763,7 @@
         <v/>
       </c>
       <c r="Z10" s="12" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="AA10" s="11">
@@ -9799,13 +9771,13 @@
         <v>1</v>
       </c>
       <c r="AB10" s="12">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="B11" s="9">
@@ -9842,15 +9814,15 @@
         <v>30</v>
       </c>
       <c r="M11" s="6">
-        <f>IF(N11="","",K11-L11)</f>
+        <f t="shared" si="0"/>
         <v>-11</v>
       </c>
       <c r="N11" s="7" t="str">
-        <f>IF(OR(K11="",L11=""),"",IF(K11=L11,"T",IF(K11&lt;L11,"L","W")))</f>
+        <f t="shared" si="1"/>
         <v>L</v>
       </c>
       <c r="O11" s="15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>(3-2)</v>
       </c>
       <c r="P11" s="5">
@@ -9894,7 +9866,7 @@
         <v>0</v>
       </c>
       <c r="Z11" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0.5</v>
       </c>
       <c r="AA11" s="11" t="str">
@@ -9902,13 +9874,13 @@
         <v/>
       </c>
       <c r="AB11" s="12" t="e">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="B12" s="9">
@@ -9945,15 +9917,15 @@
         <v>31</v>
       </c>
       <c r="M12" s="6">
-        <f>IF(N12="","",K12-L12)</f>
+        <f t="shared" si="0"/>
         <v>-3</v>
       </c>
       <c r="N12" s="7" t="str">
-        <f>IF(OR(K12="",L12=""),"",IF(K12=L12,"T",IF(K12&lt;L12,"L","W")))</f>
+        <f t="shared" si="1"/>
         <v>L</v>
       </c>
       <c r="O12" s="15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>(3-3)</v>
       </c>
       <c r="P12" s="5">
@@ -9997,7 +9969,7 @@
         <v/>
       </c>
       <c r="Z12" s="12" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="AA12" s="11">
@@ -10005,13 +9977,13 @@
         <v>0</v>
       </c>
       <c r="AB12" s="12">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="B13" s="9">
@@ -10048,15 +10020,15 @@
         <v>17</v>
       </c>
       <c r="M13" s="6">
-        <f>IF(N13="","",K13-L13)</f>
+        <f t="shared" si="0"/>
         <v>-7</v>
       </c>
       <c r="N13" s="7" t="str">
-        <f>IF(OR(K13="",L13=""),"",IF(K13=L13,"T",IF(K13&lt;L13,"L","W")))</f>
+        <f t="shared" si="1"/>
         <v>L</v>
       </c>
       <c r="O13" s="15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>(3-4)</v>
       </c>
       <c r="P13" s="5">
@@ -10100,7 +10072,7 @@
         <v>0</v>
       </c>
       <c r="Z13" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="AA13" s="11" t="str">
@@ -10108,13 +10080,13 @@
         <v/>
       </c>
       <c r="AB13" s="12" t="e">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="B14" s="9">
@@ -10130,15 +10102,15 @@
         <v>17</v>
       </c>
       <c r="M14" s="6" t="str">
-        <f>IF(N14="","",K14-L14)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="N14" s="7" t="str">
-        <f>IF(OR(K14="",L14=""),"",IF(K14=L14,"T",IF(K14&lt;L14,"L","W")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O14" s="15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="P14" s="5" t="str">
@@ -10182,7 +10154,7 @@
         <v/>
       </c>
       <c r="Z14" s="12" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="AA14" s="11" t="str">
@@ -10190,13 +10162,13 @@
         <v/>
       </c>
       <c r="AB14" s="12" t="e">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B15" s="9">
@@ -10233,15 +10205,15 @@
         <v>13</v>
       </c>
       <c r="M15" s="6">
-        <f>IF(N15="","",K15-L15)</f>
+        <f t="shared" si="0"/>
         <v>-3</v>
       </c>
       <c r="N15" s="7" t="str">
-        <f>IF(OR(K15="",L15=""),"",IF(K15=L15,"T",IF(K15&lt;L15,"L","W")))</f>
+        <f t="shared" si="1"/>
         <v>L</v>
       </c>
       <c r="O15" s="15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>(3-5)</v>
       </c>
       <c r="P15" s="5">
@@ -10285,7 +10257,7 @@
         <v>0</v>
       </c>
       <c r="Z15" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0.25</v>
       </c>
       <c r="AA15" s="11" t="str">
@@ -10293,13 +10265,13 @@
         <v/>
       </c>
       <c r="AB15" s="12" t="e">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B16" s="9">
@@ -10336,15 +10308,15 @@
         <v>3</v>
       </c>
       <c r="M16" s="6">
-        <f>IF(N16="","",K16-L16)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="N16" s="7" t="str">
-        <f>IF(OR(K16="",L16=""),"",IF(K16=L16,"T",IF(K16&lt;L16,"L","W")))</f>
+        <f t="shared" si="1"/>
         <v>W</v>
       </c>
       <c r="O16" s="15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>(4-5)</v>
       </c>
       <c r="P16" s="5">
@@ -10388,7 +10360,7 @@
         <v/>
       </c>
       <c r="Z16" s="12" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="AA16" s="11">
@@ -10396,13 +10368,13 @@
         <v>1</v>
       </c>
       <c r="AB16" s="12">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0.6</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="B17" s="9">
@@ -10439,15 +10411,15 @@
         <v>14</v>
       </c>
       <c r="M17" s="6">
-        <f>IF(N17="","",K17-L17)</f>
+        <f t="shared" si="0"/>
         <v>-4</v>
       </c>
       <c r="N17" s="7" t="str">
-        <f>IF(OR(K17="",L17=""),"",IF(K17=L17,"T",IF(K17&lt;L17,"L","W")))</f>
+        <f t="shared" si="1"/>
         <v>L</v>
       </c>
       <c r="O17" s="15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>(4-6)</v>
       </c>
       <c r="P17" s="5">
@@ -10491,7 +10463,7 @@
         <v>0</v>
       </c>
       <c r="Z17" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0.2</v>
       </c>
       <c r="AA17" s="11" t="str">
@@ -10499,13 +10471,13 @@
         <v/>
       </c>
       <c r="AB17" s="12" t="e">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="B18" s="9">
@@ -10542,15 +10514,15 @@
         <v>49</v>
       </c>
       <c r="M18" s="6">
-        <f>IF(N18="","",K18-L18)</f>
+        <f t="shared" si="0"/>
         <v>-28</v>
       </c>
       <c r="N18" s="7" t="str">
-        <f>IF(OR(K18="",L18=""),"",IF(K18=L18,"T",IF(K18&lt;L18,"L","W")))</f>
+        <f t="shared" si="1"/>
         <v>L</v>
       </c>
       <c r="O18" s="15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>(4-7)</v>
       </c>
       <c r="P18" s="5">
@@ -10594,7 +10566,7 @@
         <v/>
       </c>
       <c r="Z18" s="12" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="AA18" s="11">
@@ -10602,13 +10574,13 @@
         <v>0</v>
       </c>
       <c r="AB18" s="12">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="B19" s="9">
@@ -10645,15 +10617,15 @@
         <v>26</v>
       </c>
       <c r="M19" s="6">
-        <f>IF(N19="","",K19-L19)</f>
+        <f t="shared" si="0"/>
         <v>-16</v>
       </c>
       <c r="N19" s="7" t="str">
-        <f>IF(OR(K19="",L19=""),"",IF(K19=L19,"T",IF(K19&lt;L19,"L","W")))</f>
+        <f t="shared" si="1"/>
         <v>L</v>
       </c>
       <c r="O19" s="15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>(4-8)</v>
       </c>
       <c r="P19" s="5">
@@ -10697,7 +10669,7 @@
         <v/>
       </c>
       <c r="Z19" s="12" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="AA19" s="11">
@@ -10705,13 +10677,13 @@
         <v>0</v>
       </c>
       <c r="AB19" s="12">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="B20" s="9">
@@ -10748,15 +10720,15 @@
         <v>42</v>
       </c>
       <c r="M20" s="6">
-        <f>IF(N20="","",K20-L20)</f>
+        <f t="shared" si="0"/>
         <v>-28</v>
       </c>
       <c r="N20" s="7" t="str">
-        <f>IF(OR(K20="",L20=""),"",IF(K20=L20,"T",IF(K20&lt;L20,"L","W")))</f>
+        <f t="shared" si="1"/>
         <v>L</v>
       </c>
       <c r="O20" s="15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>(4-9)</v>
       </c>
       <c r="P20" s="5">
@@ -10800,7 +10772,7 @@
         <v>0</v>
       </c>
       <c r="Z20" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="AA20" s="11" t="str">
@@ -10808,13 +10780,13 @@
         <v/>
       </c>
       <c r="AB20" s="12" t="e">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="B21" s="9">
@@ -10851,15 +10823,15 @@
         <v>24</v>
       </c>
       <c r="M21" s="6">
-        <f>IF(N21="","",K21-L21)</f>
+        <f t="shared" si="0"/>
         <v>-21</v>
       </c>
       <c r="N21" s="7" t="str">
-        <f>IF(OR(K21="",L21=""),"",IF(K21=L21,"T",IF(K21&lt;L21,"L","W")))</f>
+        <f t="shared" si="1"/>
         <v>L</v>
       </c>
       <c r="O21" s="15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>(4-10)</v>
       </c>
       <c r="P21" s="5">
@@ -10903,7 +10875,7 @@
         <v/>
       </c>
       <c r="Z21" s="12" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="AA21" s="11">
@@ -10911,13 +10883,13 @@
         <v>0</v>
       </c>
       <c r="AB21" s="12">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0.375</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="B22" s="9">
@@ -10954,15 +10926,15 @@
         <v>22</v>
       </c>
       <c r="M22" s="6">
-        <f>IF(N22="","",K22-L22)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="N22" s="7" t="str">
-        <f>IF(OR(K22="",L22=""),"",IF(K22=L22,"T",IF(K22&lt;L22,"L","W")))</f>
+        <f t="shared" si="1"/>
         <v>L</v>
       </c>
       <c r="O22" s="15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>(4-11)</v>
       </c>
       <c r="P22" s="5">
@@ -11006,7 +10978,7 @@
         <v>0</v>
       </c>
       <c r="Z22" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="AA22" s="11" t="str">
@@ -11014,13 +10986,13 @@
         <v/>
       </c>
       <c r="AB22" s="12" t="e">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="B23" s="9">
@@ -11057,15 +11029,15 @@
         <v>44</v>
       </c>
       <c r="M23" s="6">
-        <f>IF(N23="","",K23-L23)</f>
+        <f t="shared" si="0"/>
         <v>-38</v>
       </c>
       <c r="N23" s="7" t="str">
-        <f>IF(OR(K23="",L23=""),"",IF(K23=L23,"T",IF(K23&lt;L23,"L","W")))</f>
+        <f t="shared" si="1"/>
         <v>L</v>
       </c>
       <c r="O23" s="15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>(4-12)</v>
       </c>
       <c r="P23" s="5">
@@ -11109,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="Z23" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0.125</v>
       </c>
       <c r="AA23" s="11" t="str">
@@ -11117,13 +11089,13 @@
         <v/>
       </c>
       <c r="AB23" s="12" t="e">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="B24" s="9">
@@ -11139,15 +11111,15 @@
         <v>16</v>
       </c>
       <c r="M24" s="6" t="str">
-        <f>IF(N24="","",K24-L24)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="N24" s="7" t="str">
-        <f>IF(OR(K24="",L24=""),"",IF(K24=L24,"T",IF(K24&lt;L24,"L","W")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O24" s="15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="P24" s="5" t="str">
@@ -11191,7 +11163,7 @@
         <v/>
       </c>
       <c r="Z24" s="12" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="AA24" s="11" t="str">
@@ -11199,13 +11171,13 @@
         <v/>
       </c>
       <c r="AB24" s="12" t="e">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="B25" s="9">
@@ -11221,15 +11193,15 @@
         <v>16</v>
       </c>
       <c r="M25" s="6" t="str">
-        <f>IF(N25="","",K25-L25)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="N25" s="7" t="str">
-        <f>IF(OR(K25="",L25=""),"",IF(K25=L25,"T",IF(K25&lt;L25,"L","W")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O25" s="15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="P25" s="5" t="str">
@@ -11273,7 +11245,7 @@
         <v/>
       </c>
       <c r="Z25" s="12" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="AA25" s="11" t="str">
@@ -11281,13 +11253,13 @@
         <v/>
       </c>
       <c r="AB25" s="12" t="e">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="B26" s="9">
@@ -11303,15 +11275,15 @@
         <v>16</v>
       </c>
       <c r="M26" s="6" t="str">
-        <f>IF(N26="","",K26-L26)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="N26" s="7" t="str">
-        <f>IF(OR(K26="",L26=""),"",IF(K26=L26,"T",IF(K26&lt;L26,"L","W")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O26" s="15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="P26" s="5" t="str">
@@ -11355,7 +11327,7 @@
         <v/>
       </c>
       <c r="Z26" s="12" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="AA26" s="11" t="str">
@@ -11363,13 +11335,13 @@
         <v/>
       </c>
       <c r="AB26" s="12" t="e">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B27" s="9">
@@ -11385,15 +11357,15 @@
         <v>16</v>
       </c>
       <c r="M27" s="6" t="str">
-        <f>IF(N27="","",K27-L27)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="N27" s="7" t="str">
-        <f>IF(OR(K27="",L27=""),"",IF(K27=L27,"T",IF(K27&lt;L27,"L","W")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O27" s="15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="P27" s="5" t="str">
@@ -11437,7 +11409,7 @@
         <v/>
       </c>
       <c r="Z27" s="12" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="AA27" s="11" t="str">
@@ -11445,13 +11417,13 @@
         <v/>
       </c>
       <c r="AB27" s="12" t="e">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="28" spans="1:28" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="B28" s="9">
@@ -11467,15 +11439,15 @@
         <v>17</v>
       </c>
       <c r="M28" s="6" t="str">
-        <f>IF(N28="","",K28-L28)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="N28" s="7" t="str">
-        <f>IF(OR(K28="",L28=""),"",IF(K28=L28,"T",IF(K28&lt;L28,"L","W")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O28" s="15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="P28" s="5" t="str">
@@ -11519,7 +11491,7 @@
         <v/>
       </c>
       <c r="Z28" s="12" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="AA28" s="11" t="str">
@@ -11527,13 +11499,13 @@
         <v/>
       </c>
       <c r="AB28" s="12" t="e">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="B29" s="9">
@@ -11558,15 +11530,15 @@
         <v>10</v>
       </c>
       <c r="M29" s="6">
-        <f>IF(N29="","",K29-L29)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="N29" s="7" t="str">
-        <f>IF(OR(K29="",L29=""),"",IF(K29=L29,"T",IF(K29&lt;L29,"L","W")))</f>
+        <f t="shared" si="1"/>
         <v>W</v>
       </c>
       <c r="O29" s="15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>(1-0)</v>
       </c>
       <c r="P29" s="5">
@@ -11610,7 +11582,7 @@
         <v>1</v>
       </c>
       <c r="Z29" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="AA29" s="11" t="str">
@@ -11618,46 +11590,46 @@
         <v/>
       </c>
       <c r="AB29" s="12" t="e">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="B30" s="9">
+        <v>2017</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="9">
+        <v>2</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K30" s="9">
+        <v>24</v>
+      </c>
+      <c r="L30" s="9">
+        <v>21</v>
+      </c>
+      <c r="M30" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B30" s="9">
-        <v>2017</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="9">
-        <v>2</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="K30" s="9">
-        <v>24</v>
-      </c>
-      <c r="L30" s="9">
-        <v>21</v>
-      </c>
-      <c r="M30" s="6">
-        <f>IF(N30="","",K30-L30)</f>
-        <v>3</v>
-      </c>
       <c r="N30" s="7" t="str">
-        <f>IF(OR(K30="",L30=""),"",IF(K30=L30,"T",IF(K30&lt;L30,"L","W")))</f>
+        <f t="shared" si="1"/>
         <v>W</v>
       </c>
       <c r="O30" s="15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>(2-0)</v>
       </c>
       <c r="P30" s="5">
@@ -11701,7 +11673,7 @@
         <v/>
       </c>
       <c r="Z30" s="12" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="AA30" s="11">
@@ -11709,13 +11681,13 @@
         <v>1</v>
       </c>
       <c r="AB30" s="12">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B31" s="9">
@@ -11740,15 +11712,15 @@
         <v>21</v>
       </c>
       <c r="M31" s="6">
-        <f>IF(N31="","",K31-L31)</f>
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
       <c r="N31" s="7" t="str">
-        <f>IF(OR(K31="",L31=""),"",IF(K31=L31,"T",IF(K31&lt;L31,"L","W")))</f>
+        <f t="shared" si="1"/>
         <v>L</v>
       </c>
       <c r="O31" s="15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>(2-1)</v>
       </c>
       <c r="P31" s="5">
@@ -11792,7 +11764,7 @@
         <v>0</v>
       </c>
       <c r="Z31" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0.5</v>
       </c>
       <c r="AA31" s="11" t="str">
@@ -11800,13 +11772,13 @@
         <v/>
       </c>
       <c r="AB31" s="12" t="e">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="B32" s="9">
@@ -11831,15 +11803,15 @@
         <v>24</v>
       </c>
       <c r="M32" s="6">
-        <f>IF(N32="","",K32-L32)</f>
+        <f t="shared" si="0"/>
         <v>-14</v>
       </c>
       <c r="N32" s="7" t="str">
-        <f>IF(OR(K32="",L32=""),"",IF(K32=L32,"T",IF(K32&lt;L32,"L","W")))</f>
+        <f t="shared" si="1"/>
         <v>L</v>
       </c>
       <c r="O32" s="15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>(2-2)</v>
       </c>
       <c r="P32" s="5">
@@ -11883,7 +11855,7 @@
         <v/>
       </c>
       <c r="Z32" s="12" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="AA32" s="11">
@@ -11891,13 +11863,13 @@
         <v>0</v>
       </c>
       <c r="AB32" s="12">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="B33" s="9">
@@ -11934,15 +11906,15 @@
         <v>9</v>
       </c>
       <c r="M33" s="6">
-        <f>IF(N33="","",K33-L33)</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="N33" s="7" t="str">
-        <f>IF(OR(K33="",L33=""),"",IF(K33=L33,"T",IF(K33&lt;L33,"L","W")))</f>
+        <f t="shared" si="1"/>
         <v>W</v>
       </c>
       <c r="O33" s="15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>(1-0)</v>
       </c>
       <c r="P33" s="5">
@@ -11986,7 +11958,7 @@
         <v>1</v>
       </c>
       <c r="Z33" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="AA33" s="11" t="str">
@@ -11994,13 +11966,13 @@
         <v/>
       </c>
       <c r="AB33" s="12" t="e">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="B34" s="9">
@@ -12037,15 +12009,15 @@
         <v>27</v>
       </c>
       <c r="M34" s="6">
-        <f>IF(N34="","",K34-L34)</f>
+        <f t="shared" si="0"/>
         <v>-7</v>
       </c>
       <c r="N34" s="7" t="str">
-        <f>IF(OR(K34="",L34=""),"",IF(K34=L34,"T",IF(K34&lt;L34,"L","W")))</f>
+        <f t="shared" si="1"/>
         <v>L</v>
       </c>
       <c r="O34" s="15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>(1-1)</v>
       </c>
       <c r="P34" s="5">
@@ -12089,7 +12061,7 @@
         <v>0</v>
       </c>
       <c r="Z34" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0.5</v>
       </c>
       <c r="AA34" s="11" t="str">
@@ -12097,13 +12069,13 @@
         <v/>
       </c>
       <c r="AB34" s="12" t="e">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="B35" s="9">
@@ -12140,15 +12112,15 @@
         <v>39</v>
       </c>
       <c r="M35" s="6">
-        <f>IF(N35="","",K35-L35)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="N35" s="7" t="str">
-        <f>IF(OR(K35="",L35=""),"",IF(K35=L35,"T",IF(K35&lt;L35,"L","W")))</f>
+        <f t="shared" si="1"/>
         <v>W</v>
       </c>
       <c r="O35" s="15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>(2-1)</v>
       </c>
       <c r="P35" s="5">
@@ -12192,7 +12164,7 @@
         <v/>
       </c>
       <c r="Z35" s="12" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="AA35" s="11">
@@ -12200,13 +12172,13 @@
         <v>1</v>
       </c>
       <c r="AB35" s="12">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B36" s="9">
@@ -12243,15 +12215,15 @@
         <v>30</v>
       </c>
       <c r="M36" s="6">
-        <f>IF(N36="","",K36-L36)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="N36" s="7" t="str">
-        <f>IF(OR(K36="",L36=""),"",IF(K36=L36,"T",IF(K36&lt;L36,"L","W")))</f>
+        <f t="shared" si="1"/>
         <v>W</v>
       </c>
       <c r="O36" s="15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>(3-1)</v>
       </c>
       <c r="P36" s="5">
@@ -12295,7 +12267,7 @@
         <v/>
       </c>
       <c r="Z36" s="12" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="AA36" s="11">
@@ -12303,13 +12275,13 @@
         <v>1</v>
       </c>
       <c r="AB36" s="12">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="B37" s="9">
@@ -12346,15 +12318,15 @@
         <v>16</v>
       </c>
       <c r="M37" s="6">
-        <f>IF(N37="","",K37-L37)</f>
+        <f t="shared" si="0"/>
         <v>-6</v>
       </c>
       <c r="N37" s="7" t="str">
-        <f>IF(OR(K37="",L37=""),"",IF(K37=L37,"T",IF(K37&lt;L37,"L","W")))</f>
+        <f t="shared" si="1"/>
         <v>L</v>
       </c>
       <c r="O37" s="15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>(3-2)</v>
       </c>
       <c r="P37" s="5">
@@ -12398,7 +12370,7 @@
         <v>0</v>
       </c>
       <c r="Z37" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="AA37" s="11" t="str">
@@ -12406,13 +12378,13 @@
         <v/>
       </c>
       <c r="AB37" s="12" t="e">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="B38" s="9">
@@ -12449,15 +12421,15 @@
         <v>17</v>
       </c>
       <c r="M38" s="6">
-        <f>IF(N38="","",K38-L38)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="N38" s="7" t="str">
-        <f>IF(OR(K38="",L38=""),"",IF(K38=L38,"T",IF(K38&lt;L38,"L","W")))</f>
+        <f t="shared" si="1"/>
         <v>W</v>
       </c>
       <c r="O38" s="15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>(4-2)</v>
       </c>
       <c r="P38" s="5">
@@ -12501,7 +12473,7 @@
         <v/>
       </c>
       <c r="Z38" s="12" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="AA38" s="11">
@@ -12509,13 +12481,13 @@
         <v>1</v>
       </c>
       <c r="AB38" s="12">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="B39" s="9">
@@ -12552,15 +12524,15 @@
         <v>0</v>
       </c>
       <c r="M39" s="6">
-        <f>IF(N39="","",K39-L39)</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="N39" s="7" t="str">
-        <f>IF(OR(K39="",L39=""),"",IF(K39=L39,"T",IF(K39&lt;L39,"L","W")))</f>
+        <f t="shared" si="1"/>
         <v>W</v>
       </c>
       <c r="O39" s="15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>(5-2)</v>
       </c>
       <c r="P39" s="5">
@@ -12604,7 +12576,7 @@
         <v>1</v>
       </c>
       <c r="Z39" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0.5</v>
       </c>
       <c r="AA39" s="11" t="str">
@@ -12612,13 +12584,13 @@
         <v/>
       </c>
       <c r="AB39" s="12" t="e">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="B40" s="9">
@@ -12634,15 +12606,15 @@
         <v>17</v>
       </c>
       <c r="M40" s="6" t="str">
-        <f>IF(N40="","",K40-L40)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="N40" s="7" t="str">
-        <f>IF(OR(K40="",L40=""),"",IF(K40=L40,"T",IF(K40&lt;L40,"L","W")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O40" s="15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="P40" s="5" t="str">
@@ -12686,7 +12658,7 @@
         <v/>
       </c>
       <c r="Z40" s="12" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="AA40" s="11" t="str">
@@ -12694,13 +12666,13 @@
         <v/>
       </c>
       <c r="AB40" s="12" t="e">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B41" s="9">
@@ -12737,15 +12709,15 @@
         <v>17</v>
       </c>
       <c r="M41" s="6">
-        <f>IF(N41="","",K41-L41)</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="N41" s="7" t="str">
-        <f>IF(OR(K41="",L41=""),"",IF(K41=L41,"T",IF(K41&lt;L41,"L","W")))</f>
+        <f t="shared" si="1"/>
         <v>W</v>
       </c>
       <c r="O41" s="15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>(6-2)</v>
       </c>
       <c r="P41" s="5">
@@ -12789,7 +12761,7 @@
         <v/>
       </c>
       <c r="Z41" s="12" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="AA41" s="11">
@@ -12797,13 +12769,13 @@
         <v>1</v>
       </c>
       <c r="AB41" s="12">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B42" s="9">
@@ -12840,15 +12812,15 @@
         <v>7</v>
       </c>
       <c r="M42" s="6">
-        <f>IF(N42="","",K42-L42)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="N42" s="7" t="str">
-        <f>IF(OR(K42="",L42=""),"",IF(K42=L42,"T",IF(K42&lt;L42,"L","W")))</f>
+        <f t="shared" si="1"/>
         <v>W</v>
       </c>
       <c r="O42" s="15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>(7-2)</v>
       </c>
       <c r="P42" s="5">
@@ -12892,7 +12864,7 @@
         <v>1</v>
       </c>
       <c r="Z42" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0.6</v>
       </c>
       <c r="AA42" s="11" t="str">
@@ -12900,13 +12872,13 @@
         <v/>
       </c>
       <c r="AB42" s="12" t="e">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="B43" s="9">
@@ -12943,15 +12915,15 @@
         <v>24</v>
       </c>
       <c r="M43" s="6">
-        <f>IF(N43="","",K43-L43)</f>
+        <f t="shared" si="0"/>
         <v>-17</v>
       </c>
       <c r="N43" s="7" t="str">
-        <f>IF(OR(K43="",L43=""),"",IF(K43=L43,"T",IF(K43&lt;L43,"L","W")))</f>
+        <f t="shared" si="1"/>
         <v>L</v>
       </c>
       <c r="O43" s="15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>(7-3)</v>
       </c>
       <c r="P43" s="5">
@@ -12995,7 +12967,7 @@
         <v/>
       </c>
       <c r="Z43" s="12" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="AA43" s="11">
@@ -13003,13 +12975,13 @@
         <v>0</v>
       </c>
       <c r="AB43" s="12">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0.8</v>
       </c>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="B44" s="9">
@@ -13046,15 +13018,15 @@
         <v>20</v>
       </c>
       <c r="M44" s="6">
-        <f>IF(N44="","",K44-L44)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="N44" s="7" t="str">
-        <f>IF(OR(K44="",L44=""),"",IF(K44=L44,"T",IF(K44&lt;L44,"L","W")))</f>
+        <f t="shared" si="1"/>
         <v>W</v>
       </c>
       <c r="O44" s="15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>(8-3)</v>
       </c>
       <c r="P44" s="5">
@@ -13098,7 +13070,7 @@
         <v>1</v>
       </c>
       <c r="Z44" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="AA44" s="11" t="str">
@@ -13106,13 +13078,13 @@
         <v/>
       </c>
       <c r="AB44" s="12" t="e">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="B45" s="9">
@@ -13149,15 +13121,15 @@
         <v>16</v>
       </c>
       <c r="M45" s="6">
-        <f>IF(N45="","",K45-L45)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="N45" s="7" t="str">
-        <f>IF(OR(K45="",L45=""),"",IF(K45=L45,"T",IF(K45&lt;L45,"L","W")))</f>
+        <f t="shared" si="1"/>
         <v>W</v>
       </c>
       <c r="O45" s="15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>(9-3)</v>
       </c>
       <c r="P45" s="5">
@@ -13201,7 +13173,7 @@
         <v/>
       </c>
       <c r="Z45" s="12" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="AA45" s="11">
@@ -13209,13 +13181,13 @@
         <v>1</v>
       </c>
       <c r="AB45" s="12">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="B46" s="9">
@@ -13252,15 +13224,15 @@
         <v>43</v>
       </c>
       <c r="M46" s="6">
-        <f>IF(N46="","",K46-L46)</f>
+        <f t="shared" si="0"/>
         <v>-8</v>
       </c>
       <c r="N46" s="7" t="str">
-        <f>IF(OR(K46="",L46=""),"",IF(K46=L46,"T",IF(K46&lt;L46,"L","W")))</f>
+        <f t="shared" si="1"/>
         <v>L</v>
       </c>
       <c r="O46" s="15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>(9-4)</v>
       </c>
       <c r="P46" s="5">
@@ -13304,7 +13276,7 @@
         <v>0</v>
       </c>
       <c r="Z46" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0.5714285714285714</v>
       </c>
       <c r="AA46" s="11" t="str">
@@ -13312,13 +13284,13 @@
         <v/>
       </c>
       <c r="AB46" s="12" t="e">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="B47" s="9">
@@ -13355,15 +13327,15 @@
         <v>7</v>
       </c>
       <c r="M47" s="6">
-        <f>IF(N47="","",K47-L47)</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="N47" s="7" t="str">
-        <f>IF(OR(K47="",L47=""),"",IF(K47=L47,"T",IF(K47&lt;L47,"L","W")))</f>
+        <f t="shared" si="1"/>
         <v>W</v>
       </c>
       <c r="O47" s="15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>(10-4)</v>
       </c>
       <c r="P47" s="5">
@@ -13407,7 +13379,7 @@
         <v/>
       </c>
       <c r="Z47" s="12" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="AA47" s="11">
@@ -13415,13 +13387,13 @@
         <v>1</v>
       </c>
       <c r="AB47" s="12">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="B48" s="9">
@@ -13458,15 +13430,15 @@
         <v>23</v>
       </c>
       <c r="M48" s="6">
-        <f>IF(N48="","",K48-L48)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="N48" s="7" t="str">
-        <f>IF(OR(K48="",L48=""),"",IF(K48=L48,"T",IF(K48&lt;L48,"L","W")))</f>
+        <f t="shared" si="1"/>
         <v>W</v>
       </c>
       <c r="O48" s="15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>(11-4)</v>
       </c>
       <c r="P48" s="5">
@@ -13510,7 +13482,7 @@
         <v/>
       </c>
       <c r="Z48" s="12" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="AA48" s="11">
@@ -13518,13 +13490,13 @@
         <v>1</v>
       </c>
       <c r="AB48" s="12">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0.875</v>
       </c>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="B49" s="9">
@@ -13561,15 +13533,15 @@
         <v>13</v>
       </c>
       <c r="M49" s="6">
-        <f>IF(N49="","",K49-L49)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="N49" s="7" t="str">
-        <f>IF(OR(K49="",L49=""),"",IF(K49=L49,"T",IF(K49&lt;L49,"L","W")))</f>
+        <f t="shared" si="1"/>
         <v>W</v>
       </c>
       <c r="O49" s="15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>(12-4)</v>
       </c>
       <c r="P49" s="5">
@@ -13613,7 +13585,7 @@
         <v>1</v>
       </c>
       <c r="Z49" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0.625</v>
       </c>
       <c r="AA49" s="11" t="str">
@@ -13621,13 +13593,13 @@
         <v/>
       </c>
       <c r="AB49" s="12" t="e">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="B50" s="9">
@@ -13652,15 +13624,15 @@
         <v>26</v>
       </c>
       <c r="M50" s="6">
-        <f>IF(N50="","",K50-L50)</f>
+        <f t="shared" si="0"/>
         <v>-13</v>
       </c>
       <c r="N50" s="7" t="str">
-        <f>IF(OR(K50="",L50=""),"",IF(K50=L50,"T",IF(K50&lt;L50,"L","W")))</f>
+        <f t="shared" si="1"/>
         <v>L</v>
       </c>
       <c r="O50" s="15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>(0-1)</v>
       </c>
       <c r="P50" s="5">
@@ -13704,7 +13676,7 @@
         <v>0</v>
       </c>
       <c r="Z50" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="AA50" s="11" t="str">
@@ -13712,13 +13684,13 @@
         <v/>
       </c>
       <c r="AB50" s="12" t="e">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="B51" s="9">
@@ -13734,15 +13706,15 @@
         <v>16</v>
       </c>
       <c r="M51" s="6" t="str">
-        <f>IF(N51="","",K51-L51)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="N51" s="7" t="str">
-        <f>IF(OR(K51="",L51=""),"",IF(K51=L51,"T",IF(K51&lt;L51,"L","W")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O51" s="15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="P51" s="5" t="str">
@@ -13786,7 +13758,7 @@
         <v/>
       </c>
       <c r="Z51" s="12" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="AA51" s="11" t="str">
@@ -13794,13 +13766,13 @@
         <v/>
       </c>
       <c r="AB51" s="12" t="e">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="B52" s="9">
@@ -13816,15 +13788,15 @@
         <v>16</v>
       </c>
       <c r="M52" s="6" t="str">
-        <f>IF(N52="","",K52-L52)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="N52" s="7" t="str">
-        <f>IF(OR(K52="",L52=""),"",IF(K52=L52,"T",IF(K52&lt;L52,"L","W")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O52" s="15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="P52" s="5" t="str">
@@ -13868,7 +13840,7 @@
         <v/>
       </c>
       <c r="Z52" s="12" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="AA52" s="11" t="str">
@@ -13876,13 +13848,13 @@
         <v/>
       </c>
       <c r="AB52" s="12" t="e">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B53" s="9">
@@ -13898,15 +13870,15 @@
         <v>16</v>
       </c>
       <c r="M53" s="6" t="str">
-        <f>IF(N53="","",K53-L53)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="N53" s="7" t="str">
-        <f>IF(OR(K53="",L53=""),"",IF(K53=L53,"T",IF(K53&lt;L53,"L","W")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O53" s="15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="P53" s="5" t="str">
@@ -13950,7 +13922,7 @@
         <v/>
       </c>
       <c r="Z53" s="12" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="AA53" s="11" t="str">
@@ -13958,13 +13930,13 @@
         <v/>
       </c>
       <c r="AB53" s="12" t="e">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="B54" s="9">
@@ -13980,15 +13952,15 @@
         <v>17</v>
       </c>
       <c r="M54" s="6" t="str">
-        <f>IF(N54="","",K54-L54)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="N54" s="7" t="str">
-        <f>IF(OR(K54="",L54=""),"",IF(K54=L54,"T",IF(K54&lt;L54,"L","W")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O54" s="15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="P54" s="5" t="str">
@@ -14032,7 +14004,7 @@
         <v/>
       </c>
       <c r="Z54" s="12" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="AA54" s="11" t="str">
@@ -14040,13 +14012,13 @@
         <v/>
       </c>
       <c r="AB54" s="12" t="e">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="B55" s="9">
@@ -14071,15 +14043,15 @@
         <v>33</v>
       </c>
       <c r="M55" s="6">
-        <f>IF(N55="","",K55-L55)</f>
+        <f t="shared" si="0"/>
         <v>-26</v>
       </c>
       <c r="N55" s="7" t="str">
-        <f>IF(OR(K55="",L55=""),"",IF(K55=L55,"T",IF(K55&lt;L55,"L","W")))</f>
+        <f t="shared" si="1"/>
         <v>L</v>
       </c>
       <c r="O55" s="15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>(0-1)</v>
       </c>
       <c r="P55" s="5">
@@ -14123,7 +14095,7 @@
         <v/>
       </c>
       <c r="Z55" s="12" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="AA55" s="11">
@@ -14131,13 +14103,13 @@
         <v>0</v>
       </c>
       <c r="AB55" s="12">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="B56" s="9">
@@ -14162,15 +14134,15 @@
         <v>15</v>
       </c>
       <c r="M56" s="6">
-        <f>IF(N56="","",K56-L56)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="N56" s="7" t="str">
-        <f>IF(OR(K56="",L56=""),"",IF(K56=L56,"T",IF(K56&lt;L56,"L","W")))</f>
+        <f t="shared" si="1"/>
         <v>W</v>
       </c>
       <c r="O56" s="15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>(1-1)</v>
       </c>
       <c r="P56" s="5">
@@ -14214,7 +14186,7 @@
         <v>1</v>
       </c>
       <c r="Z56" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="AA56" s="11" t="str">
@@ -14222,13 +14194,13 @@
         <v/>
       </c>
       <c r="AB56" s="12" t="e">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B57" s="9">
@@ -14253,15 +14225,15 @@
         <v>20</v>
       </c>
       <c r="M57" s="6">
-        <f>IF(N57="","",K57-L57)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="N57" s="7" t="str">
-        <f>IF(OR(K57="",L57=""),"",IF(K57=L57,"T",IF(K57&lt;L57,"L","W")))</f>
+        <f t="shared" si="1"/>
         <v>W</v>
       </c>
       <c r="O57" s="15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>(2-1)</v>
       </c>
       <c r="P57" s="5">
@@ -14305,7 +14277,7 @@
         <v>1</v>
       </c>
       <c r="Z57" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="AA57" s="11" t="str">
@@ -14313,13 +14285,13 @@
         <v/>
       </c>
       <c r="AB57" s="12" t="e">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="B58" s="9">
@@ -14344,15 +14316,15 @@
         <v>28</v>
       </c>
       <c r="M58" s="6">
-        <f>IF(N58="","",K58-L58)</f>
+        <f t="shared" si="0"/>
         <v>-28</v>
       </c>
       <c r="N58" s="7" t="str">
-        <f>IF(OR(K58="",L58=""),"",IF(K58=L58,"T",IF(K58&lt;L58,"L","W")))</f>
+        <f t="shared" si="1"/>
         <v>L</v>
       </c>
       <c r="O58" s="15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>(2-2)</v>
       </c>
       <c r="P58" s="5">
@@ -14396,7 +14368,7 @@
         <v/>
       </c>
       <c r="Z58" s="12" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="AA58" s="11">
@@ -14404,13 +14376,13 @@
         <v>0</v>
       </c>
       <c r="AB58" s="12">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="B59" s="9">
@@ -14447,15 +14419,15 @@
         <v>13</v>
       </c>
       <c r="M59" s="6">
-        <f>IF(N59="","",K59-L59)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="N59" s="7" t="str">
-        <f>IF(OR(K59="",L59=""),"",IF(K59=L59,"T",IF(K59&lt;L59,"L","W")))</f>
+        <f t="shared" si="1"/>
         <v>W</v>
       </c>
       <c r="O59" s="15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>(1-0)</v>
       </c>
       <c r="P59" s="5">
@@ -14499,7 +14471,7 @@
         <v/>
       </c>
       <c r="Z59" s="12" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="AA59" s="11">
@@ -14507,13 +14479,13 @@
         <v>1</v>
       </c>
       <c r="AB59" s="12">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="B60" s="9">
@@ -14550,15 +14522,15 @@
         <v>0</v>
       </c>
       <c r="M60" s="6">
-        <f>IF(N60="","",K60-L60)</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="N60" s="7" t="str">
-        <f>IF(OR(K60="",L60=""),"",IF(K60=L60,"T",IF(K60&lt;L60,"L","W")))</f>
+        <f t="shared" si="1"/>
         <v>W</v>
       </c>
       <c r="O60" s="15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>(2-0)</v>
       </c>
       <c r="P60" s="5">
@@ -14602,7 +14574,7 @@
         <v>1</v>
       </c>
       <c r="Z60" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="AA60" s="11" t="str">
@@ -14610,13 +14582,13 @@
         <v/>
       </c>
       <c r="AB60" s="12" t="e">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="B61" s="9">
@@ -14653,15 +14625,15 @@
         <v>23</v>
       </c>
       <c r="M61" s="6">
-        <f>IF(N61="","",K61-L61)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="N61" s="7" t="str">
-        <f>IF(OR(K61="",L61=""),"",IF(K61=L61,"T",IF(K61&lt;L61,"L","W")))</f>
+        <f t="shared" si="1"/>
         <v>W</v>
       </c>
       <c r="O61" s="15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>(3-0)</v>
       </c>
       <c r="P61" s="5">
@@ -14705,7 +14677,7 @@
         <v>1</v>
       </c>
       <c r="Z61" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="AA61" s="11" t="str">
@@ -14713,13 +14685,13 @@
         <v/>
       </c>
       <c r="AB61" s="12" t="e">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B62" s="9">
@@ -14756,15 +14728,15 @@
         <v>31</v>
       </c>
       <c r="M62" s="6">
-        <f>IF(N62="","",K62-L62)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="N62" s="7" t="str">
-        <f>IF(OR(K62="",L62=""),"",IF(K62=L62,"T",IF(K62&lt;L62,"L","W")))</f>
+        <f t="shared" si="1"/>
         <v>W</v>
       </c>
       <c r="O62" s="15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>(4-0)</v>
       </c>
       <c r="P62" s="5">
@@ -14808,7 +14780,7 @@
         <v>1</v>
       </c>
       <c r="Z62" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="AA62" s="11" t="str">
@@ -14816,13 +14788,13 @@
         <v/>
       </c>
       <c r="AB62" s="12" t="e">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="B63" s="9">
@@ -14859,15 +14831,15 @@
         <v>31</v>
       </c>
       <c r="M63" s="6">
-        <f>IF(N63="","",K63-L63)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="N63" s="7" t="str">
-        <f>IF(OR(K63="",L63=""),"",IF(K63=L63,"T",IF(K63&lt;L63,"L","W")))</f>
+        <f t="shared" si="1"/>
         <v>W</v>
       </c>
       <c r="O63" s="15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>(5-0)</v>
       </c>
       <c r="P63" s="5">
@@ -14911,7 +14883,7 @@
         <v/>
       </c>
       <c r="Z63" s="12" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="AA63" s="11">
@@ -14919,13 +14891,13 @@
         <v>1</v>
       </c>
       <c r="AB63" s="12">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="B64" s="9">
@@ -14962,15 +14934,15 @@
         <v>20</v>
       </c>
       <c r="M64" s="6">
-        <f>IF(N64="","",K64-L64)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="N64" s="7" t="str">
-        <f>IF(OR(K64="",L64=""),"",IF(K64=L64,"T",IF(K64&lt;L64,"L","W")))</f>
+        <f t="shared" si="1"/>
         <v>W</v>
       </c>
       <c r="O64" s="15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>(6-0)</v>
       </c>
       <c r="P64" s="5">
@@ -15014,7 +14986,7 @@
         <v/>
       </c>
       <c r="Z64" s="12" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="AA64" s="11">
@@ -15022,13 +14994,13 @@
         <v>1</v>
       </c>
       <c r="AB64" s="12">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="B65" s="9">
@@ -15065,15 +15037,15 @@
         <v>10</v>
       </c>
       <c r="M65" s="6">
-        <f>IF(N65="","",K65-L65)</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="N65" s="7" t="str">
-        <f>IF(OR(K65="",L65=""),"",IF(K65=L65,"T",IF(K65&lt;L65,"L","W")))</f>
+        <f t="shared" si="1"/>
         <v>W</v>
       </c>
       <c r="O65" s="15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>(7-0)</v>
       </c>
       <c r="P65" s="5">
@@ -15117,7 +15089,7 @@
         <v/>
       </c>
       <c r="Z65" s="12" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="AA65" s="11">
@@ -15125,13 +15097,13 @@
         <v>1</v>
       </c>
       <c r="AB65" s="12">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="B66" s="9">
@@ -15168,15 +15140,15 @@
         <v>27</v>
       </c>
       <c r="M66" s="6">
-        <f>IF(N66="","",K66-L66)</f>
+        <f t="shared" ref="M66:M129" si="6">IF(N66="","",K66-L66)</f>
         <v>2</v>
       </c>
       <c r="N66" s="7" t="str">
-        <f>IF(OR(K66="",L66=""),"",IF(K66=L66,"T",IF(K66&lt;L66,"L","W")))</f>
+        <f t="shared" ref="N66:N129" si="7">IF(OR(K66="",L66=""),"",IF(K66=L66,"T",IF(K66&lt;L66,"L","W")))</f>
         <v>W</v>
       </c>
       <c r="O66" s="15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>(8-0)</v>
       </c>
       <c r="P66" s="5">
@@ -15220,7 +15192,7 @@
         <v>1</v>
       </c>
       <c r="Z66" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="AA66" s="11" t="str">
@@ -15228,13 +15200,13 @@
         <v/>
       </c>
       <c r="AB66" s="12" t="e">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
-        <f t="shared" ref="A67:A130" si="4">IF(B67&amp;C67&lt;&gt;B66&amp;C66,1,A66+1)</f>
+        <f t="shared" ref="A67:A130" si="8">IF(B67&amp;C67&lt;&gt;B66&amp;C66,1,A66+1)</f>
         <v>9</v>
       </c>
       <c r="B67" s="9">
@@ -15271,15 +15243,15 @@
         <v>45</v>
       </c>
       <c r="M67" s="6">
-        <f>IF(N67="","",K67-L67)</f>
+        <f t="shared" si="6"/>
         <v>-10</v>
       </c>
       <c r="N67" s="7" t="str">
-        <f>IF(OR(K67="",L67=""),"",IF(K67=L67,"T",IF(K67&lt;L67,"L","W")))</f>
+        <f t="shared" si="7"/>
         <v>L</v>
       </c>
       <c r="O67" s="15" t="str">
-        <f t="shared" ref="O67:O130" ca="1" si="5">IF(OR(K67="",L67=""),"","("&amp;COUNTIF(OFFSET(N67,,,-$A67),"W")&amp;"-"&amp;COUNTIF(OFFSET(N67,,,-$A67),"L")&amp;IF(COUNTIF(OFFSET(N67,,,-$A67),"T")&gt;0,"-"&amp;COUNTIF(OFFSET(N67,,,-$A67),"T"),"")&amp;")")</f>
+        <f t="shared" ref="O67:O130" ca="1" si="9">IF(OR(K67="",L67=""),"","("&amp;COUNTIF(OFFSET(N67,,,-$A67),"W")&amp;"-"&amp;COUNTIF(OFFSET(N67,,,-$A67),"L")&amp;IF(COUNTIF(OFFSET(N67,,,-$A67),"T")&gt;0,"-"&amp;COUNTIF(OFFSET(N67,,,-$A67),"T"),"")&amp;")")</f>
         <v>(8-1)</v>
       </c>
       <c r="P67" s="5">
@@ -15323,7 +15295,7 @@
         <v/>
       </c>
       <c r="Z67" s="12" t="e">
-        <f t="shared" ref="Z67:Z130" ca="1" si="6">IF(Y67="",#N/A,SUM(OFFSET(Y67,,,-$A67))/COUNT(OFFSET(Y67,,,-$A67)))</f>
+        <f t="shared" ref="Z67:Z130" ca="1" si="10">IF(Y67="",#N/A,SUM(OFFSET(Y67,,,-$A67))/COUNT(OFFSET(Y67,,,-$A67)))</f>
         <v>#N/A</v>
       </c>
       <c r="AA67" s="11">
@@ -15331,13 +15303,13 @@
         <v>0</v>
       </c>
       <c r="AB67" s="12">
-        <f t="shared" ref="AB67:AB130" ca="1" si="7">IF(AA67="",#N/A,SUM(OFFSET(AA67,,,-$A67))/COUNT(OFFSET(AA67,,,-$A67)))</f>
+        <f t="shared" ref="AB67:AB130" ca="1" si="11">IF(AA67="",#N/A,SUM(OFFSET(AA67,,,-$A67))/COUNT(OFFSET(AA67,,,-$A67)))</f>
         <v>0.8</v>
       </c>
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="B68" s="9">
@@ -15374,15 +15346,15 @@
         <v>31</v>
       </c>
       <c r="M68" s="6">
-        <f>IF(N68="","",K68-L68)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="N68" s="7" t="str">
-        <f>IF(OR(K68="",L68=""),"",IF(K68=L68,"T",IF(K68&lt;L68,"L","W")))</f>
+        <f t="shared" si="7"/>
         <v>W</v>
       </c>
       <c r="O68" s="15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>(9-1)</v>
       </c>
       <c r="P68" s="5">
@@ -15426,7 +15398,7 @@
         <v>1</v>
       </c>
       <c r="Z68" s="12">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="AA68" s="11" t="str">
@@ -15434,13 +15406,13 @@
         <v/>
       </c>
       <c r="AB68" s="12" t="e">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="B69" s="9">
@@ -15477,15 +15449,15 @@
         <v>51</v>
       </c>
       <c r="M69" s="6">
-        <f>IF(N69="","",K69-L69)</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="N69" s="7" t="str">
-        <f>IF(OR(K69="",L69=""),"",IF(K69=L69,"T",IF(K69&lt;L69,"L","W")))</f>
+        <f t="shared" si="7"/>
         <v>W</v>
       </c>
       <c r="O69" s="15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>(10-1)</v>
       </c>
       <c r="P69" s="5">
@@ -15529,7 +15501,7 @@
         <v>1</v>
       </c>
       <c r="Z69" s="12">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="AA69" s="11" t="str">
@@ -15537,13 +15509,13 @@
         <v/>
       </c>
       <c r="AB69" s="12" t="e">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="B70" s="9">
@@ -15559,15 +15531,15 @@
         <v>17</v>
       </c>
       <c r="M70" s="6" t="str">
-        <f>IF(N70="","",K70-L70)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N70" s="7" t="str">
-        <f>IF(OR(K70="",L70=""),"",IF(K70=L70,"T",IF(K70&lt;L70,"L","W")))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O70" s="15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="P70" s="5" t="str">
@@ -15611,7 +15583,7 @@
         <v/>
       </c>
       <c r="Z70" s="12" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="AA70" s="11" t="str">
@@ -15619,13 +15591,13 @@
         <v/>
       </c>
       <c r="AB70" s="12" t="e">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="B71" s="9">
@@ -15662,15 +15634,15 @@
         <v>16</v>
       </c>
       <c r="M71" s="6">
-        <f>IF(N71="","",K71-L71)</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="N71" s="7" t="str">
-        <f>IF(OR(K71="",L71=""),"",IF(K71=L71,"T",IF(K71&lt;L71,"L","W")))</f>
+        <f t="shared" si="7"/>
         <v>W</v>
       </c>
       <c r="O71" s="15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>(11-1)</v>
       </c>
       <c r="P71" s="5">
@@ -15714,7 +15686,7 @@
         <v/>
       </c>
       <c r="Z71" s="12" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="AA71" s="11">
@@ -15722,13 +15694,13 @@
         <v>1</v>
       </c>
       <c r="AB71" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A72" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="B72" s="9">
@@ -15765,15 +15737,15 @@
         <v>15</v>
       </c>
       <c r="M72" s="6">
-        <f>IF(N72="","",K72-L72)</f>
+        <f t="shared" si="6"/>
         <v>-9</v>
       </c>
       <c r="N72" s="7" t="str">
-        <f>IF(OR(K72="",L72=""),"",IF(K72=L72,"T",IF(K72&lt;L72,"L","W")))</f>
+        <f t="shared" si="7"/>
         <v>L</v>
       </c>
       <c r="O72" s="15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>(11-2)</v>
       </c>
       <c r="P72" s="5">
@@ -15817,7 +15789,7 @@
         <v/>
       </c>
       <c r="Z72" s="12" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="AA72" s="11">
@@ -15825,13 +15797,13 @@
         <v>0</v>
       </c>
       <c r="AB72" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A73" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="B73" s="9">
@@ -15868,15 +15840,15 @@
         <v>30</v>
       </c>
       <c r="M73" s="6">
-        <f>IF(N73="","",K73-L73)</f>
+        <f t="shared" si="6"/>
         <v>-7</v>
       </c>
       <c r="N73" s="7" t="str">
-        <f>IF(OR(K73="",L73=""),"",IF(K73=L73,"T",IF(K73&lt;L73,"L","W")))</f>
+        <f t="shared" si="7"/>
         <v>L</v>
       </c>
       <c r="O73" s="15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>(11-3)</v>
       </c>
       <c r="P73" s="5">
@@ -15920,7 +15892,7 @@
         <v>0</v>
       </c>
       <c r="Z73" s="12">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="AA73" s="11" t="str">
@@ -15928,13 +15900,13 @@
         <v/>
       </c>
       <c r="AB73" s="12" t="e">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A74" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="B74" s="9">
@@ -15971,15 +15943,15 @@
         <v>9</v>
       </c>
       <c r="M74" s="6">
-        <f>IF(N74="","",K74-L74)</f>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="N74" s="7" t="str">
-        <f>IF(OR(K74="",L74=""),"",IF(K74=L74,"T",IF(K74&lt;L74,"L","W")))</f>
+        <f t="shared" si="7"/>
         <v>W</v>
       </c>
       <c r="O74" s="15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>(12-3)</v>
       </c>
       <c r="P74" s="5">
@@ -16023,7 +15995,7 @@
         <v/>
       </c>
       <c r="Z74" s="12" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="AA74" s="11">
@@ -16031,13 +16003,13 @@
         <v>1</v>
       </c>
       <c r="AB74" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0.75</v>
       </c>
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="B75" s="9">
@@ -16074,15 +16046,15 @@
         <v>32</v>
       </c>
       <c r="M75" s="6">
-        <f>IF(N75="","",K75-L75)</f>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="N75" s="7" t="str">
-        <f>IF(OR(K75="",L75=""),"",IF(K75=L75,"T",IF(K75&lt;L75,"L","W")))</f>
+        <f t="shared" si="7"/>
         <v>W</v>
       </c>
       <c r="O75" s="15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>(13-3)</v>
       </c>
       <c r="P75" s="5">
@@ -16126,7 +16098,7 @@
         <v>1</v>
       </c>
       <c r="Z75" s="12">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0.875</v>
       </c>
       <c r="AA75" s="11" t="str">
@@ -16134,13 +16106,13 @@
         <v/>
       </c>
       <c r="AB75" s="12" t="e">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="B76" s="9">
@@ -16156,15 +16128,15 @@
         <v>17</v>
       </c>
       <c r="M76" s="6" t="str">
-        <f>IF(N76="","",K76-L76)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N76" s="7" t="str">
-        <f>IF(OR(K76="",L76=""),"",IF(K76=L76,"T",IF(K76&lt;L76,"L","W")))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O76" s="15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="P76" s="5" t="str">
@@ -16208,7 +16180,7 @@
         <v/>
       </c>
       <c r="Z76" s="12" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="AA76" s="11" t="str">
@@ -16216,13 +16188,13 @@
         <v/>
       </c>
       <c r="AB76" s="12" t="e">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="B77" s="9">
@@ -16247,15 +16219,15 @@
         <v>22</v>
       </c>
       <c r="M77" s="6">
-        <f>IF(N77="","",K77-L77)</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="N77" s="7" t="str">
-        <f>IF(OR(K77="",L77=""),"",IF(K77=L77,"T",IF(K77&lt;L77,"L","W")))</f>
+        <f t="shared" si="7"/>
         <v>W</v>
       </c>
       <c r="O77" s="15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>(1-0)</v>
       </c>
       <c r="P77" s="5">
@@ -16299,7 +16271,7 @@
         <v>1</v>
       </c>
       <c r="Z77" s="12">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="AA77" s="11" t="str">
@@ -16307,13 +16279,13 @@
         <v/>
       </c>
       <c r="AB77" s="12" t="e">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="B78" s="9">
@@ -16338,15 +16310,15 @@
         <v>23</v>
       </c>
       <c r="M78" s="6">
-        <f>IF(N78="","",K78-L78)</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="N78" s="7" t="str">
-        <f>IF(OR(K78="",L78=""),"",IF(K78=L78,"T",IF(K78&lt;L78,"L","W")))</f>
+        <f t="shared" si="7"/>
         <v>W</v>
       </c>
       <c r="O78" s="15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>(2-0)</v>
       </c>
       <c r="P78" s="5">
@@ -16390,7 +16362,7 @@
         <v/>
       </c>
       <c r="Z78" s="12" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="AA78" s="11">
@@ -16398,13 +16370,13 @@
         <v>1</v>
       </c>
       <c r="AB78" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A79" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="B79" s="9">
@@ -16429,15 +16401,15 @@
         <v>13</v>
       </c>
       <c r="M79" s="6">
-        <f>IF(N79="","",K79-L79)</f>
+        <f t="shared" si="6"/>
         <v>-10</v>
       </c>
       <c r="N79" s="7" t="str">
-        <f>IF(OR(K79="",L79=""),"",IF(K79=L79,"T",IF(K79&lt;L79,"L","W")))</f>
+        <f t="shared" si="7"/>
         <v>L</v>
       </c>
       <c r="O79" s="15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>(2-1)</v>
       </c>
       <c r="P79" s="5">
@@ -16481,7 +16453,7 @@
         <v>0</v>
       </c>
       <c r="Z79" s="12">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0.5</v>
       </c>
       <c r="AA79" s="11" t="str">
@@ -16489,13 +16461,13 @@
         <v/>
       </c>
       <c r="AB79" s="12" t="e">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="B80" s="9">
@@ -16511,15 +16483,15 @@
         <v>17</v>
       </c>
       <c r="M80" s="6" t="str">
-        <f>IF(N80="","",K80-L80)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N80" s="7" t="str">
-        <f>IF(OR(K80="",L80=""),"",IF(K80=L80,"T",IF(K80&lt;L80,"L","W")))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O80" s="15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="P80" s="5" t="str">
@@ -16563,7 +16535,7 @@
         <v/>
       </c>
       <c r="Z80" s="12" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="AA80" s="11" t="str">
@@ -16571,13 +16543,13 @@
         <v/>
       </c>
       <c r="AB80" s="12" t="e">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="81" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="B81" s="9">
@@ -16602,15 +16574,15 @@
         <v>14</v>
       </c>
       <c r="M81" s="6">
-        <f>IF(N81="","",K81-L81)</f>
+        <f t="shared" si="6"/>
         <v>-11</v>
       </c>
       <c r="N81" s="7" t="str">
-        <f>IF(OR(K81="",L81=""),"",IF(K81=L81,"T",IF(K81&lt;L81,"L","W")))</f>
+        <f t="shared" si="7"/>
         <v>L</v>
       </c>
       <c r="O81" s="15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>(0-1)</v>
       </c>
       <c r="P81" s="5">
@@ -16654,7 +16626,7 @@
         <v/>
       </c>
       <c r="Z81" s="12" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="AA81" s="11">
@@ -16662,13 +16634,13 @@
         <v>0</v>
       </c>
       <c r="AB81" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A82" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="B82" s="9">
@@ -16693,15 +16665,15 @@
         <v>14</v>
       </c>
       <c r="M82" s="6">
-        <f>IF(N82="","",K82-L82)</f>
+        <f t="shared" si="6"/>
         <v>-4</v>
       </c>
       <c r="N82" s="7" t="str">
-        <f>IF(OR(K82="",L82=""),"",IF(K82=L82,"T",IF(K82&lt;L82,"L","W")))</f>
+        <f t="shared" si="7"/>
         <v>L</v>
       </c>
       <c r="O82" s="15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>(0-2)</v>
       </c>
       <c r="P82" s="5">
@@ -16745,7 +16717,7 @@
         <v>0</v>
       </c>
       <c r="Z82" s="12">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="AA82" s="11" t="str">
@@ -16753,13 +16725,13 @@
         <v/>
       </c>
       <c r="AB82" s="12" t="e">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A83" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="B83" s="9">
@@ -16784,15 +16756,15 @@
         <v>6</v>
       </c>
       <c r="M83" s="6">
-        <f>IF(N83="","",K83-L83)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="N83" s="7" t="str">
-        <f>IF(OR(K83="",L83=""),"",IF(K83=L83,"T",IF(K83&lt;L83,"L","W")))</f>
+        <f t="shared" si="7"/>
         <v>W</v>
       </c>
       <c r="O83" s="15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>(1-2)</v>
       </c>
       <c r="P83" s="5">
@@ -16836,7 +16808,7 @@
         <v>1</v>
       </c>
       <c r="Z83" s="12">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0.5</v>
       </c>
       <c r="AA83" s="11" t="str">
@@ -16844,13 +16816,13 @@
         <v/>
       </c>
       <c r="AB83" s="12" t="e">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A84" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="B84" s="9">
@@ -16875,15 +16847,15 @@
         <v>10</v>
       </c>
       <c r="M84" s="6">
-        <f>IF(N84="","",K84-L84)</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="N84" s="7" t="str">
-        <f>IF(OR(K84="",L84=""),"",IF(K84=L84,"T",IF(K84&lt;L84,"L","W")))</f>
+        <f t="shared" si="7"/>
         <v>W</v>
       </c>
       <c r="O84" s="15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>(2-2)</v>
       </c>
       <c r="P84" s="5">
@@ -16927,7 +16899,7 @@
         <v/>
       </c>
       <c r="Z84" s="12" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="AA84" s="11">
@@ -16935,13 +16907,13 @@
         <v>1</v>
       </c>
       <c r="AB84" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="85" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A85" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="B85" s="9">
@@ -16978,15 +16950,15 @@
         <v>27</v>
       </c>
       <c r="M85" s="6">
-        <f>IF(N85="","",K85-L85)</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="N85" s="7" t="str">
-        <f>IF(OR(K85="",L85=""),"",IF(K85=L85,"T",IF(K85&lt;L85,"L","W")))</f>
+        <f t="shared" si="7"/>
         <v>W</v>
       </c>
       <c r="O85" s="15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>(1-0)</v>
       </c>
       <c r="P85" s="5">
@@ -17030,7 +17002,7 @@
         <v/>
       </c>
       <c r="Z85" s="12" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="AA85" s="11">
@@ -17038,13 +17010,13 @@
         <v>1</v>
       </c>
       <c r="AB85" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A86" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="B86" s="9">
@@ -17081,15 +17053,15 @@
         <v>9</v>
       </c>
       <c r="M86" s="6">
-        <f>IF(N86="","",K86-L86)</f>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="N86" s="7" t="str">
-        <f>IF(OR(K86="",L86=""),"",IF(K86=L86,"T",IF(K86&lt;L86,"L","W")))</f>
+        <f t="shared" si="7"/>
         <v>W</v>
       </c>
       <c r="O86" s="15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>(2-0)</v>
       </c>
       <c r="P86" s="5">
@@ -17133,7 +17105,7 @@
         <v>1</v>
       </c>
       <c r="Z86" s="12">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="AA86" s="11" t="str">
@@ -17141,13 +17113,13 @@
         <v/>
       </c>
       <c r="AB86" s="12" t="e">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="87" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A87" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="B87" s="9">
@@ -17181,15 +17153,15 @@
         <v>13</v>
       </c>
       <c r="M87" s="6">
-        <f>IF(N87="","",K87-L87)</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="N87" s="7" t="str">
-        <f>IF(OR(K87="",L87=""),"",IF(K87=L87,"T",IF(K87&lt;L87,"L","W")))</f>
+        <f t="shared" si="7"/>
         <v>W</v>
       </c>
       <c r="O87" s="15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>(3-0)</v>
       </c>
       <c r="P87" s="5">
@@ -17233,7 +17205,7 @@
         <v/>
       </c>
       <c r="Z87" s="12" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="AA87" s="11">
@@ -17241,13 +17213,13 @@
         <v>1</v>
       </c>
       <c r="AB87" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A88" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="B88" s="9">
@@ -17284,15 +17256,15 @@
         <v>55</v>
       </c>
       <c r="M88" s="6">
-        <f>IF(N88="","",K88-L88)</f>
+        <f t="shared" si="6"/>
         <v>-15</v>
       </c>
       <c r="N88" s="7" t="str">
-        <f>IF(OR(K88="",L88=""),"",IF(K88=L88,"T",IF(K88&lt;L88,"L","W")))</f>
+        <f t="shared" si="7"/>
         <v>L</v>
       </c>
       <c r="O88" s="15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>(3-1)</v>
       </c>
       <c r="P88" s="5">
@@ -17336,7 +17308,7 @@
         <v>0</v>
       </c>
       <c r="Z88" s="12">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0.5</v>
       </c>
       <c r="AA88" s="11" t="str">
@@ -17344,13 +17316,13 @@
         <v/>
       </c>
       <c r="AB88" s="12" t="e">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="89" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A89" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="B89" s="9">
@@ -17387,15 +17359,15 @@
         <v>30</v>
       </c>
       <c r="M89" s="6">
-        <f>IF(N89="","",K89-L89)</f>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="N89" s="7" t="str">
-        <f>IF(OR(K89="",L89=""),"",IF(K89=L89,"T",IF(K89&lt;L89,"L","W")))</f>
+        <f t="shared" si="7"/>
         <v>L</v>
       </c>
       <c r="O89" s="15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>(3-2)</v>
       </c>
       <c r="P89" s="5">
@@ -17439,7 +17411,7 @@
         <v/>
       </c>
       <c r="Z89" s="12" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="AA89" s="11">
@@ -17447,13 +17419,13 @@
         <v>0</v>
       </c>
       <c r="AB89" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="90" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A90" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="B90" s="9">
@@ -17490,15 +17462,15 @@
         <v>20</v>
       </c>
       <c r="M90" s="6">
-        <f>IF(N90="","",K90-L90)</f>
+        <f t="shared" si="6"/>
         <v>-13</v>
       </c>
       <c r="N90" s="7" t="str">
-        <f>IF(OR(K90="",L90=""),"",IF(K90=L90,"T",IF(K90&lt;L90,"L","W")))</f>
+        <f t="shared" si="7"/>
         <v>L</v>
       </c>
       <c r="O90" s="15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>(3-3)</v>
       </c>
       <c r="P90" s="5">
@@ -17542,7 +17514,7 @@
         <v>0</v>
       </c>
       <c r="Z90" s="12">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="AA90" s="11" t="str">
@@ -17550,13 +17522,13 @@
         <v/>
       </c>
       <c r="AB90" s="12" t="e">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="91" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A91" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="B91" s="9">
@@ -17593,15 +17565,15 @@
         <v>10</v>
       </c>
       <c r="M91" s="6">
-        <f>IF(N91="","",K91-L91)</f>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="N91" s="7" t="str">
-        <f>IF(OR(K91="",L91=""),"",IF(K91=L91,"T",IF(K91&lt;L91,"L","W")))</f>
+        <f t="shared" si="7"/>
         <v>W</v>
       </c>
       <c r="O91" s="15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>(4-3)</v>
       </c>
       <c r="P91" s="5">
@@ -17645,7 +17617,7 @@
         <v/>
       </c>
       <c r="Z91" s="12" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="AA91" s="11">
@@ -17653,13 +17625,13 @@
         <v>1</v>
       </c>
       <c r="AB91" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0.75</v>
       </c>
     </row>
     <row r="92" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A92" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="B92" s="9">
@@ -17693,15 +17665,15 @@
         <v>10</v>
       </c>
       <c r="M92" s="6">
-        <f>IF(N92="","",K92-L92)</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="N92" s="7" t="str">
-        <f>IF(OR(K92="",L92=""),"",IF(K92=L92,"T",IF(K92&lt;L92,"L","W")))</f>
+        <f t="shared" si="7"/>
         <v>W</v>
       </c>
       <c r="O92" s="15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>(5-3)</v>
       </c>
       <c r="P92" s="5">
@@ -17745,7 +17717,7 @@
         <v>1</v>
       </c>
       <c r="Z92" s="12">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0.5</v>
       </c>
       <c r="AA92" s="11" t="str">
@@ -17753,13 +17725,13 @@
         <v/>
       </c>
       <c r="AB92" s="12" t="e">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="93" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A93" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="B93" s="9">
@@ -17775,15 +17747,15 @@
         <v>17</v>
       </c>
       <c r="M93" s="6" t="str">
-        <f>IF(N93="","",K93-L93)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N93" s="7" t="str">
-        <f>IF(OR(K93="",L93=""),"",IF(K93=L93,"T",IF(K93&lt;L93,"L","W")))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O93" s="15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="P93" s="5" t="str">
@@ -17827,7 +17799,7 @@
         <v/>
       </c>
       <c r="Z93" s="12" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="AA93" s="11" t="str">
@@ -17835,13 +17807,13 @@
         <v/>
       </c>
       <c r="AB93" s="12" t="e">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="94" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A94" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="B94" s="9">
@@ -17875,15 +17847,15 @@
         <v>17</v>
       </c>
       <c r="M94" s="6">
-        <f>IF(N94="","",K94-L94)</f>
+        <f t="shared" si="6"/>
         <v>-5</v>
       </c>
       <c r="N94" s="7" t="str">
-        <f>IF(OR(K94="",L94=""),"",IF(K94=L94,"T",IF(K94&lt;L94,"L","W")))</f>
+        <f t="shared" si="7"/>
         <v>L</v>
       </c>
       <c r="O94" s="15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>(5-4)</v>
       </c>
       <c r="P94" s="5">
@@ -17927,7 +17899,7 @@
         <v/>
       </c>
       <c r="Z94" s="12" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="AA94" s="11">
@@ -17935,13 +17907,13 @@
         <v>0</v>
       </c>
       <c r="AB94" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0.6</v>
       </c>
     </row>
     <row r="95" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A95" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="B95" s="9">
@@ -17978,15 +17950,15 @@
         <v>7</v>
       </c>
       <c r="M95" s="6">
-        <f>IF(N95="","",K95-L95)</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="N95" s="7" t="str">
-        <f>IF(OR(K95="",L95=""),"",IF(K95=L95,"T",IF(K95&lt;L95,"L","W")))</f>
+        <f t="shared" si="7"/>
         <v>W</v>
       </c>
       <c r="O95" s="15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>(6-4)</v>
       </c>
       <c r="P95" s="5">
@@ -18030,7 +18002,7 @@
         <v>1</v>
       </c>
       <c r="Z95" s="12">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0.6</v>
       </c>
       <c r="AA95" s="11" t="str">
@@ -18038,13 +18010,13 @@
         <v/>
       </c>
       <c r="AB95" s="12" t="e">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="96" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A96" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="B96" s="9">
@@ -18078,15 +18050,15 @@
         <v>45</v>
       </c>
       <c r="M96" s="6">
-        <f>IF(N96="","",K96-L96)</f>
+        <f t="shared" si="6"/>
         <v>-39</v>
       </c>
       <c r="N96" s="7" t="str">
-        <f>IF(OR(K96="",L96=""),"",IF(K96=L96,"T",IF(K96&lt;L96,"L","W")))</f>
+        <f t="shared" si="7"/>
         <v>L</v>
       </c>
       <c r="O96" s="15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>(6-5)</v>
       </c>
       <c r="P96" s="5">
@@ -18130,7 +18102,7 @@
         <v>0</v>
       </c>
       <c r="Z96" s="12">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0.5</v>
       </c>
       <c r="AA96" s="11" t="str">
@@ -18138,13 +18110,13 @@
         <v/>
       </c>
       <c r="AB96" s="12" t="e">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="97" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A97" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="B97" s="9">
@@ -18181,15 +18153,15 @@
         <v>7</v>
       </c>
       <c r="M97" s="6">
-        <f>IF(N97="","",K97-L97)</f>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="N97" s="7" t="str">
-        <f>IF(OR(K97="",L97=""),"",IF(K97=L97,"T",IF(K97&lt;L97,"L","W")))</f>
+        <f t="shared" si="7"/>
         <v>W</v>
       </c>
       <c r="O97" s="15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>(7-5)</v>
       </c>
       <c r="P97" s="5">
@@ -18233,7 +18205,7 @@
         <v/>
       </c>
       <c r="Z97" s="12" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="AA97" s="11">
@@ -18241,13 +18213,13 @@
         <v>1</v>
       </c>
       <c r="AB97" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="98" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A98" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="B98" s="9">
@@ -18284,15 +18256,15 @@
         <v>12</v>
       </c>
       <c r="M98" s="6">
-        <f>IF(N98="","",K98-L98)</f>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="N98" s="7" t="str">
-        <f>IF(OR(K98="",L98=""),"",IF(K98=L98,"T",IF(K98&lt;L98,"L","W")))</f>
+        <f t="shared" si="7"/>
         <v>W</v>
       </c>
       <c r="O98" s="15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>(8-5)</v>
       </c>
       <c r="P98" s="5">
@@ -18336,7 +18308,7 @@
         <v>1</v>
       </c>
       <c r="Z98" s="12">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0.5714285714285714</v>
       </c>
       <c r="AA98" s="11" t="str">
@@ -18344,13 +18316,13 @@
         <v/>
       </c>
       <c r="AB98" s="12" t="e">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="99" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A99" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="B99" s="9">
@@ -18387,15 +18359,15 @@
         <v>44</v>
       </c>
       <c r="M99" s="6">
-        <f>IF(N99="","",K99-L99)</f>
+        <f t="shared" si="6"/>
         <v>-23</v>
       </c>
       <c r="N99" s="7" t="str">
-        <f>IF(OR(K99="",L99=""),"",IF(K99=L99,"T",IF(K99&lt;L99,"L","W")))</f>
+        <f t="shared" si="7"/>
         <v>L</v>
       </c>
       <c r="O99" s="15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>(8-6)</v>
       </c>
       <c r="P99" s="5">
@@ -18439,7 +18411,7 @@
         <v/>
       </c>
       <c r="Z99" s="12" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="AA99" s="11">
@@ -18447,13 +18419,13 @@
         <v>0</v>
       </c>
       <c r="AB99" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="100" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A100" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="B100" s="9">
@@ -18490,15 +18462,15 @@
         <v>34</v>
       </c>
       <c r="M100" s="6">
-        <f>IF(N100="","",K100-L100)</f>
+        <f t="shared" si="6"/>
         <v>-3</v>
       </c>
       <c r="N100" s="7" t="str">
-        <f>IF(OR(K100="",L100=""),"",IF(K100=L100,"T",IF(K100&lt;L100,"L","W")))</f>
+        <f t="shared" si="7"/>
         <v>L</v>
       </c>
       <c r="O100" s="15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>(8-7)</v>
       </c>
       <c r="P100" s="5">
@@ -18542,7 +18514,7 @@
         <v/>
       </c>
       <c r="Z100" s="12" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="AA100" s="11">
@@ -18550,13 +18522,13 @@
         <v>0</v>
       </c>
       <c r="AB100" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="101" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A101" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="B101" s="9">
@@ -18593,15 +18565,15 @@
         <v>24</v>
       </c>
       <c r="M101" s="6">
-        <f>IF(N101="","",K101-L101)</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="N101" s="7" t="str">
-        <f>IF(OR(K101="",L101=""),"",IF(K101=L101,"T",IF(K101&lt;L101,"L","W")))</f>
+        <f t="shared" si="7"/>
         <v>W</v>
       </c>
       <c r="O101" s="15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>(9-7)</v>
       </c>
       <c r="P101" s="5">
@@ -18645,7 +18617,7 @@
         <v>1</v>
       </c>
       <c r="Z101" s="12">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0.625</v>
       </c>
       <c r="AA101" s="11" t="str">
@@ -18653,13 +18625,13 @@
         <v/>
       </c>
       <c r="AB101" s="12" t="e">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="102" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A102" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="B102" s="9">
@@ -18675,15 +18647,15 @@
         <v>16</v>
       </c>
       <c r="M102" s="6" t="str">
-        <f>IF(N102="","",K102-L102)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N102" s="7" t="str">
-        <f>IF(OR(K102="",L102=""),"",IF(K102=L102,"T",IF(K102&lt;L102,"L","W")))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O102" s="15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="P102" s="5" t="str">
@@ -18727,7 +18699,7 @@
         <v/>
       </c>
       <c r="Z102" s="12" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="AA102" s="11" t="str">
@@ -18735,13 +18707,13 @@
         <v/>
       </c>
       <c r="AB102" s="12" t="e">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="103" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A103" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="B103" s="9">
@@ -18757,15 +18729,15 @@
         <v>16</v>
       </c>
       <c r="M103" s="6" t="str">
-        <f>IF(N103="","",K103-L103)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N103" s="7" t="str">
-        <f>IF(OR(K103="",L103=""),"",IF(K103=L103,"T",IF(K103&lt;L103,"L","W")))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O103" s="15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="P103" s="5" t="str">
@@ -18809,7 +18781,7 @@
         <v/>
       </c>
       <c r="Z103" s="12" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="AA103" s="11" t="str">
@@ -18817,13 +18789,13 @@
         <v/>
       </c>
       <c r="AB103" s="12" t="e">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="104" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A104" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="B104" s="9">
@@ -18839,15 +18811,15 @@
         <v>16</v>
       </c>
       <c r="M104" s="6" t="str">
-        <f>IF(N104="","",K104-L104)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N104" s="7" t="str">
-        <f>IF(OR(K104="",L104=""),"",IF(K104=L104,"T",IF(K104&lt;L104,"L","W")))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O104" s="15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="P104" s="5" t="str">
@@ -18891,7 +18863,7 @@
         <v/>
       </c>
       <c r="Z104" s="12" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="AA104" s="11" t="str">
@@ -18899,13 +18871,13 @@
         <v/>
       </c>
       <c r="AB104" s="12" t="e">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="105" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A105" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="B105" s="9">
@@ -18921,15 +18893,15 @@
         <v>16</v>
       </c>
       <c r="M105" s="6" t="str">
-        <f>IF(N105="","",K105-L105)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N105" s="7" t="str">
-        <f>IF(OR(K105="",L105=""),"",IF(K105=L105,"T",IF(K105&lt;L105,"L","W")))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O105" s="15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="P105" s="5" t="str">
@@ -18973,7 +18945,7 @@
         <v/>
       </c>
       <c r="Z105" s="12" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="AA105" s="11" t="str">
@@ -18981,13 +18953,13 @@
         <v/>
       </c>
       <c r="AB105" s="12" t="e">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="106" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A106" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="B106" s="9">
@@ -19003,15 +18975,15 @@
         <v>17</v>
       </c>
       <c r="M106" s="6" t="str">
-        <f>IF(N106="","",K106-L106)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N106" s="7" t="str">
-        <f>IF(OR(K106="",L106=""),"",IF(K106=L106,"T",IF(K106&lt;L106,"L","W")))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O106" s="15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="P106" s="5" t="str">
@@ -19055,7 +19027,7 @@
         <v/>
       </c>
       <c r="Z106" s="12" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="AA106" s="11" t="str">
@@ -19063,13 +19035,13 @@
         <v/>
       </c>
       <c r="AB106" s="12" t="e">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="107" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A107" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="B107" s="9">
@@ -19091,15 +19063,15 @@
         <v>65</v>
       </c>
       <c r="M107" s="6" t="str">
-        <f>IF(N107="","",K107-L107)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N107" s="7" t="str">
-        <f>IF(OR(K107="",L107=""),"",IF(K107=L107,"T",IF(K107&lt;L107,"L","W")))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O107" s="15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="P107" s="5" t="str">
@@ -19143,7 +19115,7 @@
         <v>#N/A</v>
       </c>
       <c r="Z107" s="12" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="AA107" s="11" t="e">
@@ -19151,13 +19123,13 @@
         <v>#N/A</v>
       </c>
       <c r="AB107" s="12" t="e">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="108" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A108" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="B108" s="9">
@@ -19179,15 +19151,15 @@
         <v>65</v>
       </c>
       <c r="M108" s="6" t="str">
-        <f>IF(N108="","",K108-L108)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N108" s="7" t="str">
-        <f>IF(OR(K108="",L108=""),"",IF(K108=L108,"T",IF(K108&lt;L108,"L","W")))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O108" s="15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="P108" s="5" t="str">
@@ -19231,7 +19203,7 @@
         <v>#N/A</v>
       </c>
       <c r="Z108" s="12" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="AA108" s="11" t="e">
@@ -19239,13 +19211,13 @@
         <v>#N/A</v>
       </c>
       <c r="AB108" s="12" t="e">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="109" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A109" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="B109" s="9">
@@ -19267,15 +19239,15 @@
         <v>65</v>
       </c>
       <c r="M109" s="6" t="str">
-        <f>IF(N109="","",K109-L109)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N109" s="7" t="str">
-        <f>IF(OR(K109="",L109=""),"",IF(K109=L109,"T",IF(K109&lt;L109,"L","W")))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O109" s="15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="P109" s="5" t="str">
@@ -19319,7 +19291,7 @@
         <v>#N/A</v>
       </c>
       <c r="Z109" s="12" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="AA109" s="11" t="e">
@@ -19327,13 +19299,13 @@
         <v>#N/A</v>
       </c>
       <c r="AB109" s="12" t="e">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="110" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A110" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="B110" s="9">
@@ -19355,15 +19327,15 @@
         <v>65</v>
       </c>
       <c r="M110" s="6" t="str">
-        <f>IF(N110="","",K110-L110)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N110" s="7" t="str">
-        <f>IF(OR(K110="",L110=""),"",IF(K110=L110,"T",IF(K110&lt;L110,"L","W")))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O110" s="15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="P110" s="5" t="str">
@@ -19407,7 +19379,7 @@
         <v>#N/A</v>
       </c>
       <c r="Z110" s="12" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="AA110" s="11" t="e">
@@ -19415,13 +19387,13 @@
         <v>#N/A</v>
       </c>
       <c r="AB110" s="12" t="e">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="111" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A111" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="B111" s="9">
@@ -19458,15 +19430,15 @@
         <v>17</v>
       </c>
       <c r="M111" s="6">
-        <f>IF(N111="","",K111-L111)</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="N111" s="7" t="str">
-        <f>IF(OR(K111="",L111=""),"",IF(K111=L111,"T",IF(K111&lt;L111,"L","W")))</f>
+        <f t="shared" si="7"/>
         <v>W</v>
       </c>
       <c r="O111" s="15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>(1-0)</v>
       </c>
       <c r="P111" s="5">
@@ -19510,7 +19482,7 @@
         <v>1</v>
       </c>
       <c r="Z111" s="12">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="AA111" s="11" t="str">
@@ -19518,13 +19490,13 @@
         <v/>
       </c>
       <c r="AB111" s="12" t="e">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="112" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A112" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="B112" s="9">
@@ -19561,15 +19533,15 @@
         <v>19</v>
       </c>
       <c r="M112" s="6">
-        <f>IF(N112="","",K112-L112)</f>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="N112" s="7" t="str">
-        <f>IF(OR(K112="",L112=""),"",IF(K112=L112,"T",IF(K112&lt;L112,"L","W")))</f>
+        <f t="shared" si="7"/>
         <v>W</v>
       </c>
       <c r="O112" s="15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>(2-0)</v>
       </c>
       <c r="P112" s="5">
@@ -19613,7 +19585,7 @@
         <v/>
       </c>
       <c r="Z112" s="12" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="AA112" s="11">
@@ -19621,13 +19593,13 @@
         <v>1</v>
       </c>
       <c r="AB112" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A113" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="B113" s="9">
@@ -19664,15 +19636,15 @@
         <v>35</v>
       </c>
       <c r="M113" s="6">
-        <f>IF(N113="","",K113-L113)</f>
+        <f t="shared" si="6"/>
         <v>-3</v>
       </c>
       <c r="N113" s="7" t="str">
-        <f>IF(OR(K113="",L113=""),"",IF(K113=L113,"T",IF(K113&lt;L113,"L","W")))</f>
+        <f t="shared" si="7"/>
         <v>L</v>
       </c>
       <c r="O113" s="15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>(2-1)</v>
       </c>
       <c r="P113" s="5">
@@ -19716,7 +19688,7 @@
         <v/>
       </c>
       <c r="Z113" s="12" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="AA113" s="11">
@@ -19724,13 +19696,13 @@
         <v>0</v>
       </c>
       <c r="AB113" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="114" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A114" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="B114" s="9">
@@ -19767,15 +19739,15 @@
         <v>9</v>
       </c>
       <c r="M114" s="6">
-        <f>IF(N114="","",K114-L114)</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="N114" s="7" t="str">
-        <f>IF(OR(K114="",L114=""),"",IF(K114=L114,"T",IF(K114&lt;L114,"L","W")))</f>
+        <f t="shared" si="7"/>
         <v>W</v>
       </c>
       <c r="O114" s="15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>(3-1)</v>
       </c>
       <c r="P114" s="5">
@@ -19819,7 +19791,7 @@
         <v>1</v>
       </c>
       <c r="Z114" s="12">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="AA114" s="11" t="str">
@@ -19827,13 +19799,13 @@
         <v/>
       </c>
       <c r="AB114" s="12" t="e">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="115" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A115" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="B115" s="9">
@@ -19870,15 +19842,15 @@
         <v>10</v>
       </c>
       <c r="M115" s="6">
-        <f>IF(N115="","",K115-L115)</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="N115" s="7" t="str">
-        <f>IF(OR(K115="",L115=""),"",IF(K115=L115,"T",IF(K115&lt;L115,"L","W")))</f>
+        <f t="shared" si="7"/>
         <v>W</v>
       </c>
       <c r="O115" s="15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>(4-1)</v>
       </c>
       <c r="P115" s="5">
@@ -19922,7 +19894,7 @@
         <v/>
       </c>
       <c r="Z115" s="12" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="AA115" s="11">
@@ -19930,13 +19902,13 @@
         <v>1</v>
       </c>
       <c r="AB115" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="116" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A116" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="B116" s="9">
@@ -19973,15 +19945,15 @@
         <v>24</v>
       </c>
       <c r="M116" s="6">
-        <f>IF(N116="","",K116-L116)</f>
+        <f t="shared" si="6"/>
         <v>-8</v>
       </c>
       <c r="N116" s="7" t="str">
-        <f>IF(OR(K116="",L116=""),"",IF(K116=L116,"T",IF(K116&lt;L116,"L","W")))</f>
+        <f t="shared" si="7"/>
         <v>L</v>
       </c>
       <c r="O116" s="15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>(4-2)</v>
       </c>
       <c r="P116" s="5">
@@ -20025,7 +19997,7 @@
         <v/>
       </c>
       <c r="Z116" s="12" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="AA116" s="11">
@@ -20033,13 +20005,13 @@
         <v>0</v>
       </c>
       <c r="AB116" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="117" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A117" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="B117" s="9">
@@ -20076,15 +20048,15 @@
         <v>10</v>
       </c>
       <c r="M117" s="6">
-        <f>IF(N117="","",K117-L117)</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="N117" s="7" t="str">
-        <f>IF(OR(K117="",L117=""),"",IF(K117=L117,"T",IF(K117&lt;L117,"L","W")))</f>
+        <f t="shared" si="7"/>
         <v>W</v>
       </c>
       <c r="O117" s="15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>(5-2)</v>
       </c>
       <c r="P117" s="5">
@@ -20128,7 +20100,7 @@
         <v>1</v>
       </c>
       <c r="Z117" s="12">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="AA117" s="11" t="str">
@@ -20136,13 +20108,13 @@
         <v/>
       </c>
       <c r="AB117" s="12" t="e">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="118" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A118" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="B118" s="9">
@@ -20179,15 +20151,15 @@
         <v>28</v>
       </c>
       <c r="M118" s="6">
-        <f>IF(N118="","",K118-L118)</f>
+        <f t="shared" si="6"/>
         <v>-11</v>
       </c>
       <c r="N118" s="7" t="str">
-        <f>IF(OR(K118="",L118=""),"",IF(K118=L118,"T",IF(K118&lt;L118,"L","W")))</f>
+        <f t="shared" si="7"/>
         <v>L</v>
       </c>
       <c r="O118" s="15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>(5-3)</v>
       </c>
       <c r="P118" s="5">
@@ -20231,7 +20203,7 @@
         <v/>
       </c>
       <c r="Z118" s="12" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="AA118" s="11">
@@ -20239,13 +20211,13 @@
         <v>0</v>
       </c>
       <c r="AB118" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0.4</v>
       </c>
     </row>
     <row r="119" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A119" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="B119" s="9">
@@ -20261,15 +20233,15 @@
         <v>17</v>
       </c>
       <c r="M119" s="6" t="str">
-        <f>IF(N119="","",K119-L119)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N119" s="7" t="str">
-        <f>IF(OR(K119="",L119=""),"",IF(K119=L119,"T",IF(K119&lt;L119,"L","W")))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O119" s="15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="P119" s="5" t="str">
@@ -20313,7 +20285,7 @@
         <v/>
       </c>
       <c r="Z119" s="12" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="AA119" s="11" t="str">
@@ -20321,13 +20293,13 @@
         <v/>
       </c>
       <c r="AB119" s="12" t="e">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="120" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A120" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="B120" s="9">
@@ -20364,15 +20336,15 @@
         <v>16</v>
       </c>
       <c r="M120" s="6">
-        <f>IF(N120="","",K120-L120)</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="N120" s="7" t="str">
-        <f>IF(OR(K120="",L120=""),"",IF(K120=L120,"T",IF(K120&lt;L120,"L","W")))</f>
+        <f t="shared" si="7"/>
         <v>W</v>
       </c>
       <c r="O120" s="15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>(6-3)</v>
       </c>
       <c r="P120" s="5">
@@ -20416,7 +20388,7 @@
         <v>1</v>
       </c>
       <c r="Z120" s="12">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="AA120" s="11" t="str">
@@ -20424,13 +20396,13 @@
         <v/>
       </c>
       <c r="AB120" s="12" t="e">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="121" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A121" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="B121" s="9">
@@ -20467,15 +20439,15 @@
         <v>24</v>
       </c>
       <c r="M121" s="6">
-        <f>IF(N121="","",K121-L121)</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="N121" s="7" t="str">
-        <f>IF(OR(K121="",L121=""),"",IF(K121=L121,"T",IF(K121&lt;L121,"L","W")))</f>
+        <f t="shared" si="7"/>
         <v>W</v>
       </c>
       <c r="O121" s="15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>(7-3)</v>
       </c>
       <c r="P121" s="5">
@@ -20519,7 +20491,7 @@
         <v/>
       </c>
       <c r="Z121" s="12" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="AA121" s="11">
@@ -20527,13 +20499,13 @@
         <v>1</v>
       </c>
       <c r="AB121" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="122" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A122" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="B122" s="9">
@@ -20570,15 +20542,15 @@
         <v>23</v>
       </c>
       <c r="M122" s="6">
-        <f>IF(N122="","",K122-L122)</f>
+        <f t="shared" si="6"/>
         <v>-3</v>
       </c>
       <c r="N122" s="7" t="str">
-        <f>IF(OR(K122="",L122=""),"",IF(K122=L122,"T",IF(K122&lt;L122,"L","W")))</f>
+        <f t="shared" si="7"/>
         <v>L</v>
       </c>
       <c r="O122" s="15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>(7-4)</v>
       </c>
       <c r="P122" s="5">
@@ -20622,7 +20594,7 @@
         <v>0</v>
       </c>
       <c r="Z122" s="12">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0.8</v>
       </c>
       <c r="AA122" s="11" t="str">
@@ -20630,13 +20602,13 @@
         <v/>
       </c>
       <c r="AB122" s="12" t="e">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="123" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A123" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="B123" s="9">
@@ -20673,15 +20645,15 @@
         <v>28</v>
       </c>
       <c r="M123" s="6">
-        <f>IF(N123="","",K123-L123)</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="N123" s="7" t="str">
-        <f>IF(OR(K123="",L123=""),"",IF(K123=L123,"T",IF(K123&lt;L123,"L","W")))</f>
+        <f t="shared" si="7"/>
         <v>W</v>
       </c>
       <c r="O123" s="15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>(8-4)</v>
       </c>
       <c r="P123" s="5">
@@ -20725,7 +20697,7 @@
         <v/>
       </c>
       <c r="Z123" s="12" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="AA123" s="11">
@@ -20733,13 +20705,13 @@
         <v>1</v>
       </c>
       <c r="AB123" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="124" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A124" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="B124" s="9">
@@ -20776,15 +20748,15 @@
         <v>3</v>
       </c>
       <c r="M124" s="6">
-        <f>IF(N124="","",K124-L124)</f>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="N124" s="7" t="str">
-        <f>IF(OR(K124="",L124=""),"",IF(K124=L124,"T",IF(K124&lt;L124,"L","W")))</f>
+        <f t="shared" si="7"/>
         <v>W</v>
       </c>
       <c r="O124" s="15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>(9-4)</v>
       </c>
       <c r="P124" s="5">
@@ -20828,7 +20800,7 @@
         <v>1</v>
       </c>
       <c r="Z124" s="12">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="AA124" s="11" t="str">
@@ -20836,13 +20808,13 @@
         <v/>
       </c>
       <c r="AB124" s="12" t="e">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="125" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A125" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="B125" s="9">
@@ -20879,15 +20851,15 @@
         <v>23</v>
       </c>
       <c r="M125" s="6">
-        <f>IF(N125="","",K125-L125)</f>
+        <f t="shared" si="6"/>
         <v>-3</v>
       </c>
       <c r="N125" s="7" t="str">
-        <f>IF(OR(K125="",L125=""),"",IF(K125=L125,"T",IF(K125&lt;L125,"L","W")))</f>
+        <f t="shared" si="7"/>
         <v>L</v>
       </c>
       <c r="O125" s="15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>(9-5)</v>
       </c>
       <c r="P125" s="5">
@@ -20931,7 +20903,7 @@
         <v>0</v>
       </c>
       <c r="Z125" s="12">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0.7142857142857143</v>
       </c>
       <c r="AA125" s="11" t="str">
@@ -20939,13 +20911,13 @@
         <v/>
       </c>
       <c r="AB125" s="12" t="e">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="126" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A126" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="B126" s="9">
@@ -20982,15 +20954,15 @@
         <v>20</v>
       </c>
       <c r="M126" s="6">
-        <f>IF(N126="","",K126-L126)</f>
+        <f t="shared" si="6"/>
         <v>-11</v>
       </c>
       <c r="N126" s="7" t="str">
-        <f>IF(OR(K126="",L126=""),"",IF(K126=L126,"T",IF(K126&lt;L126,"L","W")))</f>
+        <f t="shared" si="7"/>
         <v>L</v>
       </c>
       <c r="O126" s="15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>(9-6)</v>
       </c>
       <c r="P126" s="5">
@@ -21034,7 +21006,7 @@
         <v/>
       </c>
       <c r="Z126" s="12" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="AA126" s="11">
@@ -21042,13 +21014,13 @@
         <v>0</v>
       </c>
       <c r="AB126" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="127" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A127" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="B127" s="9">
@@ -21085,15 +21057,15 @@
         <v>7</v>
       </c>
       <c r="M127" s="6">
-        <f>IF(N127="","",K127-L127)</f>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="N127" s="7" t="str">
-        <f>IF(OR(K127="",L127=""),"",IF(K127=L127,"T",IF(K127&lt;L127,"L","W")))</f>
+        <f t="shared" si="7"/>
         <v>W</v>
       </c>
       <c r="O127" s="15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>(10-6)</v>
       </c>
       <c r="P127" s="5">
@@ -21137,7 +21109,7 @@
         <v>1</v>
       </c>
       <c r="Z127" s="12">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0.75</v>
       </c>
       <c r="AA127" s="11" t="str">
@@ -21145,13 +21117,13 @@
         <v/>
       </c>
       <c r="AB127" s="12" t="e">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="128" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A128" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="B128" s="9">
@@ -21176,15 +21148,15 @@
         <v>20</v>
       </c>
       <c r="M128" s="6">
-        <f>IF(N128="","",K128-L128)</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="N128" s="7" t="str">
-        <f>IF(OR(K128="",L128=""),"",IF(K128=L128,"T",IF(K128&lt;L128,"L","W")))</f>
+        <f t="shared" si="7"/>
         <v>W</v>
       </c>
       <c r="O128" s="15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>(1-0)</v>
       </c>
       <c r="P128" s="5">
@@ -21228,7 +21200,7 @@
         <v/>
       </c>
       <c r="Z128" s="12" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="AA128" s="11">
@@ -21236,13 +21208,13 @@
         <v>1</v>
       </c>
       <c r="AB128" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A129" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="B129" s="9">
@@ -21267,15 +21239,15 @@
         <v>32</v>
       </c>
       <c r="M129" s="6">
-        <f>IF(N129="","",K129-L129)</f>
+        <f t="shared" si="6"/>
         <v>-14</v>
       </c>
       <c r="N129" s="7" t="str">
-        <f>IF(OR(K129="",L129=""),"",IF(K129=L129,"T",IF(K129&lt;L129,"L","W")))</f>
+        <f t="shared" si="7"/>
         <v>L</v>
       </c>
       <c r="O129" s="15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>(1-1)</v>
       </c>
       <c r="P129" s="5">
@@ -21319,7 +21291,7 @@
         <v/>
       </c>
       <c r="Z129" s="12" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="AA129" s="11">
@@ -21327,13 +21299,13 @@
         <v>0</v>
       </c>
       <c r="AB129" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="130" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A130" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="B130" s="9">
@@ -21349,15 +21321,15 @@
         <v>16</v>
       </c>
       <c r="M130" s="6" t="str">
-        <f>IF(N130="","",K130-L130)</f>
+        <f t="shared" ref="M130:M193" si="12">IF(N130="","",K130-L130)</f>
         <v/>
       </c>
       <c r="N130" s="7" t="str">
-        <f>IF(OR(K130="",L130=""),"",IF(K130=L130,"T",IF(K130&lt;L130,"L","W")))</f>
+        <f t="shared" ref="N130:N193" si="13">IF(OR(K130="",L130=""),"",IF(K130=L130,"T",IF(K130&lt;L130,"L","W")))</f>
         <v/>
       </c>
       <c r="O130" s="15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="P130" s="5" t="str">
@@ -21401,7 +21373,7 @@
         <v/>
       </c>
       <c r="Z130" s="12" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="AA130" s="11" t="str">
@@ -21409,13 +21381,13 @@
         <v/>
       </c>
       <c r="AB130" s="12" t="e">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="131" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A131" s="8">
-        <f t="shared" ref="A131:A194" si="8">IF(B131&amp;C131&lt;&gt;B130&amp;C130,1,A130+1)</f>
+        <f t="shared" ref="A131:A194" si="14">IF(B131&amp;C131&lt;&gt;B130&amp;C130,1,A130+1)</f>
         <v>4</v>
       </c>
       <c r="B131" s="9">
@@ -21431,15 +21403,15 @@
         <v>16</v>
       </c>
       <c r="M131" s="6" t="str">
-        <f>IF(N131="","",K131-L131)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N131" s="7" t="str">
-        <f>IF(OR(K131="",L131=""),"",IF(K131=L131,"T",IF(K131&lt;L131,"L","W")))</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O131" s="15" t="str">
-        <f t="shared" ref="O131:O194" ca="1" si="9">IF(OR(K131="",L131=""),"","("&amp;COUNTIF(OFFSET(N131,,,-$A131),"W")&amp;"-"&amp;COUNTIF(OFFSET(N131,,,-$A131),"L")&amp;IF(COUNTIF(OFFSET(N131,,,-$A131),"T")&gt;0,"-"&amp;COUNTIF(OFFSET(N131,,,-$A131),"T"),"")&amp;")")</f>
+        <f t="shared" ref="O131:O194" ca="1" si="15">IF(OR(K131="",L131=""),"","("&amp;COUNTIF(OFFSET(N131,,,-$A131),"W")&amp;"-"&amp;COUNTIF(OFFSET(N131,,,-$A131),"L")&amp;IF(COUNTIF(OFFSET(N131,,,-$A131),"T")&gt;0,"-"&amp;COUNTIF(OFFSET(N131,,,-$A131),"T"),"")&amp;")")</f>
         <v/>
       </c>
       <c r="P131" s="5" t="str">
@@ -21483,7 +21455,7 @@
         <v/>
       </c>
       <c r="Z131" s="12" t="e">
-        <f t="shared" ref="Z131:Z194" ca="1" si="10">IF(Y131="",#N/A,SUM(OFFSET(Y131,,,-$A131))/COUNT(OFFSET(Y131,,,-$A131)))</f>
+        <f t="shared" ref="Z131:Z194" ca="1" si="16">IF(Y131="",#N/A,SUM(OFFSET(Y131,,,-$A131))/COUNT(OFFSET(Y131,,,-$A131)))</f>
         <v>#N/A</v>
       </c>
       <c r="AA131" s="11" t="str">
@@ -21491,13 +21463,13 @@
         <v/>
       </c>
       <c r="AB131" s="12" t="e">
-        <f t="shared" ref="AB131:AB194" ca="1" si="11">IF(AA131="",#N/A,SUM(OFFSET(AA131,,,-$A131))/COUNT(OFFSET(AA131,,,-$A131)))</f>
+        <f t="shared" ref="AB131:AB194" ca="1" si="17">IF(AA131="",#N/A,SUM(OFFSET(AA131,,,-$A131))/COUNT(OFFSET(AA131,,,-$A131)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="132" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A132" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="B132" s="9">
@@ -21513,15 +21485,15 @@
         <v>17</v>
       </c>
       <c r="M132" s="6" t="str">
-        <f>IF(N132="","",K132-L132)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N132" s="7" t="str">
-        <f>IF(OR(K132="",L132=""),"",IF(K132=L132,"T",IF(K132&lt;L132,"L","W")))</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O132" s="15" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="P132" s="5" t="str">
@@ -21565,7 +21537,7 @@
         <v/>
       </c>
       <c r="Z132" s="12" t="e">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="AA132" s="11" t="str">
@@ -21573,13 +21545,13 @@
         <v/>
       </c>
       <c r="AB132" s="12" t="e">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="133" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A133" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="B133" s="9">
@@ -21604,15 +21576,15 @@
         <v>13</v>
       </c>
       <c r="M133" s="6">
-        <f>IF(N133="","",K133-L133)</f>
+        <f t="shared" si="12"/>
         <v>-7</v>
       </c>
       <c r="N133" s="7" t="str">
-        <f>IF(OR(K133="",L133=""),"",IF(K133=L133,"T",IF(K133&lt;L133,"L","W")))</f>
+        <f t="shared" si="13"/>
         <v>L</v>
       </c>
       <c r="O133" s="15" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="15"/>
         <v>(0-1)</v>
       </c>
       <c r="P133" s="5">
@@ -21656,7 +21628,7 @@
         <v>0</v>
       </c>
       <c r="Z133" s="12">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="AA133" s="11" t="str">
@@ -21664,13 +21636,13 @@
         <v/>
       </c>
       <c r="AB133" s="12" t="e">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="134" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A134" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="B134" s="9">
@@ -21695,15 +21667,15 @@
         <v>17</v>
       </c>
       <c r="M134" s="6">
-        <f>IF(N134="","",K134-L134)</f>
+        <f t="shared" si="12"/>
         <v>-1</v>
       </c>
       <c r="N134" s="7" t="str">
-        <f>IF(OR(K134="",L134=""),"",IF(K134=L134,"T",IF(K134&lt;L134,"L","W")))</f>
+        <f t="shared" si="13"/>
         <v>L</v>
       </c>
       <c r="O134" s="15" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="15"/>
         <v>(0-2)</v>
       </c>
       <c r="P134" s="5">
@@ -21747,7 +21719,7 @@
         <v>0</v>
       </c>
       <c r="Z134" s="12">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="AA134" s="11" t="str">
@@ -21755,13 +21727,13 @@
         <v/>
       </c>
       <c r="AB134" s="12" t="e">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="135" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A135" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="B135" s="9">
@@ -21786,15 +21758,15 @@
         <v>17</v>
       </c>
       <c r="M135" s="6">
-        <f>IF(N135="","",K135-L135)</f>
+        <f t="shared" si="12"/>
         <v>-5</v>
       </c>
       <c r="N135" s="7" t="str">
-        <f>IF(OR(K135="",L135=""),"",IF(K135=L135,"T",IF(K135&lt;L135,"L","W")))</f>
+        <f t="shared" si="13"/>
         <v>L</v>
       </c>
       <c r="O135" s="15" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="15"/>
         <v>(0-3)</v>
       </c>
       <c r="P135" s="5">
@@ -21838,7 +21810,7 @@
         <v/>
       </c>
       <c r="Z135" s="12" t="e">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="AA135" s="11">
@@ -21846,13 +21818,13 @@
         <v>0</v>
       </c>
       <c r="AB135" s="12">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A136" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="B136" s="9">
@@ -21889,15 +21861,15 @@
         <v>14</v>
       </c>
       <c r="M136" s="6">
-        <f>IF(N136="","",K136-L136)</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="N136" s="7" t="str">
-        <f>IF(OR(K136="",L136=""),"",IF(K136=L136,"T",IF(K136&lt;L136,"L","W")))</f>
+        <f t="shared" si="13"/>
         <v>W</v>
       </c>
       <c r="O136" s="15" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="15"/>
         <v>(1-0)</v>
       </c>
       <c r="P136" s="5">
@@ -21941,7 +21913,7 @@
         <v>1</v>
       </c>
       <c r="Z136" s="12">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="AA136" s="11" t="str">
@@ -21949,13 +21921,13 @@
         <v/>
       </c>
       <c r="AB136" s="12" t="e">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="137" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A137" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="B137" s="9">
@@ -21992,15 +21964,15 @@
         <v>24</v>
       </c>
       <c r="M137" s="6">
-        <f>IF(N137="","",K137-L137)</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="N137" s="7" t="str">
-        <f>IF(OR(K137="",L137=""),"",IF(K137=L137,"T",IF(K137&lt;L137,"L","W")))</f>
+        <f t="shared" si="13"/>
         <v>W</v>
       </c>
       <c r="O137" s="15" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="15"/>
         <v>(2-0)</v>
       </c>
       <c r="P137" s="5">
@@ -22044,7 +22016,7 @@
         <v/>
       </c>
       <c r="Z137" s="12" t="e">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="AA137" s="11">
@@ -22052,13 +22024,13 @@
         <v>1</v>
       </c>
       <c r="AB137" s="12">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A138" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="B138" s="9">
@@ -22095,15 +22067,15 @@
         <v>24</v>
       </c>
       <c r="M138" s="6">
-        <f>IF(N138="","",K138-L138)</f>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="N138" s="7" t="str">
-        <f>IF(OR(K138="",L138=""),"",IF(K138=L138,"T",IF(K138&lt;L138,"L","W")))</f>
+        <f t="shared" si="13"/>
         <v>W</v>
       </c>
       <c r="O138" s="15" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="15"/>
         <v>(3-0)</v>
       </c>
       <c r="P138" s="5">
@@ -22147,7 +22119,7 @@
         <v>1</v>
       </c>
       <c r="Z138" s="12">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="AA138" s="11" t="str">
@@ -22155,13 +22127,13 @@
         <v/>
       </c>
       <c r="AB138" s="12" t="e">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="139" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A139" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="B139" s="9">
@@ -22198,15 +22170,15 @@
         <v>37</v>
       </c>
       <c r="M139" s="6">
-        <f>IF(N139="","",K139-L139)</f>
+        <f t="shared" si="12"/>
         <v>-17</v>
       </c>
       <c r="N139" s="7" t="str">
-        <f>IF(OR(K139="",L139=""),"",IF(K139=L139,"T",IF(K139&lt;L139,"L","W")))</f>
+        <f t="shared" si="13"/>
         <v>L</v>
       </c>
       <c r="O139" s="15" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="15"/>
         <v>(3-1)</v>
       </c>
       <c r="P139" s="5">
@@ -22250,7 +22222,7 @@
         <v>0</v>
       </c>
       <c r="Z139" s="12">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="AA139" s="11" t="str">
@@ -22258,13 +22230,13 @@
         <v/>
       </c>
       <c r="AB139" s="12" t="e">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="140" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A140" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="B140" s="9">
@@ -22301,15 +22273,15 @@
         <v>17</v>
       </c>
       <c r="M140" s="6">
-        <f>IF(N140="","",K140-L140)</f>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="N140" s="7" t="str">
-        <f>IF(OR(K140="",L140=""),"",IF(K140=L140,"T",IF(K140&lt;L140,"L","W")))</f>
+        <f t="shared" si="13"/>
         <v>W</v>
       </c>
       <c r="O140" s="15" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="15"/>
         <v>(4-1)</v>
       </c>
       <c r="P140" s="5">
@@ -22353,7 +22325,7 @@
         <v/>
       </c>
       <c r="Z140" s="12" t="e">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="AA140" s="11">
@@ -22361,13 +22333,13 @@
         <v>1</v>
       </c>
       <c r="AB140" s="12">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A141" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="B141" s="9">
@@ -22404,15 +22376,15 @@
         <v>11</v>
       </c>
       <c r="M141" s="6">
-        <f>IF(N141="","",K141-L141)</f>
+        <f t="shared" si="12"/>
         <v>27</v>
       </c>
       <c r="N141" s="7" t="str">
-        <f>IF(OR(K141="",L141=""),"",IF(K141=L141,"T",IF(K141&lt;L141,"L","W")))</f>
+        <f t="shared" si="13"/>
         <v>W</v>
       </c>
       <c r="O141" s="15" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="15"/>
         <v>(5-1)</v>
       </c>
       <c r="P141" s="5">
@@ -22456,7 +22428,7 @@
         <v/>
       </c>
       <c r="Z141" s="12" t="e">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="AA141" s="11">
@@ -22464,13 +22436,13 @@
         <v>1</v>
       </c>
       <c r="AB141" s="12">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A142" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="B142" s="9">
@@ -22507,15 +22479,15 @@
         <v>19</v>
       </c>
       <c r="M142" s="6">
-        <f>IF(N142="","",K142-L142)</f>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="N142" s="7" t="str">
-        <f>IF(OR(K142="",L142=""),"",IF(K142=L142,"T",IF(K142&lt;L142,"L","W")))</f>
+        <f t="shared" si="13"/>
         <v>W</v>
       </c>
       <c r="O142" s="15" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="15"/>
         <v>(6-1)</v>
       </c>
       <c r="P142" s="5">
@@ -22559,7 +22531,7 @@
         <v>1</v>
       </c>
       <c r="Z142" s="12">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0.75</v>
       </c>
       <c r="AA142" s="11" t="str">
@@ -22567,13 +22539,13 @@
         <v/>
       </c>
       <c r="AB142" s="12" t="e">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="143" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A143" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="B143" s="9">
@@ -22610,15 +22582,15 @@
         <v>22</v>
       </c>
       <c r="M143" s="6">
-        <f>IF(N143="","",K143-L143)</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="N143" s="7" t="str">
-        <f>IF(OR(K143="",L143=""),"",IF(K143=L143,"T",IF(K143&lt;L143,"L","W")))</f>
+        <f t="shared" si="13"/>
         <v>W</v>
       </c>
       <c r="O143" s="15" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="15"/>
         <v>(7-1)</v>
       </c>
       <c r="P143" s="5">
@@ -22662,7 +22634,7 @@
         <v/>
       </c>
       <c r="Z143" s="12" t="e">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="AA143" s="11">
@@ -22670,13 +22642,13 @@
         <v>1</v>
       </c>
       <c r="AB143" s="12">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A144" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="B144" s="9">
@@ -22713,15 +22685,15 @@
         <v>28</v>
       </c>
       <c r="M144" s="6">
-        <f>IF(N144="","",K144-L144)</f>
+        <f t="shared" si="12"/>
         <v>-12</v>
       </c>
       <c r="N144" s="7" t="str">
-        <f>IF(OR(K144="",L144=""),"",IF(K144=L144,"T",IF(K144&lt;L144,"L","W")))</f>
+        <f t="shared" si="13"/>
         <v>L</v>
       </c>
       <c r="O144" s="15" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="15"/>
         <v>(7-2)</v>
       </c>
       <c r="P144" s="5">
@@ -22765,7 +22737,7 @@
         <v>0</v>
       </c>
       <c r="Z144" s="12">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0.6</v>
       </c>
       <c r="AA144" s="11" t="str">
@@ -22773,13 +22745,13 @@
         <v/>
       </c>
       <c r="AB144" s="12" t="e">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="145" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A145" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="B145" s="9">
@@ -22816,15 +22788,15 @@
         <v>31</v>
       </c>
       <c r="M145" s="6">
-        <f>IF(N145="","",K145-L145)</f>
+        <f t="shared" si="12"/>
         <v>-21</v>
       </c>
       <c r="N145" s="7" t="str">
-        <f>IF(OR(K145="",L145=""),"",IF(K145=L145,"T",IF(K145&lt;L145,"L","W")))</f>
+        <f t="shared" si="13"/>
         <v>L</v>
       </c>
       <c r="O145" s="15" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="15"/>
         <v>(7-3)</v>
       </c>
       <c r="P145" s="5">
@@ -22868,7 +22840,7 @@
         <v/>
       </c>
       <c r="Z145" s="12" t="e">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="AA145" s="11">
@@ -22876,13 +22848,13 @@
         <v>0</v>
       </c>
       <c r="AB145" s="12">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v>0.8</v>
       </c>
     </row>
     <row r="146" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A146" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
       <c r="B146" s="9">
@@ -22898,15 +22870,15 @@
         <v>17</v>
       </c>
       <c r="M146" s="6" t="str">
-        <f>IF(N146="","",K146-L146)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N146" s="7" t="str">
-        <f>IF(OR(K146="",L146=""),"",IF(K146=L146,"T",IF(K146&lt;L146,"L","W")))</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O146" s="15" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="P146" s="5" t="str">
@@ -22950,7 +22922,7 @@
         <v/>
       </c>
       <c r="Z146" s="12" t="e">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="AA146" s="11" t="str">
@@ -22958,13 +22930,13 @@
         <v/>
       </c>
       <c r="AB146" s="12" t="e">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="147" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A147" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
       <c r="B147" s="9">
@@ -23001,15 +22973,15 @@
         <v>36</v>
       </c>
       <c r="M147" s="6">
-        <f>IF(N147="","",K147-L147)</f>
+        <f t="shared" si="12"/>
         <v>-8</v>
       </c>
       <c r="N147" s="7" t="str">
-        <f>IF(OR(K147="",L147=""),"",IF(K147=L147,"T",IF(K147&lt;L147,"L","W")))</f>
+        <f t="shared" si="13"/>
         <v>L</v>
       </c>
       <c r="O147" s="15" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="15"/>
         <v>(7-4)</v>
       </c>
       <c r="P147" s="5">
@@ -23053,7 +23025,7 @@
         <v/>
       </c>
       <c r="Z147" s="12" t="e">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="AA147" s="11">
@@ -23061,13 +23033,13 @@
         <v>0</v>
       </c>
       <c r="AB147" s="12">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="148" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A148" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
       <c r="B148" s="9">
@@ -23104,15 +23076,15 @@
         <v>7</v>
       </c>
       <c r="M148" s="6">
-        <f>IF(N148="","",K148-L148)</f>
+        <f t="shared" si="12"/>
         <v>30</v>
       </c>
       <c r="N148" s="7" t="str">
-        <f>IF(OR(K148="",L148=""),"",IF(K148=L148,"T",IF(K148&lt;L148,"L","W")))</f>
+        <f t="shared" si="13"/>
         <v>W</v>
       </c>
       <c r="O148" s="15" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="15"/>
         <v>(8-4)</v>
       </c>
       <c r="P148" s="5">
@@ -23156,7 +23128,7 @@
         <v>1</v>
       </c>
       <c r="Z148" s="12">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="AA148" s="11" t="str">
@@ -23164,13 +23136,13 @@
         <v/>
       </c>
       <c r="AB148" s="12" t="e">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="149" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A149" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="B149" s="9">
@@ -23207,15 +23179,15 @@
         <v>23</v>
       </c>
       <c r="M149" s="6">
-        <f>IF(N149="","",K149-L149)</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="N149" s="7" t="str">
-        <f>IF(OR(K149="",L149=""),"",IF(K149=L149,"T",IF(K149&lt;L149,"L","W")))</f>
+        <f t="shared" si="13"/>
         <v>W</v>
       </c>
       <c r="O149" s="15" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="15"/>
         <v>(9-4)</v>
       </c>
       <c r="P149" s="5">
@@ -23259,7 +23231,7 @@
         <v/>
       </c>
       <c r="Z149" s="12" t="e">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="AA149" s="11">
@@ -23267,13 +23239,13 @@
         <v>1</v>
       </c>
       <c r="AB149" s="12">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="150" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A150" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
       <c r="B150" s="9">
@@ -23310,15 +23282,15 @@
         <v>10</v>
       </c>
       <c r="M150" s="6">
-        <f>IF(N150="","",K150-L150)</f>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="N150" s="7" t="str">
-        <f>IF(OR(K150="",L150=""),"",IF(K150=L150,"T",IF(K150&lt;L150,"L","W")))</f>
+        <f t="shared" si="13"/>
         <v>W</v>
       </c>
       <c r="O150" s="15" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="15"/>
         <v>(10-4)</v>
       </c>
       <c r="P150" s="5">
@@ -23362,7 +23334,7 @@
         <v>1</v>
       </c>
       <c r="Z150" s="12">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0.7142857142857143</v>
       </c>
       <c r="AA150" s="11" t="str">
@@ -23370,13 +23342,13 @@
         <v/>
       </c>
       <c r="AB150" s="12" t="e">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="151" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A151" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="B151" s="9">
@@ -23413,15 +23385,15 @@
         <v>23</v>
       </c>
       <c r="M151" s="6">
-        <f>IF(N151="","",K151-L151)</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="N151" s="7" t="str">
-        <f>IF(OR(K151="",L151=""),"",IF(K151=L151,"T",IF(K151&lt;L151,"L","W")))</f>
+        <f t="shared" si="13"/>
         <v>W</v>
       </c>
       <c r="O151" s="15" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="15"/>
         <v>(11-4)</v>
       </c>
       <c r="P151" s="5">
@@ -23465,7 +23437,7 @@
         <v/>
       </c>
       <c r="Z151" s="12" t="e">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="AA151" s="11">
@@ -23473,13 +23445,13 @@
         <v>1</v>
       </c>
       <c r="AB151" s="12">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v>0.75</v>
       </c>
     </row>
     <row r="152" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A152" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="B152" s="9">
@@ -23516,15 +23488,15 @@
         <v>19</v>
       </c>
       <c r="M152" s="6">
-        <f>IF(N152="","",K152-L152)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N152" s="7" t="str">
-        <f>IF(OR(K152="",L152=""),"",IF(K152=L152,"T",IF(K152&lt;L152,"L","W")))</f>
+        <f t="shared" si="13"/>
         <v>W</v>
       </c>
       <c r="O152" s="15" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="15"/>
         <v>(12-4)</v>
       </c>
       <c r="P152" s="5">
@@ -23568,7 +23540,7 @@
         <v/>
       </c>
       <c r="Z152" s="12" t="e">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="AA152" s="11">
@@ -23576,13 +23548,13 @@
         <v>1</v>
       </c>
       <c r="AB152" s="12">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v>0.77777777777777779</v>
       </c>
     </row>
     <row r="153" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A153" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>18</v>
       </c>
       <c r="B153" s="9">
@@ -23619,15 +23591,15 @@
         <v>27</v>
       </c>
       <c r="M153" s="6">
-        <f>IF(N153="","",K153-L153)</f>
+        <f t="shared" si="12"/>
         <v>-3</v>
       </c>
       <c r="N153" s="7" t="str">
-        <f>IF(OR(K153="",L153=""),"",IF(K153=L153,"T",IF(K153&lt;L153,"L","W")))</f>
+        <f t="shared" si="13"/>
         <v>L</v>
       </c>
       <c r="O153" s="15" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="15"/>
         <v>(12-5)</v>
       </c>
       <c r="P153" s="5">
@@ -23671,7 +23643,7 @@
         <v>0</v>
       </c>
       <c r="Z153" s="12">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0.625</v>
       </c>
       <c r="AA153" s="11" t="str">
@@ -23679,13 +23651,13 @@
         <v/>
       </c>
       <c r="AB153" s="12" t="e">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="154" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A154" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="B154" s="9">
@@ -23710,15 +23682,15 @@
         <v>11</v>
       </c>
       <c r="M154" s="6">
-        <f>IF(N154="","",K154-L154)</f>
+        <f t="shared" si="12"/>
         <v>23</v>
       </c>
       <c r="N154" s="7" t="str">
-        <f>IF(OR(K154="",L154=""),"",IF(K154=L154,"T",IF(K154&lt;L154,"L","W")))</f>
+        <f t="shared" si="13"/>
         <v>W</v>
       </c>
       <c r="O154" s="15" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="15"/>
         <v>(1-0)</v>
       </c>
       <c r="P154" s="5">
@@ -23762,7 +23734,7 @@
         <v>1</v>
       </c>
       <c r="Z154" s="12">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="AA154" s="11" t="str">
@@ -23770,13 +23742,13 @@
         <v/>
       </c>
       <c r="AB154" s="12" t="e">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="155" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A155" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="B155" s="9">
@@ -23801,15 +23773,15 @@
         <v>27</v>
       </c>
       <c r="M155" s="6">
-        <f>IF(N155="","",K155-L155)</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="N155" s="7" t="str">
-        <f>IF(OR(K155="",L155=""),"",IF(K155=L155,"T",IF(K155&lt;L155,"L","W")))</f>
+        <f t="shared" si="13"/>
         <v>W</v>
       </c>
       <c r="O155" s="15" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="15"/>
         <v>(2-0)</v>
       </c>
       <c r="P155" s="5">
@@ -23853,7 +23825,7 @@
         <v/>
       </c>
       <c r="Z155" s="12" t="e">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="AA155" s="11">
@@ -23861,13 +23833,13 @@
         <v>1</v>
       </c>
       <c r="AB155" s="12">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A156" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="B156" s="9">
@@ -23892,15 +23864,15 @@
         <v>17</v>
       </c>
       <c r="M156" s="6">
-        <f>IF(N156="","",K156-L156)</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="N156" s="7" t="str">
-        <f>IF(OR(K156="",L156=""),"",IF(K156=L156,"T",IF(K156&lt;L156,"L","W")))</f>
+        <f t="shared" si="13"/>
         <v>W</v>
       </c>
       <c r="O156" s="15" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="15"/>
         <v>(3-0)</v>
       </c>
       <c r="P156" s="5">
@@ -23944,7 +23916,7 @@
         <v>1</v>
       </c>
       <c r="Z156" s="12">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="AA156" s="11" t="str">
@@ -23952,13 +23924,13 @@
         <v/>
       </c>
       <c r="AB156" s="12" t="e">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="157" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A157" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="B157" s="9">
@@ -23983,15 +23955,15 @@
         <v>20</v>
       </c>
       <c r="M157" s="6">
-        <f>IF(N157="","",K157-L157)</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="N157" s="7" t="str">
-        <f>IF(OR(K157="",L157=""),"",IF(K157=L157,"T",IF(K157&lt;L157,"L","W")))</f>
+        <f t="shared" si="13"/>
         <v>W</v>
       </c>
       <c r="O157" s="15" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="15"/>
         <v>(4-0)</v>
       </c>
       <c r="P157" s="5">
@@ -24035,7 +24007,7 @@
         <v>1</v>
       </c>
       <c r="Z157" s="12">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="AA157" s="11" t="str">
@@ -24043,13 +24015,13 @@
         <v/>
       </c>
       <c r="AB157" s="12" t="e">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="158" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A158" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="B158" s="9">
@@ -24065,15 +24037,15 @@
         <v>17</v>
       </c>
       <c r="M158" s="6" t="str">
-        <f>IF(N158="","",K158-L158)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N158" s="7" t="str">
-        <f>IF(OR(K158="",L158=""),"",IF(K158=L158,"T",IF(K158&lt;L158,"L","W")))</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O158" s="15" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="P158" s="5" t="str">
@@ -24117,7 +24089,7 @@
         <v/>
       </c>
       <c r="Z158" s="12" t="e">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="AA158" s="11" t="str">
@@ -24125,13 +24097,13 @@
         <v/>
       </c>
       <c r="AB158" s="12" t="e">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="159" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A159" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="B159" s="9">
@@ -24156,15 +24128,15 @@
         <v>22</v>
       </c>
       <c r="M159" s="6">
-        <f>IF(N159="","",K159-L159)</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="N159" s="7" t="str">
-        <f>IF(OR(K159="",L159=""),"",IF(K159=L159,"T",IF(K159&lt;L159,"L","W")))</f>
+        <f t="shared" si="13"/>
         <v>W</v>
       </c>
       <c r="O159" s="15" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="15"/>
         <v>(1-0)</v>
       </c>
       <c r="P159" s="5">
@@ -24208,7 +24180,7 @@
         <v/>
       </c>
       <c r="Z159" s="12" t="e">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="AA159" s="11">
@@ -24216,13 +24188,13 @@
         <v>1</v>
       </c>
       <c r="AB159" s="12">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A160" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="B160" s="9">
@@ -24247,15 +24219,15 @@
         <v>24</v>
       </c>
       <c r="M160" s="6">
-        <f>IF(N160="","",K160-L160)</f>
+        <f t="shared" si="12"/>
         <v>-4</v>
       </c>
       <c r="N160" s="7" t="str">
-        <f>IF(OR(K160="",L160=""),"",IF(K160=L160,"T",IF(K160&lt;L160,"L","W")))</f>
+        <f t="shared" si="13"/>
         <v>L</v>
       </c>
       <c r="O160" s="15" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="15"/>
         <v>(1-1)</v>
       </c>
       <c r="P160" s="5">
@@ -24299,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="Z160" s="12">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="AA160" s="11" t="str">
@@ -24307,13 +24279,13 @@
         <v/>
       </c>
       <c r="AB160" s="12" t="e">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="161" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A161" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="B161" s="9">
@@ -24338,15 +24310,15 @@
         <v>16</v>
       </c>
       <c r="M161" s="6">
-        <f>IF(N161="","",K161-L161)</f>
+        <f t="shared" si="12"/>
         <v>-9</v>
       </c>
       <c r="N161" s="7" t="str">
-        <f>IF(OR(K161="",L161=""),"",IF(K161=L161,"T",IF(K161&lt;L161,"L","W")))</f>
+        <f t="shared" si="13"/>
         <v>L</v>
       </c>
       <c r="O161" s="15" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="15"/>
         <v>(1-2)</v>
       </c>
       <c r="P161" s="5">
@@ -24390,7 +24362,7 @@
         <v/>
       </c>
       <c r="Z161" s="12" t="e">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="AA161" s="11">
@@ -24398,13 +24370,13 @@
         <v>0</v>
       </c>
       <c r="AB161" s="12">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="162" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A162" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="B162" s="9">
@@ -24441,15 +24413,15 @@
         <v>31</v>
       </c>
       <c r="M162" s="6">
-        <f>IF(N162="","",K162-L162)</f>
+        <f t="shared" si="12"/>
         <v>-21</v>
       </c>
       <c r="N162" s="7" t="str">
-        <f>IF(OR(K162="",L162=""),"",IF(K162=L162,"T",IF(K162&lt;L162,"L","W")))</f>
+        <f t="shared" si="13"/>
         <v>L</v>
       </c>
       <c r="O162" s="15" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="15"/>
         <v>(0-1)</v>
       </c>
       <c r="P162" s="5">
@@ -24493,7 +24465,7 @@
         <v>0</v>
       </c>
       <c r="Z162" s="12">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="AA162" s="11" t="str">
@@ -24501,13 +24473,13 @@
         <v/>
       </c>
       <c r="AB162" s="12" t="e">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="163" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A163" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="B163" s="9">
@@ -24544,15 +24516,15 @@
         <v>27</v>
       </c>
       <c r="M163" s="6">
-        <f>IF(N163="","",K163-L163)</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="N163" s="7" t="str">
-        <f>IF(OR(K163="",L163=""),"",IF(K163=L163,"T",IF(K163&lt;L163,"L","W")))</f>
+        <f t="shared" si="13"/>
         <v>W</v>
       </c>
       <c r="O163" s="15" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="15"/>
         <v>(1-1)</v>
       </c>
       <c r="P163" s="5">
@@ -24596,7 +24568,7 @@
         <v>1</v>
       </c>
       <c r="Z163" s="12">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0.5</v>
       </c>
       <c r="AA163" s="11" t="str">
@@ -24604,13 +24576,13 @@
         <v/>
       </c>
       <c r="AB163" s="12" t="e">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="164" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A164" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="B164" s="9">
@@ -24647,15 +24619,15 @@
         <v>12</v>
       </c>
       <c r="M164" s="6">
-        <f>IF(N164="","",K164-L164)</f>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="N164" s="7" t="str">
-        <f>IF(OR(K164="",L164=""),"",IF(K164=L164,"T",IF(K164&lt;L164,"L","W")))</f>
+        <f t="shared" si="13"/>
         <v>W</v>
       </c>
       <c r="O164" s="15" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="15"/>
         <v>(2-1)</v>
       </c>
       <c r="P164" s="5">
@@ -24699,7 +24671,7 @@
         <v/>
       </c>
       <c r="Z164" s="12" t="e">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="AA164" s="11">
@@ -24707,13 +24679,13 @@
         <v>1</v>
       </c>
       <c r="AB164" s="12">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A165" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="B165" s="9">
@@ -24750,15 +24722,15 @@
         <v>24</v>
       </c>
       <c r="M165" s="6">
-        <f>IF(N165="","",K165-L165)</f>
+        <f t="shared" si="12"/>
         <v>-15</v>
       </c>
       <c r="N165" s="7" t="str">
-        <f>IF(OR(K165="",L165=""),"",IF(K165=L165,"T",IF(K165&lt;L165,"L","W")))</f>
+        <f t="shared" si="13"/>
         <v>L</v>
       </c>
       <c r="O165" s="15" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="15"/>
         <v>(2-2)</v>
       </c>
       <c r="P165" s="5">
@@ -24802,7 +24774,7 @@
         <v/>
       </c>
       <c r="Z165" s="12" t="e">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="AA165" s="11">
@@ -24810,13 +24782,13 @@
         <v>0</v>
       </c>
       <c r="AB165" s="12">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="166" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A166" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="B166" s="9">
@@ -24853,15 +24825,15 @@
         <v>22</v>
       </c>
       <c r="M166" s="6">
-        <f>IF(N166="","",K166-L166)</f>
+        <f t="shared" si="12"/>
         <v>-12</v>
       </c>
       <c r="N166" s="7" t="str">
-        <f>IF(OR(K166="",L166=""),"",IF(K166=L166,"T",IF(K166&lt;L166,"L","W")))</f>
+        <f t="shared" si="13"/>
         <v>L</v>
       </c>
       <c r="O166" s="15" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="15"/>
         <v>(2-3)</v>
       </c>
       <c r="P166" s="5">
@@ -24905,7 +24877,7 @@
         <v>0</v>
       </c>
       <c r="Z166" s="12">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="AA166" s="11" t="str">
@@ -24913,13 +24885,13 @@
         <v/>
       </c>
       <c r="AB166" s="12" t="e">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="167" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A167" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="B167" s="9">
@@ -24956,15 +24928,15 @@
         <v>10</v>
       </c>
       <c r="M167" s="6">
-        <f>IF(N167="","",K167-L167)</f>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="N167" s="7" t="str">
-        <f>IF(OR(K167="",L167=""),"",IF(K167=L167,"T",IF(K167&lt;L167,"L","W")))</f>
+        <f t="shared" si="13"/>
         <v>W</v>
       </c>
       <c r="O167" s="15" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="15"/>
         <v>(3-3)</v>
       </c>
       <c r="P167" s="5">
@@ -25008,7 +24980,7 @@
         <v>1</v>
       </c>
       <c r="Z167" s="12">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0.5</v>
       </c>
       <c r="AA167" s="11" t="str">
@@ -25016,13 +24988,13 @@
         <v/>
       </c>
       <c r="AB167" s="12" t="e">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="168" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A168" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="B168" s="9">
@@ -25038,15 +25010,15 @@
         <v>17</v>
       </c>
       <c r="M168" s="6" t="str">
-        <f>IF(N168="","",K168-L168)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N168" s="7" t="str">
-        <f>IF(OR(K168="",L168=""),"",IF(K168=L168,"T",IF(K168&lt;L168,"L","W")))</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O168" s="15" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="P168" s="5" t="str">
@@ -25090,7 +25062,7 @@
         <v/>
       </c>
       <c r="Z168" s="12" t="e">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="AA168" s="11" t="str">
@@ -25098,13 +25070,13 @@
         <v/>
       </c>
       <c r="AB168" s="12" t="e">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="169" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A169" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="B169" s="9">
@@ -25141,15 +25113,15 @@
         <v>31</v>
       </c>
       <c r="M169" s="6">
-        <f>IF(N169="","",K169-L169)</f>
+        <f t="shared" si="12"/>
         <v>-17</v>
       </c>
       <c r="N169" s="7" t="str">
-        <f>IF(OR(K169="",L169=""),"",IF(K169=L169,"T",IF(K169&lt;L169,"L","W")))</f>
+        <f t="shared" si="13"/>
         <v>L</v>
       </c>
       <c r="O169" s="15" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="15"/>
         <v>(3-4)</v>
       </c>
       <c r="P169" s="5">
@@ -25193,7 +25165,7 @@
         <v>0</v>
       </c>
       <c r="Z169" s="12">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0.4</v>
       </c>
       <c r="AA169" s="11" t="str">
@@ -25201,13 +25173,13 @@
         <v/>
       </c>
       <c r="AB169" s="12" t="e">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="170" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A170" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="B170" s="9">
@@ -25244,15 +25216,15 @@
         <v>16</v>
       </c>
       <c r="M170" s="6">
-        <f>IF(N170="","",K170-L170)</f>
+        <f t="shared" si="12"/>
         <v>-3</v>
       </c>
       <c r="N170" s="7" t="str">
-        <f>IF(OR(K170="",L170=""),"",IF(K170=L170,"T",IF(K170&lt;L170,"L","W")))</f>
+        <f t="shared" si="13"/>
         <v>L</v>
       </c>
       <c r="O170" s="15" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="15"/>
         <v>(3-5)</v>
       </c>
       <c r="P170" s="5">
@@ -25296,7 +25268,7 @@
         <v/>
       </c>
       <c r="Z170" s="12" t="e">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="AA170" s="11">
@@ -25304,13 +25276,13 @@
         <v>0</v>
       </c>
       <c r="AB170" s="12">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="171" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A171" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="B171" s="9">
@@ -25347,15 +25319,15 @@
         <v>27</v>
       </c>
       <c r="M171" s="6">
-        <f>IF(N171="","",K171-L171)</f>
+        <f t="shared" si="12"/>
         <v>-10</v>
       </c>
       <c r="N171" s="7" t="str">
-        <f>IF(OR(K171="",L171=""),"",IF(K171=L171,"T",IF(K171&lt;L171,"L","W")))</f>
+        <f t="shared" si="13"/>
         <v>L</v>
       </c>
       <c r="O171" s="15" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="15"/>
         <v>(3-6)</v>
       </c>
       <c r="P171" s="5">
@@ -25399,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="Z171" s="12">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="AA171" s="11" t="str">
@@ -25407,13 +25379,13 @@
         <v/>
       </c>
       <c r="AB171" s="12" t="e">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="172" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A172" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
       <c r="B172" s="9">
@@ -25450,15 +25422,15 @@
         <v>27</v>
       </c>
       <c r="M172" s="6">
-        <f>IF(N172="","",K172-L172)</f>
+        <f t="shared" si="12"/>
         <v>-7</v>
       </c>
       <c r="N172" s="7" t="str">
-        <f>IF(OR(K172="",L172=""),"",IF(K172=L172,"T",IF(K172&lt;L172,"L","W")))</f>
+        <f t="shared" si="13"/>
         <v>L</v>
       </c>
       <c r="O172" s="15" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="15"/>
         <v>(3-7)</v>
       </c>
       <c r="P172" s="5">
@@ -25502,7 +25474,7 @@
         <v/>
       </c>
       <c r="Z172" s="12" t="e">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="AA172" s="11">
@@ -25510,13 +25482,13 @@
         <v>0</v>
       </c>
       <c r="AB172" s="12">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="173" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A173" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
       <c r="B173" s="9">
@@ -25553,15 +25525,15 @@
         <v>26</v>
       </c>
       <c r="M173" s="6">
-        <f>IF(N173="","",K173-L173)</f>
+        <f t="shared" si="12"/>
         <v>-16</v>
       </c>
       <c r="N173" s="7" t="str">
-        <f>IF(OR(K173="",L173=""),"",IF(K173=L173,"T",IF(K173&lt;L173,"L","W")))</f>
+        <f t="shared" si="13"/>
         <v>L</v>
       </c>
       <c r="O173" s="15" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="15"/>
         <v>(3-8)</v>
       </c>
       <c r="P173" s="5">
@@ -25605,7 +25577,7 @@
         <v/>
       </c>
       <c r="Z173" s="12" t="e">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="AA173" s="11">
@@ -25613,13 +25585,13 @@
         <v>0</v>
       </c>
       <c r="AB173" s="12">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v>0.2</v>
       </c>
     </row>
     <row r="174" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A174" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
       <c r="B174" s="9">
@@ -25656,15 +25628,15 @@
         <v>27</v>
       </c>
       <c r="M174" s="6">
-        <f>IF(N174="","",K174-L174)</f>
+        <f t="shared" si="12"/>
         <v>-4</v>
       </c>
       <c r="N174" s="7" t="str">
-        <f>IF(OR(K174="",L174=""),"",IF(K174=L174,"T",IF(K174&lt;L174,"L","W")))</f>
+        <f t="shared" si="13"/>
         <v>L</v>
       </c>
       <c r="O174" s="15" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="15"/>
         <v>(3-9)</v>
       </c>
       <c r="P174" s="5">
@@ -25708,7 +25680,7 @@
         <v>0</v>
       </c>
       <c r="Z174" s="12">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="AA174" s="11" t="str">
@@ -25716,13 +25688,13 @@
         <v/>
       </c>
       <c r="AB174" s="12" t="e">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="175" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A175" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="B175" s="9">
@@ -25759,15 +25731,15 @@
         <v>16</v>
       </c>
       <c r="M175" s="6">
-        <f>IF(N175="","",K175-L175)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N175" s="7" t="str">
-        <f>IF(OR(K175="",L175=""),"",IF(K175=L175,"T",IF(K175&lt;L175,"L","W")))</f>
+        <f t="shared" si="13"/>
         <v>W</v>
       </c>
       <c r="O175" s="15" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="15"/>
         <v>(4-9)</v>
       </c>
       <c r="P175" s="5">
@@ -25811,7 +25783,7 @@
         <v>1</v>
       </c>
       <c r="Z175" s="12">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0.375</v>
       </c>
       <c r="AA175" s="11" t="str">
@@ -25819,13 +25791,13 @@
         <v/>
       </c>
       <c r="AB175" s="12" t="e">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="176" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A176" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
       <c r="B176" s="9">
@@ -25862,15 +25834,15 @@
         <v>24</v>
       </c>
       <c r="M176" s="6">
-        <f>IF(N176="","",K176-L176)</f>
+        <f t="shared" si="12"/>
         <v>-12</v>
       </c>
       <c r="N176" s="7" t="str">
-        <f>IF(OR(K176="",L176=""),"",IF(K176=L176,"T",IF(K176&lt;L176,"L","W")))</f>
+        <f t="shared" si="13"/>
         <v>L</v>
       </c>
       <c r="O176" s="15" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="15"/>
         <v>(4-10)</v>
       </c>
       <c r="P176" s="5">
@@ -25914,7 +25886,7 @@
         <v/>
       </c>
       <c r="Z176" s="12" t="e">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="AA176" s="11">
@@ -25922,13 +25894,13 @@
         <v>0</v>
       </c>
       <c r="AB176" s="12">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="177" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A177" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="B177" s="9">
@@ -25965,15 +25937,15 @@
         <v>14</v>
       </c>
       <c r="M177" s="6">
-        <f>IF(N177="","",K177-L177)</f>
+        <f t="shared" si="12"/>
         <v>37</v>
       </c>
       <c r="N177" s="7" t="str">
-        <f>IF(OR(K177="",L177=""),"",IF(K177=L177,"T",IF(K177&lt;L177,"L","W")))</f>
+        <f t="shared" si="13"/>
         <v>W</v>
       </c>
       <c r="O177" s="15" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="15"/>
         <v>(5-10)</v>
       </c>
       <c r="P177" s="5">
@@ -26017,7 +25989,7 @@
         <v>1</v>
       </c>
       <c r="Z177" s="12">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0.44444444444444442</v>
       </c>
       <c r="AA177" s="11" t="str">
@@ -26025,13 +25997,13 @@
         <v/>
       </c>
       <c r="AB177" s="12" t="e">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="178" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A178" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="B178" s="9">
@@ -26068,15 +26040,15 @@
         <v>31</v>
       </c>
       <c r="M178" s="6">
-        <f>IF(N178="","",K178-L178)</f>
+        <f t="shared" si="12"/>
         <v>-21</v>
       </c>
       <c r="N178" s="7" t="str">
-        <f>IF(OR(K178="",L178=""),"",IF(K178=L178,"T",IF(K178&lt;L178,"L","W")))</f>
+        <f t="shared" si="13"/>
         <v>L</v>
       </c>
       <c r="O178" s="15" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="15"/>
         <v>(5-11)</v>
       </c>
       <c r="P178" s="5">
@@ -26120,7 +26092,7 @@
         <v/>
       </c>
       <c r="Z178" s="12" t="e">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="AA178" s="11">
@@ -26128,13 +26100,13 @@
         <v>0</v>
       </c>
       <c r="AB178" s="12">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="179" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A179" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>18</v>
       </c>
       <c r="B179" s="9">
@@ -26171,15 +26143,15 @@
         <v>19</v>
       </c>
       <c r="M179" s="6">
-        <f>IF(N179="","",K179-L179)</f>
+        <f t="shared" si="12"/>
         <v>-3</v>
       </c>
       <c r="N179" s="7" t="str">
-        <f>IF(OR(K179="",L179=""),"",IF(K179=L179,"T",IF(K179&lt;L179,"L","W")))</f>
+        <f t="shared" si="13"/>
         <v>L</v>
       </c>
       <c r="O179" s="15" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="15"/>
         <v>(5-12)</v>
       </c>
       <c r="P179" s="5">
@@ -26223,7 +26195,7 @@
         <v/>
       </c>
       <c r="Z179" s="12" t="e">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="AA179" s="11">
@@ -26231,13 +26203,13 @@
         <v>0</v>
       </c>
       <c r="AB179" s="12">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v>0.125</v>
       </c>
     </row>
     <row r="180" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A180" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="B180" s="9">
@@ -26253,15 +26225,15 @@
         <v>16</v>
       </c>
       <c r="M180" s="6" t="str">
-        <f>IF(N180="","",K180-L180)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N180" s="7" t="str">
-        <f>IF(OR(K180="",L180=""),"",IF(K180=L180,"T",IF(K180&lt;L180,"L","W")))</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O180" s="15" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="P180" s="5" t="str">
@@ -26305,7 +26277,7 @@
         <v/>
       </c>
       <c r="Z180" s="12" t="e">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="AA180" s="11" t="str">
@@ -26313,13 +26285,13 @@
         <v/>
       </c>
       <c r="AB180" s="12" t="e">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="181" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A181" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="B181" s="9">
@@ -26335,15 +26307,15 @@
         <v>16</v>
       </c>
       <c r="M181" s="6" t="str">
-        <f>IF(N181="","",K181-L181)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N181" s="7" t="str">
-        <f>IF(OR(K181="",L181=""),"",IF(K181=L181,"T",IF(K181&lt;L181,"L","W")))</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O181" s="15" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="P181" s="5" t="str">
@@ -26387,7 +26359,7 @@
         <v/>
       </c>
       <c r="Z181" s="12" t="e">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="AA181" s="11" t="str">
@@ -26395,13 +26367,13 @@
         <v/>
       </c>
       <c r="AB181" s="12" t="e">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="182" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A182" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="B182" s="9">
@@ -26417,15 +26389,15 @@
         <v>16</v>
       </c>
       <c r="M182" s="6" t="str">
-        <f>IF(N182="","",K182-L182)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N182" s="7" t="str">
-        <f>IF(OR(K182="",L182=""),"",IF(K182=L182,"T",IF(K182&lt;L182,"L","W")))</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O182" s="15" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="P182" s="5" t="str">
@@ -26469,7 +26441,7 @@
         <v/>
       </c>
       <c r="Z182" s="12" t="e">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="AA182" s="11" t="str">
@@ -26477,13 +26449,13 @@
         <v/>
       </c>
       <c r="AB182" s="12" t="e">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="183" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A183" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="B183" s="9">
@@ -26499,15 +26471,15 @@
         <v>16</v>
       </c>
       <c r="M183" s="6" t="str">
-        <f>IF(N183="","",K183-L183)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N183" s="7" t="str">
-        <f>IF(OR(K183="",L183=""),"",IF(K183=L183,"T",IF(K183&lt;L183,"L","W")))</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O183" s="15" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="P183" s="5" t="str">
@@ -26551,7 +26523,7 @@
         <v/>
       </c>
       <c r="Z183" s="12" t="e">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="AA183" s="11" t="str">
@@ -26559,13 +26531,13 @@
         <v/>
       </c>
       <c r="AB183" s="12" t="e">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="184" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A184" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="B184" s="9">
@@ -26581,15 +26553,15 @@
         <v>17</v>
       </c>
       <c r="M184" s="6" t="str">
-        <f>IF(N184="","",K184-L184)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N184" s="7" t="str">
-        <f>IF(OR(K184="",L184=""),"",IF(K184=L184,"T",IF(K184&lt;L184,"L","W")))</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O184" s="15" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="P184" s="5" t="str">
@@ -26633,7 +26605,7 @@
         <v/>
       </c>
       <c r="Z184" s="12" t="e">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="AA184" s="11" t="str">
@@ -26641,13 +26613,13 @@
         <v/>
       </c>
       <c r="AB184" s="12" t="e">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="185" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A185" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="B185" s="9">
@@ -26672,15 +26644,15 @@
         <v>34</v>
       </c>
       <c r="M185" s="6">
-        <f>IF(N185="","",K185-L185)</f>
+        <f t="shared" si="12"/>
         <v>-17</v>
       </c>
       <c r="N185" s="7" t="str">
-        <f>IF(OR(K185="",L185=""),"",IF(K185=L185,"T",IF(K185&lt;L185,"L","W")))</f>
+        <f t="shared" si="13"/>
         <v>L</v>
       </c>
       <c r="O185" s="15" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="15"/>
         <v>(0-1)</v>
       </c>
       <c r="P185" s="5">
@@ -26724,7 +26696,7 @@
         <v>0</v>
       </c>
       <c r="Z185" s="12">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="AA185" s="11" t="str">
@@ -26732,13 +26704,13 @@
         <v/>
       </c>
       <c r="AB185" s="12" t="e">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="186" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A186" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="B186" s="9">
@@ -26763,15 +26735,15 @@
         <v>34</v>
       </c>
       <c r="M186" s="6">
-        <f>IF(N186="","",K186-L186)</f>
+        <f t="shared" si="12"/>
         <v>-17</v>
       </c>
       <c r="N186" s="7" t="str">
-        <f>IF(OR(K186="",L186=""),"",IF(K186=L186,"T",IF(K186&lt;L186,"L","W")))</f>
+        <f t="shared" si="13"/>
         <v>L</v>
       </c>
       <c r="O186" s="15" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="15"/>
         <v>(0-2)</v>
       </c>
       <c r="P186" s="5">
@@ -26815,7 +26787,7 @@
         <v>0</v>
       </c>
       <c r="Z186" s="12">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="AA186" s="11" t="str">
@@ -26823,13 +26795,13 @@
         <v/>
       </c>
       <c r="AB186" s="12" t="e">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="187" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A187" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="B187" s="9">
@@ -26854,15 +26826,15 @@
         <v>41</v>
       </c>
       <c r="M187" s="6">
-        <f>IF(N187="","",K187-L187)</f>
+        <f t="shared" si="12"/>
         <v>-41</v>
       </c>
       <c r="N187" s="7" t="str">
-        <f>IF(OR(K187="",L187=""),"",IF(K187=L187,"T",IF(K187&lt;L187,"L","W")))</f>
+        <f t="shared" si="13"/>
         <v>L</v>
       </c>
       <c r="O187" s="15" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="15"/>
         <v>(0-3)</v>
       </c>
       <c r="P187" s="5">
@@ -26906,7 +26878,7 @@
         <v/>
       </c>
       <c r="Z187" s="12" t="e">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="AA187" s="11">
@@ -26914,13 +26886,13 @@
         <v>0</v>
       </c>
       <c r="AB187" s="12">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A188" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="B188" s="9">
@@ -26957,15 +26929,15 @@
         <v>13</v>
       </c>
       <c r="M188" s="6">
-        <f>IF(N188="","",K188-L188)</f>
+        <f t="shared" si="12"/>
         <v>17</v>
       </c>
       <c r="N188" s="7" t="str">
-        <f>IF(OR(K188="",L188=""),"",IF(K188=L188,"T",IF(K188&lt;L188,"L","W")))</f>
+        <f t="shared" si="13"/>
         <v>W</v>
       </c>
       <c r="O188" s="15" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="15"/>
         <v>(1-0)</v>
       </c>
       <c r="P188" s="5">
@@ -27009,7 +26981,7 @@
         <v/>
       </c>
       <c r="Z188" s="12" t="e">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="AA188" s="11">
@@ -27017,13 +26989,13 @@
         <v>1</v>
       </c>
       <c r="AB188" s="12">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A189" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="B189" s="9">
@@ -27060,15 +27032,15 @@
         <v>30</v>
       </c>
       <c r="M189" s="6">
-        <f>IF(N189="","",K189-L189)</f>
+        <f t="shared" si="12"/>
         <v>-7</v>
       </c>
       <c r="N189" s="7" t="str">
-        <f>IF(OR(K189="",L189=""),"",IF(K189=L189,"T",IF(K189&lt;L189,"L","W")))</f>
+        <f t="shared" si="13"/>
         <v>L</v>
       </c>
       <c r="O189" s="15" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="15"/>
         <v>(1-1)</v>
       </c>
       <c r="P189" s="5">
@@ -27112,7 +27084,7 @@
         <v>0</v>
       </c>
       <c r="Z189" s="12">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="AA189" s="11" t="str">
@@ -27120,13 +27092,13 @@
         <v/>
       </c>
       <c r="AB189" s="12" t="e">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="190" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A190" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="B190" s="9">
@@ -27163,15 +27135,15 @@
         <v>19</v>
       </c>
       <c r="M190" s="6">
-        <f>IF(N190="","",K190-L190)</f>
+        <f t="shared" si="12"/>
         <v>-3</v>
       </c>
       <c r="N190" s="7" t="str">
-        <f>IF(OR(K190="",L190=""),"",IF(K190=L190,"T",IF(K190&lt;L190,"L","W")))</f>
+        <f t="shared" si="13"/>
         <v>L</v>
       </c>
       <c r="O190" s="15" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="15"/>
         <v>(1-2)</v>
       </c>
       <c r="P190" s="5">
@@ -27215,7 +27187,7 @@
         <v/>
       </c>
       <c r="Z190" s="12" t="e">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="AA190" s="11">
@@ -27223,13 +27195,13 @@
         <v>0</v>
       </c>
       <c r="AB190" s="12">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="191" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A191" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="B191" s="9">
@@ -27266,15 +27238,15 @@
         <v>23</v>
       </c>
       <c r="M191" s="6">
-        <f>IF(N191="","",K191-L191)</f>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="N191" s="7" t="str">
-        <f>IF(OR(K191="",L191=""),"",IF(K191=L191,"T",IF(K191&lt;L191,"L","W")))</f>
+        <f t="shared" si="13"/>
         <v>W</v>
       </c>
       <c r="O191" s="15" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="15"/>
         <v>(2-2)</v>
       </c>
       <c r="P191" s="5">
@@ -27318,7 +27290,7 @@
         <v/>
       </c>
       <c r="Z191" s="12" t="e">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="AA191" s="11">
@@ -27326,13 +27298,13 @@
         <v>1</v>
       </c>
       <c r="AB191" s="12">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="192" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A192" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="B192" s="9">
@@ -27369,15 +27341,15 @@
         <v>23</v>
       </c>
       <c r="M192" s="6">
-        <f>IF(N192="","",K192-L192)</f>
+        <f t="shared" si="12"/>
         <v>-9</v>
       </c>
       <c r="N192" s="7" t="str">
-        <f>IF(OR(K192="",L192=""),"",IF(K192=L192,"T",IF(K192&lt;L192,"L","W")))</f>
+        <f t="shared" si="13"/>
         <v>L</v>
       </c>
       <c r="O192" s="15" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="15"/>
         <v>(2-3)</v>
       </c>
       <c r="P192" s="5">
@@ -27421,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="Z192" s="12">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="AA192" s="11" t="str">
@@ -27429,13 +27401,13 @@
         <v/>
       </c>
       <c r="AB192" s="12" t="e">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="193" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A193" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="B193" s="9">
@@ -27472,15 +27444,15 @@
         <v>9</v>
       </c>
       <c r="M193" s="6">
-        <f>IF(N193="","",K193-L193)</f>
+        <f t="shared" si="12"/>
         <v>17</v>
       </c>
       <c r="N193" s="7" t="str">
-        <f>IF(OR(K193="",L193=""),"",IF(K193=L193,"T",IF(K193&lt;L193,"L","W")))</f>
+        <f t="shared" si="13"/>
         <v>W</v>
       </c>
       <c r="O193" s="15" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="15"/>
         <v>(3-3)</v>
       </c>
       <c r="P193" s="5">
@@ -27524,7 +27496,7 @@
         <v>1</v>
       </c>
       <c r="Z193" s="12">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="AA193" s="11" t="str">
@@ -27532,13 +27504,13 @@
         <v/>
       </c>
       <c r="AB193" s="12" t="e">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="194" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A194" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="B194" s="9">
@@ -27575,15 +27547,15 @@
         <v>24</v>
       </c>
       <c r="M194" s="6">
-        <f>IF(N194="","",K194-L194)</f>
+        <f t="shared" ref="M194:M209" si="18">IF(N194="","",K194-L194)</f>
         <v>-7</v>
       </c>
       <c r="N194" s="7" t="str">
-        <f>IF(OR(K194="",L194=""),"",IF(K194=L194,"T",IF(K194&lt;L194,"L","W")))</f>
+        <f t="shared" ref="N194:N209" si="19">IF(OR(K194="",L194=""),"",IF(K194=L194,"T",IF(K194&lt;L194,"L","W")))</f>
         <v>L</v>
       </c>
       <c r="O194" s="15" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="15"/>
         <v>(3-4)</v>
       </c>
       <c r="P194" s="5">
@@ -27627,7 +27599,7 @@
         <v>0</v>
       </c>
       <c r="Z194" s="12">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0.25</v>
       </c>
       <c r="AA194" s="11" t="str">
@@ -27635,13 +27607,13 @@
         <v/>
       </c>
       <c r="AB194" s="12" t="e">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="195" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A195" s="8">
-        <f t="shared" ref="A195:A209" si="12">IF(B195&amp;C195&lt;&gt;B194&amp;C194,1,A194+1)</f>
+        <f t="shared" ref="A195:A209" si="20">IF(B195&amp;C195&lt;&gt;B194&amp;C194,1,A194+1)</f>
         <v>8</v>
       </c>
       <c r="B195" s="9">
@@ -27678,15 +27650,15 @@
         <v>43</v>
       </c>
       <c r="M195" s="6">
-        <f>IF(N195="","",K195-L195)</f>
+        <f t="shared" si="18"/>
         <v>-23</v>
       </c>
       <c r="N195" s="7" t="str">
-        <f>IF(OR(K195="",L195=""),"",IF(K195=L195,"T",IF(K195&lt;L195,"L","W")))</f>
+        <f t="shared" si="19"/>
         <v>L</v>
       </c>
       <c r="O195" s="15" t="str">
-        <f t="shared" ref="O195:O209" ca="1" si="13">IF(OR(K195="",L195=""),"","("&amp;COUNTIF(OFFSET(N195,,,-$A195),"W")&amp;"-"&amp;COUNTIF(OFFSET(N195,,,-$A195),"L")&amp;IF(COUNTIF(OFFSET(N195,,,-$A195),"T")&gt;0,"-"&amp;COUNTIF(OFFSET(N195,,,-$A195),"T"),"")&amp;")")</f>
+        <f t="shared" ref="O195:O209" ca="1" si="21">IF(OR(K195="",L195=""),"","("&amp;COUNTIF(OFFSET(N195,,,-$A195),"W")&amp;"-"&amp;COUNTIF(OFFSET(N195,,,-$A195),"L")&amp;IF(COUNTIF(OFFSET(N195,,,-$A195),"T")&gt;0,"-"&amp;COUNTIF(OFFSET(N195,,,-$A195),"T"),"")&amp;")")</f>
         <v>(3-5)</v>
       </c>
       <c r="P195" s="5">
@@ -27730,7 +27702,7 @@
         <v/>
       </c>
       <c r="Z195" s="12" t="e">
-        <f t="shared" ref="Z195:Z209" ca="1" si="14">IF(Y195="",#N/A,SUM(OFFSET(Y195,,,-$A195))/COUNT(OFFSET(Y195,,,-$A195)))</f>
+        <f t="shared" ref="Z195:Z209" ca="1" si="22">IF(Y195="",#N/A,SUM(OFFSET(Y195,,,-$A195))/COUNT(OFFSET(Y195,,,-$A195)))</f>
         <v>#N/A</v>
       </c>
       <c r="AA195" s="11">
@@ -27738,13 +27710,13 @@
         <v>0</v>
       </c>
       <c r="AB195" s="12">
-        <f t="shared" ref="AB195:AB209" ca="1" si="15">IF(AA195="",#N/A,SUM(OFFSET(AA195,,,-$A195))/COUNT(OFFSET(AA195,,,-$A195)))</f>
+        <f t="shared" ref="AB195:AB209" ca="1" si="23">IF(AA195="",#N/A,SUM(OFFSET(AA195,,,-$A195))/COUNT(OFFSET(AA195,,,-$A195)))</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="196" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A196" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>9</v>
       </c>
       <c r="B196" s="9">
@@ -27781,15 +27753,15 @@
         <v>20</v>
       </c>
       <c r="M196" s="6">
-        <f>IF(N196="","",K196-L196)</f>
+        <f t="shared" si="18"/>
         <v>-17</v>
       </c>
       <c r="N196" s="7" t="str">
-        <f>IF(OR(K196="",L196=""),"",IF(K196=L196,"T",IF(K196&lt;L196,"L","W")))</f>
+        <f t="shared" si="19"/>
         <v>L</v>
       </c>
       <c r="O196" s="15" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="21"/>
         <v>(3-6)</v>
       </c>
       <c r="P196" s="5">
@@ -27833,7 +27805,7 @@
         <v/>
       </c>
       <c r="Z196" s="12" t="e">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="AA196" s="11">
@@ -27841,13 +27813,13 @@
         <v>0</v>
       </c>
       <c r="AB196" s="12">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0.4</v>
       </c>
     </row>
     <row r="197" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A197" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="B197" s="9">
@@ -27863,15 +27835,15 @@
         <v>17</v>
       </c>
       <c r="M197" s="6" t="str">
-        <f>IF(N197="","",K197-L197)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="N197" s="7" t="str">
-        <f>IF(OR(K197="",L197=""),"",IF(K197=L197,"T",IF(K197&lt;L197,"L","W")))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="O197" s="15" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="P197" s="5" t="str">
@@ -27915,7 +27887,7 @@
         <v/>
       </c>
       <c r="Z197" s="12" t="e">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="AA197" s="11" t="str">
@@ -27923,13 +27895,13 @@
         <v/>
       </c>
       <c r="AB197" s="12" t="e">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="23"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="198" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A198" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>11</v>
       </c>
       <c r="B198" s="9">
@@ -27966,15 +27938,15 @@
         <v>16</v>
       </c>
       <c r="M198" s="6">
-        <f>IF(N198="","",K198-L198)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="N198" s="7" t="str">
-        <f>IF(OR(K198="",L198=""),"",IF(K198=L198,"T",IF(K198&lt;L198,"L","W")))</f>
+        <f t="shared" si="19"/>
         <v>W</v>
       </c>
       <c r="O198" s="15" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="21"/>
         <v>(4-6)</v>
       </c>
       <c r="P198" s="5">
@@ -28018,7 +27990,7 @@
         <v>1</v>
       </c>
       <c r="Z198" s="12">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="22"/>
         <v>0.4</v>
       </c>
       <c r="AA198" s="11" t="str">
@@ -28026,13 +27998,13 @@
         <v/>
       </c>
       <c r="AB198" s="12" t="e">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="23"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="199" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A199" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>12</v>
       </c>
       <c r="B199" s="9">
@@ -28069,15 +28041,15 @@
         <v>14</v>
       </c>
       <c r="M199" s="6">
-        <f>IF(N199="","",K199-L199)</f>
+        <f t="shared" si="18"/>
         <v>23</v>
       </c>
       <c r="N199" s="7" t="str">
-        <f>IF(OR(K199="",L199=""),"",IF(K199=L199,"T",IF(K199&lt;L199,"L","W")))</f>
+        <f t="shared" si="19"/>
         <v>W</v>
       </c>
       <c r="O199" s="15" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="21"/>
         <v>(5-6)</v>
       </c>
       <c r="P199" s="5">
@@ -28121,7 +28093,7 @@
         <v/>
       </c>
       <c r="Z199" s="12" t="e">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="AA199" s="11">
@@ -28129,13 +28101,13 @@
         <v>1</v>
       </c>
       <c r="AB199" s="12">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="200" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A200" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>13</v>
       </c>
       <c r="B200" s="9">
@@ -28172,15 +28144,15 @@
         <v>19</v>
       </c>
       <c r="M200" s="6">
-        <f>IF(N200="","",K200-L200)</f>
+        <f t="shared" si="18"/>
         <v>17</v>
       </c>
       <c r="N200" s="7" t="str">
-        <f>IF(OR(K200="",L200=""),"",IF(K200=L200,"T",IF(K200&lt;L200,"L","W")))</f>
+        <f t="shared" si="19"/>
         <v>W</v>
       </c>
       <c r="O200" s="15" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="21"/>
         <v>(6-6)</v>
       </c>
       <c r="P200" s="5">
@@ -28224,7 +28196,7 @@
         <v>1</v>
       </c>
       <c r="Z200" s="12">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="22"/>
         <v>0.5</v>
       </c>
       <c r="AA200" s="11" t="str">
@@ -28232,13 +28204,13 @@
         <v/>
       </c>
       <c r="AB200" s="12" t="e">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="23"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="201" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A201" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>14</v>
       </c>
       <c r="B201" s="9">
@@ -28275,15 +28247,15 @@
         <v>37</v>
       </c>
       <c r="M201" s="6">
-        <f>IF(N201="","",K201-L201)</f>
+        <f t="shared" si="18"/>
         <v>-6</v>
       </c>
       <c r="N201" s="7" t="str">
-        <f>IF(OR(K201="",L201=""),"",IF(K201=L201,"T",IF(K201&lt;L201,"L","W")))</f>
+        <f t="shared" si="19"/>
         <v>L</v>
       </c>
       <c r="O201" s="15" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="21"/>
         <v>(6-7)</v>
       </c>
       <c r="P201" s="5">
@@ -28327,7 +28299,7 @@
         <v/>
       </c>
       <c r="Z201" s="12" t="e">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="AA201" s="11">
@@ -28335,13 +28307,13 @@
         <v>0</v>
       </c>
       <c r="AB201" s="12">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="202" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A202" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>15</v>
       </c>
       <c r="B202" s="9">
@@ -28372,15 +28344,15 @@
         <v>47</v>
       </c>
       <c r="M202" s="6" t="str">
-        <f>IF(N202="","",K202-L202)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="N202" s="7" t="str">
-        <f>IF(OR(K202="",L202=""),"",IF(K202=L202,"T",IF(K202&lt;L202,"L","W")))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="O202" s="15" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="P202" s="5" t="str">
@@ -28424,7 +28396,7 @@
         <v>#N/A</v>
       </c>
       <c r="Z202" s="12" t="e">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="AA202" s="11" t="e">
@@ -28432,13 +28404,13 @@
         <v>#N/A</v>
       </c>
       <c r="AB202" s="12" t="e">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="23"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="203" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A203" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>16</v>
       </c>
       <c r="B203" s="9">
@@ -28469,15 +28441,15 @@
         <v>48</v>
       </c>
       <c r="M203" s="6" t="str">
-        <f>IF(N203="","",K203-L203)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="N203" s="7" t="str">
-        <f>IF(OR(K203="",L203=""),"",IF(K203=L203,"T",IF(K203&lt;L203,"L","W")))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="O203" s="15" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="P203" s="5" t="str">
@@ -28521,7 +28493,7 @@
         <v>#N/A</v>
       </c>
       <c r="Z203" s="12" t="e">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="AA203" s="11" t="e">
@@ -28529,13 +28501,13 @@
         <v>#N/A</v>
       </c>
       <c r="AB203" s="12" t="e">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="23"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="204" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A204" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>17</v>
       </c>
       <c r="B204" s="9">
@@ -28566,15 +28538,15 @@
         <v>48</v>
       </c>
       <c r="M204" s="6" t="str">
-        <f>IF(N204="","",K204-L204)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="N204" s="7" t="str">
-        <f>IF(OR(K204="",L204=""),"",IF(K204=L204,"T",IF(K204&lt;L204,"L","W")))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="O204" s="15" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="P204" s="5" t="str">
@@ -28618,7 +28590,7 @@
         <v>#N/A</v>
       </c>
       <c r="Z204" s="12" t="e">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="AA204" s="11" t="e">
@@ -28626,13 +28598,13 @@
         <v>#N/A</v>
       </c>
       <c r="AB204" s="12" t="e">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="23"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="205" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A205" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>18</v>
       </c>
       <c r="B205" s="9">
@@ -28663,15 +28635,15 @@
         <v>49</v>
       </c>
       <c r="M205" s="6" t="str">
-        <f>IF(N205="","",K205-L205)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="N205" s="7" t="str">
-        <f>IF(OR(K205="",L205=""),"",IF(K205=L205,"T",IF(K205&lt;L205,"L","W")))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="O205" s="15" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="P205" s="5" t="str">
@@ -28715,7 +28687,7 @@
         <v>#N/A</v>
       </c>
       <c r="Z205" s="12" t="e">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="AA205" s="11" t="e">
@@ -28723,13 +28695,13 @@
         <v>#N/A</v>
       </c>
       <c r="AB205" s="12" t="e">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="23"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="206" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A206" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="B206" s="9">
@@ -28742,15 +28714,15 @@
         <v>66</v>
       </c>
       <c r="M206" s="6" t="str">
-        <f>IF(N206="","",K206-L206)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="N206" s="7" t="str">
-        <f>IF(OR(K206="",L206=""),"",IF(K206=L206,"T",IF(K206&lt;L206,"L","W")))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="O206" s="15" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="P206" s="5" t="str">
@@ -28794,7 +28766,7 @@
         <v>#N/A</v>
       </c>
       <c r="Z206" s="12" t="e">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="AA206" s="11" t="e">
@@ -28802,13 +28774,13 @@
         <v>#N/A</v>
       </c>
       <c r="AB206" s="12" t="e">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="23"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="207" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A207" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="B207" s="9">
@@ -28821,15 +28793,15 @@
         <v>67</v>
       </c>
       <c r="M207" s="6" t="str">
-        <f>IF(N207="","",K207-L207)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="N207" s="7" t="str">
-        <f>IF(OR(K207="",L207=""),"",IF(K207=L207,"T",IF(K207&lt;L207,"L","W")))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="O207" s="15" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="P207" s="5" t="str">
@@ -28873,7 +28845,7 @@
         <v>#N/A</v>
       </c>
       <c r="Z207" s="12" t="e">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="AA207" s="11" t="e">
@@ -28881,13 +28853,13 @@
         <v>#N/A</v>
       </c>
       <c r="AB207" s="12" t="e">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="23"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="208" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A208" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="B208" s="9">
@@ -28900,15 +28872,15 @@
         <v>68</v>
       </c>
       <c r="M208" s="6" t="str">
-        <f>IF(N208="","",K208-L208)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="N208" s="7" t="str">
-        <f>IF(OR(K208="",L208=""),"",IF(K208=L208,"T",IF(K208&lt;L208,"L","W")))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="O208" s="15" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="P208" s="5" t="str">
@@ -28952,7 +28924,7 @@
         <v>#N/A</v>
       </c>
       <c r="Z208" s="12" t="e">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="AA208" s="11" t="e">
@@ -28960,13 +28932,13 @@
         <v>#N/A</v>
       </c>
       <c r="AB208" s="12" t="e">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="23"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="209" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A209" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="B209" s="9">
@@ -28979,15 +28951,15 @@
         <v>69</v>
       </c>
       <c r="M209" s="6" t="str">
-        <f>IF(N209="","",K209-L209)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="N209" s="7" t="str">
-        <f>IF(OR(K209="",L209=""),"",IF(K209=L209,"T",IF(K209&lt;L209,"L","W")))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="O209" s="15" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="P209" s="5" t="str">
@@ -29031,7 +29003,7 @@
         <v>#N/A</v>
       </c>
       <c r="Z209" s="12" t="e">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="AA209" s="11" t="e">
@@ -29039,7 +29011,7 @@
         <v>#N/A</v>
       </c>
       <c r="AB209" s="12" t="e">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="23"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -29054,15 +29026,15 @@
         <v>72</v>
       </c>
       <c r="M210" s="6" t="str">
-        <f t="shared" ref="M210:M213" si="16">IF(N210="","",K210-L210)</f>
+        <f t="shared" ref="M210:M213" si="24">IF(N210="","",K210-L210)</f>
         <v/>
       </c>
       <c r="N210" s="7" t="str">
-        <f t="shared" ref="N210:N213" si="17">IF(OR(K210="",L210=""),"",IF(K210=L210,"T",IF(K210&lt;L210,"L","W")))</f>
+        <f t="shared" ref="N210:N213" si="25">IF(OR(K210="",L210=""),"",IF(K210=L210,"T",IF(K210&lt;L210,"L","W")))</f>
         <v/>
       </c>
       <c r="O210" s="15" t="str">
-        <f t="shared" ref="O210:O213" ca="1" si="18">IF(OR(K210="",L210=""),"","("&amp;COUNTIF(OFFSET(N210,,,-$A210),"W")&amp;"-"&amp;COUNTIF(OFFSET(N210,,,-$A210),"L")&amp;IF(COUNTIF(OFFSET(N210,,,-$A210),"T")&gt;0,"-"&amp;COUNTIF(OFFSET(N210,,,-$A210),"T"),"")&amp;")")</f>
+        <f t="shared" ref="O210:O213" ca="1" si="26">IF(OR(K210="",L210=""),"","("&amp;COUNTIF(OFFSET(N210,,,-$A210),"W")&amp;"-"&amp;COUNTIF(OFFSET(N210,,,-$A210),"L")&amp;IF(COUNTIF(OFFSET(N210,,,-$A210),"T")&gt;0,"-"&amp;COUNTIF(OFFSET(N210,,,-$A210),"T"),"")&amp;")")</f>
         <v/>
       </c>
       <c r="P210" s="5" t="str">
@@ -29106,7 +29078,7 @@
         <v>#N/A</v>
       </c>
       <c r="Z210" s="12" t="e">
-        <f t="shared" ref="Z210:Z213" ca="1" si="19">IF(Y210="",#N/A,SUM(OFFSET(Y210,,,-$A210))/COUNT(OFFSET(Y210,,,-$A210)))</f>
+        <f t="shared" ref="Z210:Z213" ca="1" si="27">IF(Y210="",#N/A,SUM(OFFSET(Y210,,,-$A210))/COUNT(OFFSET(Y210,,,-$A210)))</f>
         <v>#N/A</v>
       </c>
       <c r="AA210" s="11" t="e">
@@ -29114,7 +29086,7 @@
         <v>#N/A</v>
       </c>
       <c r="AB210" s="12" t="e">
-        <f t="shared" ref="AB210:AB213" ca="1" si="20">IF(AA210="",#N/A,SUM(OFFSET(AA210,,,-$A210))/COUNT(OFFSET(AA210,,,-$A210)))</f>
+        <f t="shared" ref="AB210:AB213" ca="1" si="28">IF(AA210="",#N/A,SUM(OFFSET(AA210,,,-$A210))/COUNT(OFFSET(AA210,,,-$A210)))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -29129,15 +29101,15 @@
         <v>1</v>
       </c>
       <c r="M211" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="N211" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="O211" s="15" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="P211" s="5" t="str">
@@ -29181,7 +29153,7 @@
         <v>#N/A</v>
       </c>
       <c r="Z211" s="12" t="e">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="AA211" s="11" t="e">
@@ -29189,7 +29161,7 @@
         <v>#N/A</v>
       </c>
       <c r="AB211" s="12" t="e">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="28"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -29204,15 +29176,15 @@
         <v>2</v>
       </c>
       <c r="M212" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="N212" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="O212" s="15" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="P212" s="5" t="str">
@@ -29256,7 +29228,7 @@
         <v>#N/A</v>
       </c>
       <c r="Z212" s="12" t="e">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="AA212" s="11" t="e">
@@ -29264,7 +29236,7 @@
         <v>#N/A</v>
       </c>
       <c r="AB212" s="12" t="e">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="28"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -29279,15 +29251,15 @@
         <v>3</v>
       </c>
       <c r="M213" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="N213" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="O213" s="15" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="P213" s="5" t="str">
@@ -29331,7 +29303,7 @@
         <v>#N/A</v>
       </c>
       <c r="Z213" s="12" t="e">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="AA213" s="11" t="e">
@@ -29339,75 +29311,75 @@
         <v>#N/A</v>
       </c>
       <c r="AB213" s="12" t="e">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="28"/>
         <v>#N/A</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:J1048576">
-    <cfRule type="expression" dxfId="16" priority="11">
+    <cfRule type="expression" dxfId="16" priority="12">
       <formula>$G1=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="12">
+    <cfRule type="expression" dxfId="15" priority="13">
       <formula>$G1=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="13">
+    <cfRule type="expression" dxfId="14" priority="14">
       <formula>$G1=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="1" priority="15">
       <formula>$G1=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="15">
+    <cfRule type="expression" dxfId="0" priority="16">
       <formula>$G1=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="expression" dxfId="11" priority="10">
+    <cfRule type="expression" dxfId="13" priority="11">
       <formula>M1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="expression" dxfId="10" priority="9">
+    <cfRule type="expression" dxfId="12" priority="10">
       <formula>M1&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:O1048576">
-    <cfRule type="expression" dxfId="9" priority="6">
+    <cfRule type="expression" dxfId="11" priority="7">
       <formula>N1="W"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="7">
+    <cfRule type="expression" dxfId="10" priority="8">
       <formula>N1="T"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="9" priority="9">
       <formula>N1="L"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="expression" dxfId="6" priority="5">
+    <cfRule type="expression" dxfId="8" priority="6">
       <formula>$G1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:R1048576">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>OR($E1="bye",$E1="dnq")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AB1048576">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>$B1&lt;&gt;$B2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>AND($B1=$B2,$C1&lt;&gt;$C2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:R1048576">
-    <cfRule type="expression" dxfId="2" priority="16">
+    <cfRule type="expression" dxfId="4" priority="17">
       <formula>$C1="Post"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="17">
+    <cfRule type="expression" dxfId="3" priority="18">
       <formula>$C1="Reg"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="18">
+    <cfRule type="expression" dxfId="2" priority="19">
       <formula>$C1="Pre"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/la.xlsx
+++ b/la.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="83">
   <si>
     <t>Wk</t>
   </si>
@@ -272,6 +272,24 @@
   <si>
     <t>Date</t>
   </si>
+  <si>
+    <t>#4</t>
+  </si>
+  <si>
+    <t>#1</t>
+  </si>
+  <si>
+    <t>#2</t>
+  </si>
+  <si>
+    <t>#3</t>
+  </si>
+  <si>
+    <t>#5</t>
+  </si>
+  <si>
+    <t>#6</t>
+  </si>
 </sst>
 </file>
 
@@ -282,7 +300,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.000_ ;\-0.000\ "/>
-    <numFmt numFmtId="174" formatCode="[$]ddd\,\ mmm/\ d" x16r2:formatCode16="[$-us-US]ddd\,\ mmm/\ d"/>
+    <numFmt numFmtId="168" formatCode="[$]ddd\,\ mmm/\ d" x16r2:formatCode16="[$-us-US]ddd\,\ mmm/\ d"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -401,17 +419,2148 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="280">
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="3" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="3" tint="0.80001220740379042"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="5" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="5" tint="0.80001220740379042"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="3" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="3" tint="0.80001220740379042"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="5" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="0.5">
+            <color theme="5" tint="0.80001220740379042"/>
+          </stop>
+          <stop position="1">
+            <color theme="5" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="3" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="0.5">
+            <color theme="3" tint="0.80001220740379042"/>
+          </stop>
+          <stop position="1">
+            <color theme="3" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="5" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="5" tint="0.80001220740379042"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF00B050"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="6" tint="0.59999389629810485"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="dashed">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="5" tint="0.80001220740379042"/>
+          </stop>
+          <stop position="1">
+            <color theme="5" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="3" tint="0.80001220740379042"/>
+          </stop>
+          <stop position="1">
+            <color theme="3" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="5" tint="0.80001220740379042"/>
+          </stop>
+          <stop position="0.5">
+            <color theme="5" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="5" tint="0.80001220740379042"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="3" tint="0.80001220740379042"/>
+          </stop>
+          <stop position="0.5">
+            <color theme="3" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="3" tint="0.80001220740379042"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="5" tint="0.80001220740379042"/>
+          </stop>
+          <stop position="1">
+            <color theme="5" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="3" tint="0.80001220740379042"/>
+          </stop>
+          <stop position="1">
+            <color theme="3" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF00B050"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="6" tint="0.59999389629810485"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="dashed">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="5" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="3" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="0.5">
+            <color theme="5" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="0.5">
+            <color theme="3" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="5" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="3" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF00B050"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="6" tint="0.59999389629810485"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="dashed">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="5" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="3" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="0.5">
+            <color theme="5" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="0.5">
+            <color theme="3" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="5" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="3" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF00B050"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="6" tint="0.59999389629810485"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="dashed">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="0.5">
+            <color theme="3" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="3" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="0.5">
+            <color theme="3" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="3" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF00B050"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="6" tint="0.59999389629810485"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="dashed">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="3" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="0.5">
+            <color theme="3" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="3" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF00B050"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="6" tint="0.59999389629810485"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="dashed">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="0.5">
+            <color theme="9"/>
+          </stop>
+          <stop position="1">
+            <color theme="0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="0.5">
+            <color theme="9"/>
+          </stop>
+          <stop position="1">
+            <color theme="0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF00B050"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="6" tint="0.59999389629810485"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="dashed">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="0.5">
+            <color theme="7" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="7" tint="-0.25098422193060094"/>
+          </stop>
+          <stop position="0.5">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="7" tint="-0.25098422193060094"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
     <dxf>
       <fill>
         <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
@@ -626,10 +2775,45 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="0" tint="-0.499984740745262"/>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
     </dxf>
     <dxf>
       <fill>
@@ -799,6 +2983,1125 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="dashed">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF00B050"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="3" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="6" tint="0.59999389629810485"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="dashed">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF00B050"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="3" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="6" tint="0.59999389629810485"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="dashed">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF00B050"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="3" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="6" tint="0.59999389629810485"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="dashed">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF00B050"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="3" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="6" tint="0.59999389629810485"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="dashed">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF00B050"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="3" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="6" tint="0.59999389629810485"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill>
           <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
@@ -895,6 +4198,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1343,6 +4647,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1687,6 +4992,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="0"/>
@@ -1765,6 +5071,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="\+0;\-0;0" sourceLinked="1"/>
@@ -1811,6 +5118,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8439,7 +11747,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="124" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8527,7 +11835,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9298983" cy="6013665"/>
+    <xdr:ext cx="9302238" cy="6014577"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1">
@@ -9077,7 +12385,7 @@
   <dimension ref="A1:AC235"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A195" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E211" sqref="E211"/>
     </sheetView>
   </sheetViews>
@@ -9295,6 +12603,9 @@
       <c r="G3" s="5" t="s">
         <v>18</v>
       </c>
+      <c r="I3" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="L3" s="5">
         <v>28</v>
       </c>
@@ -9389,6 +12700,9 @@
       <c r="G4" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="I4" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="L4" s="5">
         <v>21</v>
       </c>
@@ -9483,6 +12797,9 @@
       <c r="G5" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="I5" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="L5" s="5">
         <v>9</v>
       </c>
@@ -9577,6 +12894,9 @@
       <c r="G6" s="5" t="s">
         <v>21</v>
       </c>
+      <c r="I6" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="L6" s="5">
         <v>25</v>
       </c>
@@ -11859,6 +15179,9 @@
       <c r="G29" s="5" t="s">
         <v>18</v>
       </c>
+      <c r="I29" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="L29" s="5">
         <v>13</v>
       </c>
@@ -11953,6 +15276,9 @@
       <c r="G30" s="5" t="s">
         <v>36</v>
       </c>
+      <c r="I30" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="L30" s="5">
         <v>24</v>
       </c>
@@ -12047,6 +15373,9 @@
       <c r="G31" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="I31" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="L31" s="5">
         <v>19</v>
       </c>
@@ -12141,6 +15470,9 @@
       <c r="G32" s="5" t="s">
         <v>38</v>
       </c>
+      <c r="I32" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="L32" s="5">
         <v>10</v>
       </c>
@@ -14435,6 +17767,9 @@
       <c r="G55" s="5" t="s">
         <v>58</v>
       </c>
+      <c r="I55" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="L55" s="5">
         <v>7</v>
       </c>
@@ -14529,6 +17864,9 @@
       <c r="G56" s="5" t="s">
         <v>36</v>
       </c>
+      <c r="I56" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="L56" s="5">
         <v>19</v>
       </c>
@@ -14623,6 +17961,9 @@
       <c r="G57" s="5" t="s">
         <v>42</v>
       </c>
+      <c r="I57" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="L57" s="5">
         <v>21</v>
       </c>
@@ -14717,6 +18058,9 @@
       <c r="G58" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="I58" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="L58" s="5">
         <v>0</v>
       </c>
@@ -16671,6 +20015,15 @@
       <c r="G77" s="5" t="s">
         <v>18</v>
       </c>
+      <c r="I77" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K77" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="L77" s="5">
         <v>30</v>
       </c>
@@ -16765,6 +20118,15 @@
       <c r="G78" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="I78" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J78" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K78" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="L78" s="5">
         <v>26</v>
       </c>
@@ -16859,6 +20221,15 @@
       <c r="G79" s="5" t="s">
         <v>33</v>
       </c>
+      <c r="I79" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K79" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="L79" s="5">
         <v>3</v>
       </c>
@@ -17035,6 +20406,9 @@
       <c r="G81" s="5" t="s">
         <v>36</v>
       </c>
+      <c r="I81" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="L81" s="5">
         <v>3</v>
       </c>
@@ -17129,6 +20503,9 @@
       <c r="G82" s="5" t="s">
         <v>18</v>
       </c>
+      <c r="I82" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="L82" s="5">
         <v>10</v>
       </c>
@@ -17223,6 +20600,9 @@
       <c r="G83" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="I83" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="L83" s="5">
         <v>10</v>
       </c>
@@ -17317,6 +20697,9 @@
       <c r="G84" s="5" t="s">
         <v>42</v>
       </c>
+      <c r="I84" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="L84" s="5">
         <v>22</v>
       </c>
@@ -19587,6 +22970,9 @@
       <c r="G107" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="I107" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="L107" s="5" t="s">
         <v>63</v>
       </c>
@@ -19678,6 +23064,9 @@
       <c r="G108" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="I108" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="L108" s="5" t="s">
         <v>63</v>
       </c>
@@ -19769,6 +23158,9 @@
       <c r="G109" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="I109" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="L109" s="5" t="s">
         <v>63</v>
       </c>
@@ -19860,6 +23252,9 @@
       <c r="G110" s="5" t="s">
         <v>36</v>
       </c>
+      <c r="I110" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="L110" s="5" t="s">
         <v>63</v>
       </c>
@@ -21729,6 +25124,15 @@
       <c r="G128" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="I128" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J128" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K128" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="L128" s="5">
         <v>30</v>
       </c>
@@ -21823,6 +25227,15 @@
       <c r="G129" s="5" t="s">
         <v>38</v>
       </c>
+      <c r="I129" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J129" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K129" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="L129" s="5">
         <v>18</v>
       </c>
@@ -22163,6 +25576,9 @@
       <c r="G133" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="I133" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="L133" s="5">
         <v>6</v>
       </c>
@@ -22257,6 +25673,9 @@
       <c r="G134" s="5" t="s">
         <v>36</v>
       </c>
+      <c r="I134" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="L134" s="5">
         <v>16</v>
       </c>
@@ -22351,6 +25770,9 @@
       <c r="G135" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="I135" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="L135" s="5">
         <v>12</v>
       </c>
@@ -24329,6 +27751,15 @@
       <c r="G154" s="5" t="s">
         <v>25</v>
       </c>
+      <c r="I154" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J154" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K154" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="L154" s="5">
         <v>34</v>
       </c>
@@ -24423,6 +27854,15 @@
       <c r="G155" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="I155" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J155" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K155" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="L155" s="5">
         <v>30</v>
       </c>
@@ -24517,6 +27957,15 @@
       <c r="G156" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="I156" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J156" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K156" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="L156" s="5">
         <v>20</v>
       </c>
@@ -24611,6 +28060,15 @@
       <c r="G157" s="5" t="s">
         <v>61</v>
       </c>
+      <c r="I157" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J157" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K157" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="L157" s="5">
         <v>23</v>
       </c>
@@ -24787,6 +28245,9 @@
       <c r="G159" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="I159" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="L159" s="5">
         <v>29</v>
       </c>
@@ -24881,6 +28342,9 @@
       <c r="G160" s="5" t="s">
         <v>42</v>
       </c>
+      <c r="I160" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="L160" s="5">
         <v>20</v>
       </c>
@@ -24975,6 +28439,9 @@
       <c r="G161" s="5" t="s">
         <v>61</v>
       </c>
+      <c r="I161" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="L161" s="5">
         <v>7</v>
       </c>
@@ -27363,6 +30830,9 @@
       <c r="G185" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="I185" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="L185" s="5">
         <v>17</v>
       </c>
@@ -27457,6 +30927,9 @@
       <c r="G186" s="5" t="s">
         <v>36</v>
       </c>
+      <c r="I186" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="L186" s="5">
         <v>17</v>
       </c>
@@ -27551,6 +31024,9 @@
       <c r="G187" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="I187" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="L187" s="5">
         <v>0</v>
       </c>
@@ -29529,6 +33005,15 @@
       <c r="G206" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="I206" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J206" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K206" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="L206" s="5">
         <v>23</v>
       </c>
@@ -31194,70 +34679,93 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:AC1048576">
-    <cfRule type="expression" dxfId="33" priority="18">
+    <cfRule type="expression" dxfId="21" priority="29">
       <formula>AND($B1=$B2,$C1&lt;&gt;$C2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="19">
+    <cfRule type="expression" dxfId="20" priority="30">
       <formula>$B1&lt;&gt;$B2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:S1048576">
-    <cfRule type="expression" dxfId="31" priority="15">
+    <cfRule type="expression" dxfId="19" priority="26">
       <formula>$C1="Post"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="16">
+    <cfRule type="expression" dxfId="18" priority="27">
       <formula>$C1="Reg"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="17">
+    <cfRule type="expression" dxfId="17" priority="28">
       <formula>$C1="Pre"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:S1048576">
-    <cfRule type="expression" dxfId="17" priority="3">
+  <conditionalFormatting sqref="E1:S1048576">
+    <cfRule type="expression" dxfId="16" priority="11">
       <formula>OR($E1="bye",$E1="dnq")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="expression" dxfId="28" priority="4">
+    <cfRule type="expression" dxfId="15" priority="15">
       <formula>$H1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:K1048576">
-    <cfRule type="expression" dxfId="27" priority="5">
-      <formula>$H1=5</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="6">
-      <formula>$H1=4</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="7">
-      <formula>$H1=3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="8">
-      <formula>$H1=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="23" priority="9">
-      <formula>$H1=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="expression" dxfId="22" priority="14">
+    <cfRule type="expression" dxfId="14" priority="25">
       <formula>N1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1048576">
-    <cfRule type="expression" dxfId="21" priority="13">
+    <cfRule type="expression" dxfId="13" priority="24">
       <formula>N1&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:P1048576">
-    <cfRule type="expression" dxfId="20" priority="10">
+    <cfRule type="expression" dxfId="12" priority="21">
       <formula>O1="W"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="11">
+    <cfRule type="expression" dxfId="11" priority="22">
       <formula>O1="T"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="12">
+    <cfRule type="expression" dxfId="10" priority="23">
       <formula>O1="L"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="expression" dxfId="9" priority="14">
+      <formula>OR(E1="bye",E1="dnq")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="expression" dxfId="8" priority="10">
+      <formula>I1="AFC"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="9">
+      <formula>I1="NFC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="expression" dxfId="0" priority="7">
+      <formula>AND($H1=2,$I1="NFC")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="3">
+      <formula>AND($H1=4,$I1="AFC")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:K1048576">
+    <cfRule type="expression" dxfId="5" priority="8">
+      <formula>$H1=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>AND($H1=3,$I1="NFC")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>AND($H1=5,$I1="AFC")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1048576">
+    <cfRule type="expression" dxfId="2" priority="5">
+      <formula>AND($H1=2,$I1="NFC")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>AND($H1=4,$I1="AFC")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/la.xlsx
+++ b/la.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="2" r:id="rId1"/>
-    <sheet name="RS 2023" sheetId="13" r:id="rId2"/>
-    <sheet name="RS 2022" sheetId="12" r:id="rId3"/>
-    <sheet name="RS 2021" sheetId="11" r:id="rId4"/>
-    <sheet name="RS 2020" sheetId="10" r:id="rId5"/>
-    <sheet name="RS 2019" sheetId="9" r:id="rId6"/>
-    <sheet name="RS 2018" sheetId="8" r:id="rId7"/>
-    <sheet name="RS 2017" sheetId="7" r:id="rId8"/>
-    <sheet name="RS 2016" sheetId="6" r:id="rId9"/>
+    <sheet name="NULL" sheetId="14" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="2" r:id="rId2"/>
+    <sheet name="RS 2023" sheetId="13" r:id="rId3"/>
+    <sheet name="RS 2022" sheetId="12" r:id="rId4"/>
+    <sheet name="RS 2021" sheetId="11" r:id="rId5"/>
+    <sheet name="RS 2020" sheetId="10" r:id="rId6"/>
+    <sheet name="RS 2019" sheetId="9" r:id="rId7"/>
+    <sheet name="RS 2018" sheetId="8" r:id="rId8"/>
+    <sheet name="RS 2017" sheetId="7" r:id="rId9"/>
+    <sheet name="RS 2016" sheetId="6" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="85">
   <si>
     <t>Wk</t>
   </si>
@@ -290,6 +291,12 @@
   <si>
     <t>#6</t>
   </si>
+  <si>
+    <t>heller</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
 </sst>
 </file>
 
@@ -349,7 +356,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -359,6 +366,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF003069"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCF0921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCBAAF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB0B4CB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -425,19 +456,166 @@
     <xf numFmtId="168" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="280">
+  <dxfs count="154">
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF003069"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCF0921"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF003069"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFCF0921"/>
+        </patternFill>
+      </fill>
+      <border>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF003069"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
       <fill>
         <gradientFill>
           <stop position="0">
-            <color theme="3" tint="0.40000610370189521"/>
+            <color rgb="FF003069"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFB0B4CB"/>
           </stop>
           <stop position="1">
-            <color theme="3" tint="0.80001220740379042"/>
+            <color rgb="FF003069"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF003069"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFB0B4CB"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF003069"/>
           </stop>
         </gradientFill>
       </fill>
@@ -448,6 +626,1597 @@
         <bottom style="thin">
           <color theme="0"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFCF0921"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFCBAAF"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFCF0921"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FFCF0921"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFCBAAF"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFCF0921"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF00B050"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="6" tint="0.59999389629810485"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="dashed">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FFCF0921"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFCBAAF"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FF003069"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFB0B4CB"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FFCF0921"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFCBAAF"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFCF0921"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF003069"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFB0B4CB"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF003069"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF003069"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFCF0921"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFCBAAF"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF003069"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFB0B4CB"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF003069"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCF0921"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF00B050"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="6" tint="0.59999389629810485"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="dashed">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FFCF0921"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFCBAAF"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FF003069"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFB0B4CB"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FFCF0921"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFCBAAF"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFCF0921"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF003069"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFB0B4CB"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF003069"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF003069"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFCF0921"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFCBAAF"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF003069"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFB0B4CB"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF003069"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCF0921"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF00B050"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="6" tint="0.59999389629810485"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="dashed">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFCBAAF"/>
+      </font>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FFCF0921"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFCBAAF"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB0B4CB"/>
+      </font>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FF003069"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFB0B4CB"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFCBAAF"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FFCF0921"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFCBAAF"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFCF0921"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB0B4CB"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF003069"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFB0B4CB"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF003069"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB0B4CB"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF003069"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFCBAAF"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFCF0921"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFCBAAF"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB0B4CB"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF003069"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFB0B4CB"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB0B4CB"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF003069"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFCBAAF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCF0921"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF00B050"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="6" tint="0.59999389629810485"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="dashed">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFCBAAF"/>
+      </font>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FFCF0921"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFCBAAF"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB0B4CB"/>
+      </font>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FF003069"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFB0B4CB"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="5" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="0.5">
+            <color theme="5" tint="0.80001220740379042"/>
+          </stop>
+          <stop position="1">
+            <color theme="5" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB0B4CB"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF003069"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFB0B4CB"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF003069"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB0B4CB"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF003069"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFCBAAF"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFCF0921"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFCBAAF"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB0B4CB"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF003069"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFB0B4CB"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB0B4CB"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF003069"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFCBAAF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCF0921"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF00B050"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="6" tint="0.59999389629810485"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="dashed">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -586,8 +2355,28 @@
     </dxf>
     <dxf>
       <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="3" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="3" tint="0.80001220740379042"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
       <border>
@@ -756,6 +2545,52 @@
       <fill>
         <gradientFill degree="180">
           <stop position="0">
+            <color theme="5" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="5" tint="0.80001220740379042"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="3" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="3" tint="0.80001220740379042"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="5" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="0.5">
             <color theme="5" tint="0.80001220740379042"/>
           </stop>
           <stop position="1">
@@ -776,61 +2611,15 @@
     </dxf>
     <dxf>
       <fill>
-        <gradientFill degree="180">
+        <gradientFill degree="90">
           <stop position="0">
+            <color theme="3" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="0.5">
             <color theme="3" tint="0.80001220740379042"/>
           </stop>
           <stop position="1">
             <color theme="3" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="5" tint="0.80001220740379042"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="5" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="5" tint="0.80001220740379042"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="3" tint="0.80001220740379042"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="3" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="3" tint="0.80001220740379042"/>
           </stop>
         </gradientFill>
       </fill>
@@ -867,10 +2656,10 @@
       <fill>
         <gradientFill>
           <stop position="0">
-            <color theme="5" tint="0.80001220740379042"/>
+            <color theme="5" tint="0.40000610370189521"/>
           </stop>
           <stop position="1">
-            <color theme="5" tint="0.40000610370189521"/>
+            <color theme="5" tint="0.80001220740379042"/>
           </stop>
         </gradientFill>
       </fill>
@@ -890,10 +2679,10 @@
       <fill>
         <gradientFill>
           <stop position="0">
-            <color theme="3" tint="0.80001220740379042"/>
+            <color theme="3" tint="0.40000610370189521"/>
           </stop>
           <stop position="1">
-            <color theme="3" tint="0.40000610370189521"/>
+            <color theme="3" tint="0.80001220740379042"/>
           </stop>
         </gradientFill>
       </fill>
@@ -1074,3082 +2863,20 @@
         <horizontal/>
       </border>
     </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="5" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="3" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="5" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="3" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="5" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="3" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF00B050"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="6" tint="0.59999389629810485"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="dashed">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="5" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="3" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="5" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="3" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="5" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="3" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF00B050"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="6" tint="0.59999389629810485"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="dashed">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="3" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="3" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="3" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="3" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF00B050"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="6" tint="0.59999389629810485"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="dashed">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="3" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="3" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="3" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF00B050"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="6" tint="0.59999389629810485"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="dashed">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="9"/>
-          </stop>
-          <stop position="1">
-            <color theme="0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="9"/>
-          </stop>
-          <stop position="1">
-            <color theme="0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF00B050"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="6" tint="0.59999389629810485"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="dashed">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="7" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF00B050"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="3" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="6" tint="0.59999389629810485"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="dashed">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF00B050"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="3" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="6" tint="0.59999389629810485"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="dashed">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF00B050"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="3" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="6" tint="0.59999389629810485"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="dashed">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF00B050"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="3" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="6" tint="0.59999389629810485"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="dashed">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF00B050"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="3" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="6" tint="0.59999389629810485"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="dashed">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF00B050"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="3" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="6" tint="0.59999389629810485"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="dashed">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF00B050"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="3" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="6" tint="0.59999389629810485"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="dashed">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFB0B4CB"/>
+      <color rgb="FFFCBAAF"/>
+      <color rgb="FF003069"/>
+      <color rgb="FFCF0921"/>
       <color rgb="FF003594"/>
       <color rgb="FFFFD100"/>
       <color rgb="FFC9AF74"/>
       <color rgb="FF9B8C69"/>
       <color rgb="FF13264B"/>
       <color rgb="FF6E6A5F"/>
-      <color rgb="FF404855"/>
     </mruColors>
   </colors>
   <extLst>
@@ -12382,10 +11109,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="9" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="17"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2">
+        <v>207</v>
+      </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>33</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="F2">
+        <v>252</v>
+      </c>
+      <c r="G2">
+        <v>186</v>
+      </c>
+      <c r="H2">
+        <v>175</v>
+      </c>
+      <c r="I2" s="21"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>48</v>
+      </c>
+      <c r="D3">
+        <v>105</v>
+      </c>
+      <c r="E3" s="19"/>
+      <c r="F3">
+        <v>176</v>
+      </c>
+      <c r="G3">
+        <v>180</v>
+      </c>
+      <c r="H3">
+        <v>203</v>
+      </c>
+      <c r="I3" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC235"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E211" sqref="E211"/>
     </sheetView>
   </sheetViews>
@@ -12397,7 +11208,7 @@
     <col min="5" max="5" width="13.5703125" style="15" customWidth="1"/>
     <col min="6" max="6" width="4.7109375" style="5" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.7109375" style="9" customWidth="1"/>
     <col min="9" max="9" width="4.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4.42578125" style="5" bestFit="1" customWidth="1"/>
@@ -34733,39 +33544,37 @@
       <formula>OR(E1="bye",E1="dnq")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="expression" dxfId="8" priority="10">
-      <formula>I1="AFC"</formula>
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="expression" dxfId="8" priority="2">
+      <formula>AND($H1=5,$I1="AFC")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="9">
-      <formula>I1="NFC"</formula>
+    <cfRule type="expression" dxfId="7" priority="3">
+      <formula>AND($H1=4,$I1="AFC")</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="expression" dxfId="0" priority="7">
+    <cfRule type="expression" dxfId="6" priority="5">
+      <formula>AND($H1=3,$I1="NFC")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>AND($H1=2,$I1="NFC")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="3">
-      <formula>AND($H1=4,$I1="AFC")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J1:K1048576">
-    <cfRule type="expression" dxfId="5" priority="8">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>$H1=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
-      <formula>AND($H1=3,$I1="NFC")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>AND($H1=5,$I1="AFC")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="expression" dxfId="2" priority="5">
-      <formula>AND($H1=2,$I1="NFC")</formula>
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>AND(OR($H1=4,$H1=5),$I1="AFC")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>AND($H1=4,$I1="AFC")</formula>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>AND(OR($H1=1,$H1=2,$H1=3),$I1="NFC")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="expression" dxfId="1" priority="9">
+      <formula>I1="AFC"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="10">
+      <formula>I1="NFC"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/la.xlsx
+++ b/la.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="85">
   <si>
     <t>Wk</t>
   </si>
@@ -274,28 +274,28 @@
     <t>Date</t>
   </si>
   <si>
-    <t>#4</t>
-  </si>
-  <si>
-    <t>#1</t>
-  </si>
-  <si>
-    <t>#2</t>
-  </si>
-  <si>
-    <t>#3</t>
-  </si>
-  <si>
-    <t>#5</t>
-  </si>
-  <si>
-    <t>#6</t>
-  </si>
-  <si>
     <t>heller</t>
   </si>
   <si>
     <t>std</t>
+  </si>
+  <si>
+    <t>#3 Seed</t>
+  </si>
+  <si>
+    <t>#5 Seed</t>
+  </si>
+  <si>
+    <t>#2 Seed</t>
+  </si>
+  <si>
+    <t>#6 Seed</t>
+  </si>
+  <si>
+    <t>#4 Seed</t>
+  </si>
+  <si>
+    <t>#1 Seed</t>
   </si>
 </sst>
 </file>
@@ -459,18 +459,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="154">
+  <dxfs count="22">
     <dxf>
       <font>
         <b/>
@@ -822,2047 +822,6 @@
         <horizontal/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color rgb="FFCF0921"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFCBAAF"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color rgb="FF003069"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFB0B4CB"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFCF0921"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFFCBAAF"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFCF0921"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF003069"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFB0B4CB"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF003069"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF003069"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FFCF0921"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFCBAAF"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF003069"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFB0B4CB"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF003069"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCF0921"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF00B050"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="6" tint="0.59999389629810485"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="dashed">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color rgb="FFCF0921"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFCBAAF"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color rgb="FF003069"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFB0B4CB"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFCF0921"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFFCBAAF"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFCF0921"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF003069"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFB0B4CB"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF003069"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF003069"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FFCF0921"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFCBAAF"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF003069"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFB0B4CB"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF003069"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCF0921"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF00B050"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="6" tint="0.59999389629810485"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="dashed">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFCBAAF"/>
-      </font>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color rgb="FFCF0921"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFCBAAF"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB0B4CB"/>
-      </font>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color rgb="FF003069"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFB0B4CB"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFCBAAF"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFCF0921"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFFCBAAF"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFCF0921"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB0B4CB"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF003069"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFB0B4CB"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF003069"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB0B4CB"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF003069"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFCBAAF"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FFCF0921"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFCBAAF"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB0B4CB"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF003069"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFB0B4CB"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB0B4CB"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF003069"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFCBAAF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCF0921"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF00B050"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="6" tint="0.59999389629810485"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="dashed">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFCBAAF"/>
-      </font>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color rgb="FFCF0921"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFCBAAF"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB0B4CB"/>
-      </font>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color rgb="FF003069"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFB0B4CB"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="5" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="5" tint="0.80001220740379042"/>
-          </stop>
-          <stop position="1">
-            <color theme="5" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB0B4CB"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF003069"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFB0B4CB"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF003069"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB0B4CB"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF003069"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFCBAAF"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FFCF0921"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFCBAAF"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB0B4CB"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF003069"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFB0B4CB"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB0B4CB"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF003069"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFCBAAF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCF0921"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF00B050"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="6" tint="0.59999389629810485"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="dashed">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color theme="5" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="5" tint="0.80001220740379042"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color theme="3" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="3" tint="0.80001220740379042"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="5" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="5" tint="0.80001220740379042"/>
-          </stop>
-          <stop position="1">
-            <color theme="5" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="3" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="3" tint="0.80001220740379042"/>
-          </stop>
-          <stop position="1">
-            <color theme="3" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color theme="5" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="5" tint="0.80001220740379042"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color theme="3" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="3" tint="0.80001220740379042"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF00B050"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="6" tint="0.59999389629810485"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="dashed">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color theme="5" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="5" tint="0.80001220740379042"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color theme="3" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="3" tint="0.80001220740379042"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="5" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="5" tint="0.80001220740379042"/>
-          </stop>
-          <stop position="1">
-            <color theme="5" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="3" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="3" tint="0.80001220740379042"/>
-          </stop>
-          <stop position="1">
-            <color theme="3" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color theme="5" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="5" tint="0.80001220740379042"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color theme="3" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="3" tint="0.80001220740379042"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF00B050"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="6" tint="0.59999389629810485"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="dashed">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2925,7 +884,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3374,7 +1332,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3719,7 +1676,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="0"/>
@@ -3798,7 +1754,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="\+0;\-0;0" sourceLinked="1"/>
@@ -3845,7 +1800,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -11119,17 +9073,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="17"/>
-      <c r="F1" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="F1" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
       <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -11145,7 +9099,7 @@
       <c r="D2">
         <v>33</v>
       </c>
-      <c r="E2" s="20"/>
+      <c r="E2" s="19"/>
       <c r="F2">
         <v>252</v>
       </c>
@@ -11155,7 +9109,7 @@
       <c r="H2">
         <v>175</v>
       </c>
-      <c r="I2" s="21"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -11170,7 +9124,7 @@
       <c r="D3">
         <v>105</v>
       </c>
-      <c r="E3" s="19"/>
+      <c r="E3" s="18"/>
       <c r="F3">
         <v>176</v>
       </c>
@@ -11180,7 +9134,7 @@
       <c r="H3">
         <v>203</v>
       </c>
-      <c r="I3" s="22"/>
+      <c r="I3" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -18830,10 +16784,7 @@
         <v>45</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="K77" s="5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L77" s="5">
         <v>30</v>
@@ -18933,10 +16884,7 @@
         <v>45</v>
       </c>
       <c r="J78" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="K78" s="5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L78" s="5">
         <v>26</v>
@@ -19036,10 +16984,7 @@
         <v>54</v>
       </c>
       <c r="J79" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="K79" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L79" s="5">
         <v>3</v>
@@ -23939,10 +21884,7 @@
         <v>45</v>
       </c>
       <c r="J128" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K128" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L128" s="5">
         <v>30</v>
@@ -24042,10 +21984,7 @@
         <v>45</v>
       </c>
       <c r="J129" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K129" s="5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L129" s="5">
         <v>18</v>
@@ -26566,10 +24505,7 @@
         <v>45</v>
       </c>
       <c r="J154" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K154" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L154" s="5">
         <v>34</v>
@@ -26669,10 +24605,7 @@
         <v>45</v>
       </c>
       <c r="J155" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="K155" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L155" s="5">
         <v>30</v>
@@ -26772,9 +24705,6 @@
         <v>45</v>
       </c>
       <c r="J156" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K156" s="5" t="s">
         <v>82</v>
       </c>
       <c r="L156" s="5">
@@ -26875,10 +24805,7 @@
         <v>54</v>
       </c>
       <c r="J157" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K157" s="5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L157" s="5">
         <v>23</v>
@@ -31820,10 +29747,7 @@
         <v>45</v>
       </c>
       <c r="J206" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K206" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L206" s="5">
         <v>23</v>

--- a/la.xlsx
+++ b/la.xlsx
@@ -470,7 +470,747 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="68">
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color theme="0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF003069"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCF0921"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF003069"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFCF0921"/>
+        </patternFill>
+      </fill>
+      <border>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF003069"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF003069"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFB0B4CB"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF003069"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF003069"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFB0B4CB"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF003069"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFCF0921"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFCBAAF"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFCF0921"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FFCF0921"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFCBAAF"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFCF0921"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF00B050"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="6" tint="0.59999389629810485"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="dashed">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color theme="0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF003069"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCF0921"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF003069"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFCF0921"/>
+        </patternFill>
+      </fill>
+      <border>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF003069"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF003069"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFB0B4CB"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF003069"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF003069"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFB0B4CB"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF003069"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFCF0921"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFCBAAF"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFCF0921"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FFCF0921"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFCBAAF"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFCF0921"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF00B050"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="6" tint="0.59999389629810485"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="dashed">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -31414,91 +32154,96 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:AC1048576">
-    <cfRule type="expression" dxfId="21" priority="29">
+    <cfRule type="expression" dxfId="45" priority="30">
       <formula>AND($B1=$B2,$C1&lt;&gt;$C2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="30">
+    <cfRule type="expression" dxfId="44" priority="31">
       <formula>$B1&lt;&gt;$B2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:S1048576">
-    <cfRule type="expression" dxfId="19" priority="26">
+    <cfRule type="expression" dxfId="43" priority="27">
       <formula>$C1="Post"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="27">
+    <cfRule type="expression" dxfId="42" priority="28">
       <formula>$C1="Reg"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="28">
+    <cfRule type="expression" dxfId="41" priority="29">
       <formula>$C1="Pre"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:S1048576">
-    <cfRule type="expression" dxfId="16" priority="11">
+    <cfRule type="expression" dxfId="40" priority="12">
       <formula>OR($E1="bye",$E1="dnq")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="expression" dxfId="15" priority="15">
+    <cfRule type="expression" dxfId="39" priority="16">
       <formula>$H1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="expression" dxfId="14" priority="25">
+    <cfRule type="expression" dxfId="38" priority="26">
       <formula>N1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1048576">
-    <cfRule type="expression" dxfId="13" priority="24">
+    <cfRule type="expression" dxfId="37" priority="25">
       <formula>N1&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:P1048576">
-    <cfRule type="expression" dxfId="12" priority="21">
+    <cfRule type="expression" dxfId="36" priority="22">
       <formula>O1="W"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="22">
+    <cfRule type="expression" dxfId="35" priority="23">
       <formula>O1="T"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="23">
+    <cfRule type="expression" dxfId="34" priority="24">
       <formula>O1="L"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="expression" dxfId="9" priority="14">
+    <cfRule type="expression" dxfId="33" priority="15">
       <formula>OR(E1="bye",E1="dnq")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="32" priority="3">
       <formula>AND($H1=5,$I1="AFC")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="31" priority="4">
       <formula>AND($H1=4,$I1="AFC")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="5">
+    <cfRule type="expression" dxfId="30" priority="6">
       <formula>AND($H1=3,$I1="NFC")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="29" priority="8">
       <formula>AND($H1=2,$I1="NFC")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8">
+    <cfRule type="expression" dxfId="28" priority="9">
       <formula>$H1=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="27" priority="2">
       <formula>AND(OR($H1=4,$H1=5),$I1="AFC")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="26" priority="5">
       <formula>AND(OR($H1=1,$H1=2,$H1=3),$I1="NFC")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="expression" dxfId="1" priority="9">
+    <cfRule type="expression" dxfId="25" priority="10">
       <formula>I1="AFC"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="10">
+    <cfRule type="expression" dxfId="24" priority="11">
       <formula>I1="NFC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:K1048576">
+    <cfRule type="expression" dxfId="23" priority="1">
+      <formula>LEFT($J1,1)="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
